--- a/Backend/data/Datos_Dummy_Vehiculos.xlsx
+++ b/Backend/data/Datos_Dummy_Vehiculos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\ProyectoConsultasEnLinea\Backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\ProyectoConsultasEnLinea\Backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373998F8-7089-44E1-852B-2EF2A7742227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19647E32-EFB9-46EA-B3CE-E5D14A3D41EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t>Permiso Ciculación Restringida</t>
   </si>
   <si>
-    <t>AWX123</t>
-  </si>
-  <si>
     <t>Particular</t>
   </si>
   <si>
@@ -523,6 +520,9 @@
   </si>
   <si>
     <t>Kia</t>
+  </si>
+  <si>
+    <t>ABC123</t>
   </si>
 </sst>
 </file>
@@ -851,7 +851,7 @@
   <dimension ref="A1:AG102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:X1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,7 +993,7 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>146</v>
@@ -1002,22 +1002,22 @@
         <v>1234567890</v>
       </c>
       <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
       </c>
       <c r="J2">
         <v>123456</v>
@@ -1035,28 +1035,28 @@
         <v>1500</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="1">
         <v>45292</v>
       </c>
       <c r="R2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W2">
         <v>5</v>
@@ -1080,36 +1080,36 @@
         <v>45657</v>
       </c>
       <c r="AD2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" t="s">
-        <v>45</v>
-      </c>
       <c r="AF2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3">
         <v>1008539057</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J3">
         <v>284340</v>
@@ -1124,25 +1124,25 @@
         <v>777273</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="1">
         <v>45447</v>
       </c>
       <c r="R3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W3">
         <v>4</v>
@@ -1163,33 +1163,33 @@
         <v>45659</v>
       </c>
       <c r="AD3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4">
         <v>1017782308</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J4">
         <v>279760</v>
@@ -1204,25 +1204,25 @@
         <v>296238</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="1">
         <v>42197</v>
       </c>
       <c r="R4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W4">
         <v>4</v>
@@ -1243,33 +1243,33 @@
         <v>45663</v>
       </c>
       <c r="AD4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5">
         <v>1009027789</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J5">
         <v>221833</v>
@@ -1284,25 +1284,25 @@
         <v>450834</v>
       </c>
       <c r="P5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="1">
         <v>42697</v>
       </c>
       <c r="R5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W5">
         <v>4</v>
@@ -1323,33 +1323,33 @@
         <v>45668</v>
       </c>
       <c r="AD5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6">
         <v>1003947845</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J6">
         <v>139195</v>
@@ -1364,25 +1364,25 @@
         <v>873940</v>
       </c>
       <c r="P6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="1">
         <v>42739</v>
       </c>
       <c r="R6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W6">
         <v>4</v>
@@ -1403,33 +1403,33 @@
         <v>45672</v>
       </c>
       <c r="AD6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7">
         <v>1005338700</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7">
         <v>319219</v>
@@ -1444,25 +1444,25 @@
         <v>492134</v>
       </c>
       <c r="P7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="1">
         <v>43239</v>
       </c>
       <c r="R7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W7">
         <v>4</v>
@@ -1483,33 +1483,33 @@
         <v>45677</v>
       </c>
       <c r="AD7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8">
         <v>1002302378</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J8">
         <v>654068</v>
@@ -1524,25 +1524,25 @@
         <v>972972</v>
       </c>
       <c r="P8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="1">
         <v>43716</v>
       </c>
       <c r="R8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W8">
         <v>4</v>
@@ -1563,33 +1563,33 @@
         <v>45684</v>
       </c>
       <c r="AD8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9">
         <v>1005722316</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J9">
         <v>478450</v>
@@ -1604,25 +1604,25 @@
         <v>683741</v>
       </c>
       <c r="P9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="1">
         <v>43874</v>
       </c>
       <c r="R9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W9">
         <v>4</v>
@@ -1643,33 +1643,33 @@
         <v>45691</v>
       </c>
       <c r="AD9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10">
         <v>1009003874</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J10">
         <v>178375</v>
@@ -1684,25 +1684,25 @@
         <v>599289</v>
       </c>
       <c r="P10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="1">
         <v>44372</v>
       </c>
       <c r="R10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W10">
         <v>4</v>
@@ -1723,33 +1723,33 @@
         <v>45696</v>
       </c>
       <c r="AD10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11">
         <v>1012746554</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J11">
         <v>467315</v>
@@ -1764,25 +1764,25 @@
         <v>948121</v>
       </c>
       <c r="P11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="1">
         <v>44835</v>
       </c>
       <c r="R11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W11">
         <v>4</v>
@@ -1803,33 +1803,33 @@
         <v>45702</v>
       </c>
       <c r="AD11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12">
         <v>1012627461</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J12">
         <v>126797</v>
@@ -1844,25 +1844,25 @@
         <v>795348</v>
       </c>
       <c r="P12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="1">
         <v>45275</v>
       </c>
       <c r="R12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W12">
         <v>4</v>
@@ -1883,33 +1883,33 @@
         <v>45709</v>
       </c>
       <c r="AD12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13">
         <v>1015149761</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J13">
         <v>298010</v>
@@ -1924,25 +1924,25 @@
         <v>832866</v>
       </c>
       <c r="P13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="1">
         <v>41757</v>
       </c>
       <c r="R13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W13">
         <v>4</v>
@@ -1963,33 +1963,33 @@
         <v>45716</v>
       </c>
       <c r="AD13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14">
         <v>1002271511</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J14">
         <v>562940</v>
@@ -2004,25 +2004,25 @@
         <v>424272</v>
       </c>
       <c r="P14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="1">
         <v>42223</v>
       </c>
       <c r="R14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W14">
         <v>4</v>
@@ -2043,33 +2043,33 @@
         <v>45721</v>
       </c>
       <c r="AD14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C15">
         <v>1014717513</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J15">
         <v>821744</v>
@@ -2084,25 +2084,25 @@
         <v>348830</v>
       </c>
       <c r="P15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="1">
         <v>42722</v>
       </c>
       <c r="R15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W15">
         <v>4</v>
@@ -2123,33 +2123,33 @@
         <v>45728</v>
       </c>
       <c r="AD15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16">
         <v>1010254677</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J16">
         <v>524391</v>
@@ -2164,25 +2164,25 @@
         <v>735744</v>
       </c>
       <c r="P16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="1">
         <v>42796</v>
       </c>
       <c r="R16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W16">
         <v>4</v>
@@ -2203,33 +2203,33 @@
         <v>45733</v>
       </c>
       <c r="AD16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17">
         <v>1015545705</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J17">
         <v>705298</v>
@@ -2244,25 +2244,25 @@
         <v>839595</v>
       </c>
       <c r="P17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q17" s="1">
         <v>43303</v>
       </c>
       <c r="R17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W17">
         <v>4</v>
@@ -2283,33 +2283,33 @@
         <v>45739</v>
       </c>
       <c r="AD17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18">
         <v>1000020345</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J18">
         <v>276483</v>
@@ -2324,25 +2324,25 @@
         <v>574065</v>
       </c>
       <c r="P18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="1">
         <v>43774</v>
       </c>
       <c r="R18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W18">
         <v>4</v>
@@ -2363,33 +2363,33 @@
         <v>45745</v>
       </c>
       <c r="AD18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19">
         <v>1010841130</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J19">
         <v>623266</v>
@@ -2404,25 +2404,25 @@
         <v>476320</v>
       </c>
       <c r="P19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="1">
         <v>43857</v>
       </c>
       <c r="R19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W19">
         <v>4</v>
@@ -2443,33 +2443,33 @@
         <v>45751</v>
       </c>
       <c r="AD19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20">
         <v>1011282220</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J20">
         <v>528138</v>
@@ -2484,25 +2484,25 @@
         <v>797616</v>
       </c>
       <c r="P20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q20" s="1">
         <v>44380</v>
       </c>
       <c r="R20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W20">
         <v>4</v>
@@ -2523,33 +2523,33 @@
         <v>45757</v>
       </c>
       <c r="AD20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21">
         <v>1007211174</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J21">
         <v>617125</v>
@@ -2564,25 +2564,25 @@
         <v>832280</v>
       </c>
       <c r="P21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q21" s="1">
         <v>44874</v>
       </c>
       <c r="R21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W21">
         <v>4</v>
@@ -2603,33 +2603,33 @@
         <v>45763</v>
       </c>
       <c r="AD21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C22">
         <v>1008301114</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J22">
         <v>389919</v>
@@ -2644,25 +2644,25 @@
         <v>744438</v>
       </c>
       <c r="P22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q22" s="1">
         <v>44971</v>
       </c>
       <c r="R22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W22">
         <v>4</v>
@@ -2683,33 +2683,33 @@
         <v>45769</v>
       </c>
       <c r="AD22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C23">
         <v>1004556594</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J23">
         <v>764269</v>
@@ -2724,25 +2724,25 @@
         <v>913881</v>
       </c>
       <c r="P23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="1">
         <v>41719</v>
       </c>
       <c r="R23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W23">
         <v>4</v>
@@ -2763,33 +2763,33 @@
         <v>45774</v>
       </c>
       <c r="AD23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C24">
         <v>1017497543</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J24">
         <v>950707</v>
@@ -2804,25 +2804,25 @@
         <v>999154</v>
       </c>
       <c r="P24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q24" s="1">
         <v>42201</v>
       </c>
       <c r="R24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W24">
         <v>4</v>
@@ -2843,33 +2843,33 @@
         <v>45780</v>
       </c>
       <c r="AD24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C25">
         <v>1015381046</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J25">
         <v>208394</v>
@@ -2884,25 +2884,25 @@
         <v>393850</v>
       </c>
       <c r="P25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q25" s="1">
         <v>42653</v>
       </c>
       <c r="R25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W25">
         <v>4</v>
@@ -2923,33 +2923,33 @@
         <v>45786</v>
       </c>
       <c r="AD25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C26">
         <v>1005222893</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J26">
         <v>337319</v>
@@ -2964,25 +2964,25 @@
         <v>184803</v>
       </c>
       <c r="P26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q26" s="1">
         <v>42769</v>
       </c>
       <c r="R26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W26">
         <v>4</v>
@@ -3003,33 +3003,33 @@
         <v>45792</v>
       </c>
       <c r="AD26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C27">
         <v>1017165382</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J27">
         <v>977713</v>
@@ -3044,25 +3044,25 @@
         <v>261668</v>
       </c>
       <c r="P27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="1">
         <v>43271</v>
       </c>
       <c r="R27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W27">
         <v>4</v>
@@ -3083,33 +3083,33 @@
         <v>45798</v>
       </c>
       <c r="AD27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28">
         <v>1001542776</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J28">
         <v>960230</v>
@@ -3124,25 +3124,25 @@
         <v>796468</v>
       </c>
       <c r="P28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q28" s="1">
         <v>43734</v>
       </c>
       <c r="R28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W28">
         <v>4</v>
@@ -3163,33 +3163,33 @@
         <v>45803</v>
       </c>
       <c r="AD28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29">
         <v>1002712568</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J29">
         <v>244571</v>
@@ -3204,25 +3204,25 @@
         <v>337211</v>
       </c>
       <c r="P29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q29" s="1">
         <v>43841</v>
       </c>
       <c r="R29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W29">
         <v>4</v>
@@ -3243,33 +3243,33 @@
         <v>45810</v>
       </c>
       <c r="AD29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30">
         <v>1017442593</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J30">
         <v>868482</v>
@@ -3284,25 +3284,25 @@
         <v>639411</v>
       </c>
       <c r="P30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q30" s="1">
         <v>44345</v>
       </c>
       <c r="R30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W30">
         <v>4</v>
@@ -3323,33 +3323,33 @@
         <v>45817</v>
       </c>
       <c r="AD30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C31">
         <v>1005055948</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J31">
         <v>152428</v>
@@ -3364,25 +3364,25 @@
         <v>425682</v>
       </c>
       <c r="P31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="1">
         <v>44899</v>
       </c>
       <c r="R31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W31">
         <v>4</v>
@@ -3403,33 +3403,33 @@
         <v>45823</v>
       </c>
       <c r="AD31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C32">
         <v>1013489497</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J32">
         <v>370162</v>
@@ -3444,25 +3444,25 @@
         <v>984509</v>
       </c>
       <c r="P32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q32" s="1">
         <v>45023</v>
       </c>
       <c r="R32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W32">
         <v>4</v>
@@ -3483,33 +3483,33 @@
         <v>45829</v>
       </c>
       <c r="AD32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C33">
         <v>1011062861</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J33">
         <v>545671</v>
@@ -3524,25 +3524,25 @@
         <v>988482</v>
       </c>
       <c r="P33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q33" s="1">
         <v>41789</v>
       </c>
       <c r="R33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W33">
         <v>4</v>
@@ -3563,33 +3563,33 @@
         <v>45835</v>
       </c>
       <c r="AD33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C34">
         <v>1016083545</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J34">
         <v>338268</v>
@@ -3604,25 +3604,25 @@
         <v>492484</v>
       </c>
       <c r="P34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q34" s="1">
         <v>42286</v>
       </c>
       <c r="R34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W34">
         <v>4</v>
@@ -3643,33 +3643,33 @@
         <v>45840</v>
       </c>
       <c r="AD34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C35">
         <v>1010909211</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J35">
         <v>642280</v>
@@ -3684,25 +3684,25 @@
         <v>292826</v>
       </c>
       <c r="P35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q35" s="1">
         <v>42604</v>
       </c>
       <c r="R35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W35">
         <v>4</v>
@@ -3723,33 +3723,33 @@
         <v>45846</v>
       </c>
       <c r="AD35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C36">
         <v>1018941126</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J36">
         <v>139973</v>
@@ -3764,25 +3764,25 @@
         <v>762523</v>
       </c>
       <c r="P36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q36" s="1">
         <v>42831</v>
       </c>
       <c r="R36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W36">
         <v>4</v>
@@ -3803,33 +3803,33 @@
         <v>45851</v>
       </c>
       <c r="AD36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C37">
         <v>1017793906</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J37">
         <v>442384</v>
@@ -3844,25 +3844,25 @@
         <v>363385</v>
       </c>
       <c r="P37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q37" s="1">
         <v>43354</v>
       </c>
       <c r="R37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W37">
         <v>4</v>
@@ -3883,33 +3883,33 @@
         <v>45858</v>
       </c>
       <c r="AD37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C38">
         <v>1000557965</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J38">
         <v>731612</v>
@@ -3924,25 +3924,25 @@
         <v>195043</v>
       </c>
       <c r="P38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q38" s="1">
         <v>43820</v>
       </c>
       <c r="R38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W38">
         <v>4</v>
@@ -3963,33 +3963,33 @@
         <v>45863</v>
       </c>
       <c r="AD38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C39">
         <v>1004046977</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J39">
         <v>975179</v>
@@ -4004,25 +4004,25 @@
         <v>204430</v>
       </c>
       <c r="P39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q39" s="1">
         <v>43909</v>
       </c>
       <c r="R39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W39">
         <v>4</v>
@@ -4043,33 +4043,33 @@
         <v>45870</v>
       </c>
       <c r="AD39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C40">
         <v>1007705974</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J40">
         <v>699912</v>
@@ -4084,25 +4084,25 @@
         <v>746329</v>
       </c>
       <c r="P40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q40" s="1">
         <v>44423</v>
       </c>
       <c r="R40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W40">
         <v>4</v>
@@ -4123,33 +4123,33 @@
         <v>45875</v>
       </c>
       <c r="AD40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C41">
         <v>1018270390</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J41">
         <v>833028</v>
@@ -4164,25 +4164,25 @@
         <v>483650</v>
       </c>
       <c r="P41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q41" s="1">
         <v>44817</v>
       </c>
       <c r="R41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W41">
         <v>4</v>
@@ -4203,33 +4203,33 @@
         <v>45881</v>
       </c>
       <c r="AD41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C42">
         <v>1015005637</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J42">
         <v>337802</v>
@@ -4244,25 +4244,25 @@
         <v>171403</v>
       </c>
       <c r="P42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q42" s="1">
         <v>44987</v>
       </c>
       <c r="R42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W42">
         <v>4</v>
@@ -4283,33 +4283,33 @@
         <v>45888</v>
       </c>
       <c r="AD42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C43">
         <v>1002147957</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J43">
         <v>851125</v>
@@ -4324,25 +4324,25 @@
         <v>325379</v>
       </c>
       <c r="P43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q43" s="1">
         <v>41754</v>
       </c>
       <c r="R43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W43">
         <v>4</v>
@@ -4363,33 +4363,33 @@
         <v>45894</v>
       </c>
       <c r="AD43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C44">
         <v>1002135797</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J44">
         <v>487226</v>
@@ -4404,25 +4404,25 @@
         <v>404568</v>
       </c>
       <c r="P44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q44" s="1">
         <v>42185</v>
       </c>
       <c r="R44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W44">
         <v>4</v>
@@ -4443,33 +4443,33 @@
         <v>45901</v>
       </c>
       <c r="AD44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C45">
         <v>1001796243</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J45">
         <v>963845</v>
@@ -4484,25 +4484,25 @@
         <v>717970</v>
       </c>
       <c r="P45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q45" s="1">
         <v>42507</v>
       </c>
       <c r="R45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W45">
         <v>4</v>
@@ -4523,33 +4523,33 @@
         <v>45907</v>
       </c>
       <c r="AD45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C46">
         <v>1010982498</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J46">
         <v>516953</v>
@@ -4564,25 +4564,25 @@
         <v>981394</v>
       </c>
       <c r="P46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q46" s="1">
         <v>43074</v>
       </c>
       <c r="R46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W46">
         <v>4</v>
@@ -4603,33 +4603,33 @@
         <v>45914</v>
       </c>
       <c r="AD46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C47">
         <v>1016057313</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J47">
         <v>141908</v>
@@ -4644,25 +4644,25 @@
         <v>502118</v>
       </c>
       <c r="P47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q47" s="1">
         <v>43383</v>
       </c>
       <c r="R47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W47">
         <v>4</v>
@@ -4683,33 +4683,33 @@
         <v>45920</v>
       </c>
       <c r="AD47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C48">
         <v>1018567675</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J48">
         <v>126522</v>
@@ -4724,25 +4724,25 @@
         <v>799978</v>
       </c>
       <c r="P48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q48" s="1">
         <v>43797</v>
       </c>
       <c r="R48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W48">
         <v>4</v>
@@ -4763,33 +4763,33 @@
         <v>45926</v>
       </c>
       <c r="AD48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C49">
         <v>1012086140</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J49">
         <v>287681</v>
@@ -4804,25 +4804,25 @@
         <v>463003</v>
       </c>
       <c r="P49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q49" s="1">
         <v>43935</v>
       </c>
       <c r="R49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W49">
         <v>4</v>
@@ -4843,33 +4843,33 @@
         <v>45931</v>
       </c>
       <c r="AD49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C50">
         <v>1009382172</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J50">
         <v>257985</v>
@@ -4884,25 +4884,25 @@
         <v>380451</v>
       </c>
       <c r="P50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q50" s="1">
         <v>44488</v>
       </c>
       <c r="R50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W50">
         <v>4</v>
@@ -4923,33 +4923,33 @@
         <v>45936</v>
       </c>
       <c r="AD50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C51">
         <v>1000865260</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J51">
         <v>584029</v>
@@ -4964,25 +4964,25 @@
         <v>749027</v>
       </c>
       <c r="P51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q51" s="1">
         <v>44922</v>
       </c>
       <c r="R51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W51">
         <v>4</v>
@@ -5003,33 +5003,33 @@
         <v>45942</v>
       </c>
       <c r="AD51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C52">
         <v>1006472513</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J52">
         <v>699515</v>
@@ -5044,25 +5044,25 @@
         <v>366282</v>
       </c>
       <c r="P52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q52" s="1">
         <v>45047</v>
       </c>
       <c r="R52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W52">
         <v>4</v>
@@ -5083,33 +5083,33 @@
         <v>45948</v>
       </c>
       <c r="AD52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C53">
         <v>66839515</v>
       </c>
       <c r="D53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J53">
         <v>798181</v>
@@ -5124,25 +5124,25 @@
         <v>543968</v>
       </c>
       <c r="P53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q53" s="1">
         <v>41649</v>
       </c>
       <c r="R53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W53">
         <v>4</v>
@@ -5163,33 +5163,33 @@
         <v>45660</v>
       </c>
       <c r="AD53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C54">
         <v>65709145</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J54">
         <v>190033</v>
@@ -5204,25 +5204,25 @@
         <v>757673</v>
       </c>
       <c r="P54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q54" s="1">
         <v>42116</v>
       </c>
       <c r="R54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W54">
         <v>4</v>
@@ -5243,33 +5243,33 @@
         <v>45666</v>
       </c>
       <c r="AD54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C55">
         <v>12829465</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J55">
         <v>473172</v>
@@ -5284,25 +5284,25 @@
         <v>444532</v>
       </c>
       <c r="P55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q55" s="1">
         <v>42643</v>
       </c>
       <c r="R55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W55">
         <v>4</v>
@@ -5323,33 +5323,33 @@
         <v>45670</v>
       </c>
       <c r="AD55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C56">
         <v>62486476</v>
       </c>
       <c r="D56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J56">
         <v>975078</v>
@@ -5364,25 +5364,25 @@
         <v>267798</v>
       </c>
       <c r="P56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q56" s="1">
         <v>43053</v>
       </c>
       <c r="R56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W56">
         <v>4</v>
@@ -5403,33 +5403,33 @@
         <v>45674</v>
       </c>
       <c r="AD56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C57">
         <v>27250029</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J57">
         <v>677507</v>
@@ -5444,25 +5444,25 @@
         <v>332164</v>
       </c>
       <c r="P57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q57" s="1">
         <v>43167</v>
       </c>
       <c r="R57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W57">
         <v>4</v>
@@ -5483,33 +5483,33 @@
         <v>45682</v>
       </c>
       <c r="AD57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C58">
         <v>68293254</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J58">
         <v>397323</v>
@@ -5524,25 +5524,25 @@
         <v>261019</v>
       </c>
       <c r="P58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q58" s="1">
         <v>43664</v>
       </c>
       <c r="R58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W58">
         <v>4</v>
@@ -5563,33 +5563,33 @@
         <v>45689</v>
       </c>
       <c r="AD58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C59">
         <v>82382981</v>
       </c>
       <c r="D59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J59">
         <v>461173</v>
@@ -5604,25 +5604,25 @@
         <v>173084</v>
       </c>
       <c r="P59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q59" s="1">
         <v>44106</v>
       </c>
       <c r="R59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W59">
         <v>4</v>
@@ -5643,33 +5643,33 @@
         <v>45693</v>
       </c>
       <c r="AD59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C60">
         <v>20915838</v>
       </c>
       <c r="D60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J60">
         <v>654878</v>
@@ -5684,25 +5684,25 @@
         <v>779409</v>
       </c>
       <c r="P60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q60" s="1">
         <v>44331</v>
       </c>
       <c r="R60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W60">
         <v>4</v>
@@ -5723,33 +5723,33 @@
         <v>45700</v>
       </c>
       <c r="AD60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C61">
         <v>10970735</v>
       </c>
       <c r="D61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J61">
         <v>955108</v>
@@ -5764,25 +5764,25 @@
         <v>593351</v>
       </c>
       <c r="P61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q61" s="1">
         <v>44780</v>
       </c>
       <c r="R61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W61">
         <v>4</v>
@@ -5803,33 +5803,33 @@
         <v>45707</v>
       </c>
       <c r="AD61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C62">
         <v>92676860</v>
       </c>
       <c r="D62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J62">
         <v>997895</v>
@@ -5844,25 +5844,25 @@
         <v>788727</v>
       </c>
       <c r="P62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q62" s="1">
         <v>44945</v>
       </c>
       <c r="R62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W62">
         <v>4</v>
@@ -5883,33 +5883,33 @@
         <v>45714</v>
       </c>
       <c r="AD62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63">
         <v>68091019</v>
       </c>
       <c r="D63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J63">
         <v>137381</v>
@@ -5924,25 +5924,25 @@
         <v>494212</v>
       </c>
       <c r="P63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q63" s="1">
         <v>41802</v>
       </c>
       <c r="R63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W63">
         <v>4</v>
@@ -5963,33 +5963,33 @@
         <v>45720</v>
       </c>
       <c r="AD63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64">
         <v>71613400</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J64">
         <v>630358</v>
@@ -6004,25 +6004,25 @@
         <v>252865</v>
       </c>
       <c r="P64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q64" s="1">
         <v>42271</v>
       </c>
       <c r="R64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W64">
         <v>4</v>
@@ -6043,33 +6043,33 @@
         <v>45726</v>
       </c>
       <c r="AD64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C65">
         <v>27170267</v>
       </c>
       <c r="D65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J65">
         <v>288451</v>
@@ -6084,25 +6084,25 @@
         <v>381110</v>
       </c>
       <c r="P65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q65" s="1">
         <v>42708</v>
       </c>
       <c r="R65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W65">
         <v>4</v>
@@ -6123,33 +6123,33 @@
         <v>45731</v>
       </c>
       <c r="AD65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C66">
         <v>60888119</v>
       </c>
       <c r="D66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J66">
         <v>526661</v>
@@ -6164,25 +6164,25 @@
         <v>958434</v>
       </c>
       <c r="P66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q66" s="1">
         <v>42803</v>
       </c>
       <c r="R66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W66">
         <v>4</v>
@@ -6203,33 +6203,33 @@
         <v>45737</v>
       </c>
       <c r="AD66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67">
         <v>33551625</v>
       </c>
       <c r="D67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J67">
         <v>686483</v>
@@ -6244,25 +6244,25 @@
         <v>786256</v>
       </c>
       <c r="P67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q67" s="1">
         <v>43279</v>
       </c>
       <c r="R67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W67">
         <v>4</v>
@@ -6283,33 +6283,33 @@
         <v>45743</v>
       </c>
       <c r="AD67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C68">
         <v>94636343</v>
       </c>
       <c r="D68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J68">
         <v>958136</v>
@@ -6324,25 +6324,25 @@
         <v>355320</v>
       </c>
       <c r="P68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q68" s="1">
         <v>43725</v>
       </c>
       <c r="R68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W68">
         <v>4</v>
@@ -6363,33 +6363,33 @@
         <v>45748</v>
       </c>
       <c r="AD68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C69">
         <v>32041138</v>
       </c>
       <c r="D69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J69">
         <v>205570</v>
@@ -6404,25 +6404,25 @@
         <v>486219</v>
       </c>
       <c r="P69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q69" s="1">
         <v>43859</v>
       </c>
       <c r="R69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W69">
         <v>4</v>
@@ -6443,33 +6443,33 @@
         <v>45753</v>
       </c>
       <c r="AD69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C70">
         <v>11721029</v>
       </c>
       <c r="D70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J70">
         <v>473060</v>
@@ -6484,25 +6484,25 @@
         <v>358863</v>
       </c>
       <c r="P70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q70" s="1">
         <v>44398</v>
       </c>
       <c r="R70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W70">
         <v>4</v>
@@ -6523,33 +6523,33 @@
         <v>45759</v>
       </c>
       <c r="AD70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C71">
         <v>20774421</v>
       </c>
       <c r="D71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J71">
         <v>247195</v>
@@ -6564,25 +6564,25 @@
         <v>560814</v>
       </c>
       <c r="P71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q71" s="1">
         <v>44864</v>
       </c>
       <c r="R71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W71">
         <v>4</v>
@@ -6603,33 +6603,33 @@
         <v>45765</v>
       </c>
       <c r="AD71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C72">
         <v>11380169</v>
       </c>
       <c r="D72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J72">
         <v>621031</v>
@@ -6644,25 +6644,25 @@
         <v>814488</v>
       </c>
       <c r="P72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q72" s="1">
         <v>45080</v>
       </c>
       <c r="R72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W72">
         <v>4</v>
@@ -6683,33 +6683,33 @@
         <v>45772</v>
       </c>
       <c r="AD72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C73">
         <v>15450654</v>
       </c>
       <c r="D73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J73">
         <v>117709</v>
@@ -6724,25 +6724,25 @@
         <v>294187</v>
       </c>
       <c r="P73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q73" s="1">
         <v>41690</v>
       </c>
       <c r="R73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W73">
         <v>4</v>
@@ -6763,33 +6763,33 @@
         <v>45778</v>
       </c>
       <c r="AD73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C74">
         <v>77336621</v>
       </c>
       <c r="D74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J74">
         <v>482399</v>
@@ -6804,25 +6804,25 @@
         <v>386877</v>
       </c>
       <c r="P74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q74" s="1">
         <v>42217</v>
       </c>
       <c r="R74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W74">
         <v>4</v>
@@ -6843,33 +6843,33 @@
         <v>45785</v>
       </c>
       <c r="AD74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C75">
         <v>89578519</v>
       </c>
       <c r="D75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J75">
         <v>705119</v>
@@ -6884,25 +6884,25 @@
         <v>195111</v>
       </c>
       <c r="P75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q75" s="1">
         <v>42509</v>
       </c>
       <c r="R75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W75">
         <v>4</v>
@@ -6923,33 +6923,33 @@
         <v>45790</v>
       </c>
       <c r="AD75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C76">
         <v>10963238</v>
       </c>
       <c r="D76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J76">
         <v>945549</v>
@@ -6964,25 +6964,25 @@
         <v>773847</v>
       </c>
       <c r="P76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q76" s="1">
         <v>42985</v>
       </c>
       <c r="R76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W76">
         <v>4</v>
@@ -7003,33 +7003,33 @@
         <v>45796</v>
       </c>
       <c r="AD76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C77">
         <v>69686697</v>
       </c>
       <c r="D77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J77">
         <v>656044</v>
@@ -7044,25 +7044,25 @@
         <v>268100</v>
       </c>
       <c r="P77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q77" s="1">
         <v>43446</v>
       </c>
       <c r="R77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W77">
         <v>4</v>
@@ -7083,33 +7083,33 @@
         <v>45802</v>
       </c>
       <c r="AD77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C78">
         <v>41070615</v>
       </c>
       <c r="D78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J78">
         <v>338846</v>
@@ -7124,25 +7124,25 @@
         <v>514300</v>
       </c>
       <c r="P78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q78" s="1">
         <v>43792</v>
       </c>
       <c r="R78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W78">
         <v>4</v>
@@ -7163,33 +7163,33 @@
         <v>45809</v>
       </c>
       <c r="AD78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C79">
         <v>18360615</v>
       </c>
       <c r="D79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J79">
         <v>296049</v>
@@ -7204,25 +7204,25 @@
         <v>656189</v>
       </c>
       <c r="P79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q79" s="1">
         <v>43925</v>
       </c>
       <c r="R79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W79">
         <v>4</v>
@@ -7243,33 +7243,33 @@
         <v>45815</v>
       </c>
       <c r="AD79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C80">
         <v>92493399</v>
       </c>
       <c r="D80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J80">
         <v>888102</v>
@@ -7284,25 +7284,25 @@
         <v>498604</v>
       </c>
       <c r="P80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q80" s="1">
         <v>44451</v>
       </c>
       <c r="R80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W80">
         <v>4</v>
@@ -7323,33 +7323,33 @@
         <v>45822</v>
       </c>
       <c r="AD80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C81">
         <v>44663401</v>
       </c>
       <c r="D81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J81">
         <v>807855</v>
@@ -7364,25 +7364,25 @@
         <v>450835</v>
       </c>
       <c r="P81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q81" s="1">
         <v>44608</v>
       </c>
       <c r="R81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W81">
         <v>4</v>
@@ -7403,33 +7403,33 @@
         <v>45829</v>
       </c>
       <c r="AD81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C82">
         <v>98880367</v>
       </c>
       <c r="D82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J82">
         <v>719496</v>
@@ -7444,25 +7444,25 @@
         <v>511359</v>
       </c>
       <c r="P82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q82" s="1">
         <v>45041</v>
       </c>
       <c r="R82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W82">
         <v>4</v>
@@ -7483,33 +7483,33 @@
         <v>45836</v>
       </c>
       <c r="AD82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B83" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C83">
         <v>53883909</v>
       </c>
       <c r="D83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I83" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J83">
         <v>661966</v>
@@ -7524,25 +7524,25 @@
         <v>524215</v>
       </c>
       <c r="P83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q83" s="1">
         <v>41847</v>
       </c>
       <c r="R83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W83">
         <v>4</v>
@@ -7563,33 +7563,33 @@
         <v>45839</v>
       </c>
       <c r="AD83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B84" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C84">
         <v>55458079</v>
       </c>
       <c r="D84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I84" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J84">
         <v>976319</v>
@@ -7604,25 +7604,25 @@
         <v>631224</v>
       </c>
       <c r="P84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q84" s="1">
         <v>42352</v>
       </c>
       <c r="R84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W84">
         <v>4</v>
@@ -7643,33 +7643,33 @@
         <v>45845</v>
       </c>
       <c r="AD84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B85" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C85">
         <v>25088206</v>
       </c>
       <c r="D85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I85" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J85">
         <v>435455</v>
@@ -7684,25 +7684,25 @@
         <v>944948</v>
       </c>
       <c r="P85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q85" s="1">
         <v>42664</v>
       </c>
       <c r="R85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W85">
         <v>4</v>
@@ -7723,33 +7723,33 @@
         <v>45850</v>
       </c>
       <c r="AD85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B86" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C86">
         <v>70717628</v>
       </c>
       <c r="D86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J86">
         <v>624931</v>
@@ -7764,25 +7764,25 @@
         <v>448438</v>
       </c>
       <c r="P86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q86" s="1">
         <v>42768</v>
       </c>
       <c r="R86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W86">
         <v>4</v>
@@ -7803,33 +7803,33 @@
         <v>45857</v>
       </c>
       <c r="AD86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C87">
         <v>60398329</v>
       </c>
       <c r="D87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J87">
         <v>350393</v>
@@ -7844,25 +7844,25 @@
         <v>743491</v>
       </c>
       <c r="P87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q87" s="1">
         <v>43325</v>
       </c>
       <c r="R87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W87">
         <v>4</v>
@@ -7883,33 +7883,33 @@
         <v>45863</v>
       </c>
       <c r="AD87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C88">
         <v>89814255</v>
       </c>
       <c r="D88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I88" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J88">
         <v>468353</v>
@@ -7924,25 +7924,25 @@
         <v>827371</v>
       </c>
       <c r="P88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q88" s="1">
         <v>43765</v>
       </c>
       <c r="R88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W88">
         <v>4</v>
@@ -7963,33 +7963,33 @@
         <v>45871</v>
       </c>
       <c r="AD88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B89" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C89">
         <v>96947995</v>
       </c>
       <c r="D89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J89">
         <v>470210</v>
@@ -8004,25 +8004,25 @@
         <v>373517</v>
       </c>
       <c r="P89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q89" s="1">
         <v>43997</v>
       </c>
       <c r="R89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W89">
         <v>4</v>
@@ -8043,33 +8043,33 @@
         <v>45877</v>
       </c>
       <c r="AD89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C90">
         <v>65819883</v>
       </c>
       <c r="D90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J90">
         <v>483259</v>
@@ -8084,25 +8084,25 @@
         <v>255342</v>
       </c>
       <c r="P90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q90" s="1">
         <v>44528</v>
       </c>
       <c r="R90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W90">
         <v>4</v>
@@ -8123,33 +8123,33 @@
         <v>45883</v>
       </c>
       <c r="AD90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C91">
         <v>53637164</v>
       </c>
       <c r="D91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I91" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J91">
         <v>328381</v>
@@ -8164,25 +8164,25 @@
         <v>259333</v>
       </c>
       <c r="P91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q91" s="1">
         <v>44644</v>
       </c>
       <c r="R91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W91">
         <v>4</v>
@@ -8203,33 +8203,33 @@
         <v>45890</v>
       </c>
       <c r="AD91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C92">
         <v>20362006</v>
       </c>
       <c r="D92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J92">
         <v>748894</v>
@@ -8244,25 +8244,25 @@
         <v>380089</v>
       </c>
       <c r="P92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q92" s="1">
         <v>45115</v>
       </c>
       <c r="R92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W92">
         <v>4</v>
@@ -8283,33 +8283,33 @@
         <v>45896</v>
       </c>
       <c r="AD92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C93">
         <v>80818244</v>
       </c>
       <c r="D93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J93">
         <v>870845</v>
@@ -8324,25 +8324,25 @@
         <v>878252</v>
       </c>
       <c r="P93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q93" s="1">
         <v>41764</v>
       </c>
       <c r="R93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W93">
         <v>4</v>
@@ -8363,33 +8363,33 @@
         <v>45903</v>
       </c>
       <c r="AD93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C94">
         <v>11329553</v>
       </c>
       <c r="D94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J94">
         <v>557470</v>
@@ -8404,25 +8404,25 @@
         <v>373686</v>
       </c>
       <c r="P94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q94" s="1">
         <v>42258</v>
       </c>
       <c r="R94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W94">
         <v>4</v>
@@ -8443,33 +8443,33 @@
         <v>45910</v>
       </c>
       <c r="AD94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C95">
         <v>50398972</v>
       </c>
       <c r="D95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F95" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J95">
         <v>744604</v>
@@ -8484,25 +8484,25 @@
         <v>503010</v>
       </c>
       <c r="P95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q95" s="1">
         <v>42581</v>
       </c>
       <c r="R95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W95">
         <v>4</v>
@@ -8523,33 +8523,33 @@
         <v>45915</v>
       </c>
       <c r="AD95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C96">
         <v>89404472</v>
       </c>
       <c r="D96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J96">
         <v>932245</v>
@@ -8564,25 +8564,25 @@
         <v>312888</v>
       </c>
       <c r="P96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q96" s="1">
         <v>43061</v>
       </c>
       <c r="R96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W96">
         <v>4</v>
@@ -8603,33 +8603,33 @@
         <v>45922</v>
       </c>
       <c r="AD96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C97">
         <v>58570557</v>
       </c>
       <c r="D97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J97">
         <v>242599</v>
@@ -8644,25 +8644,25 @@
         <v>123989</v>
       </c>
       <c r="P97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q97" s="1">
         <v>43193</v>
       </c>
       <c r="R97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W97">
         <v>4</v>
@@ -8683,33 +8683,33 @@
         <v>45929</v>
       </c>
       <c r="AD97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C98">
         <v>20096535</v>
       </c>
       <c r="D98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F98" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J98">
         <v>253757</v>
@@ -8724,25 +8724,25 @@
         <v>673848</v>
       </c>
       <c r="P98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q98" s="1">
         <v>43686</v>
       </c>
       <c r="R98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W98">
         <v>4</v>
@@ -8763,33 +8763,33 @@
         <v>45932</v>
       </c>
       <c r="AD98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C99">
         <v>61854112</v>
       </c>
       <c r="D99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J99">
         <v>666304</v>
@@ -8804,25 +8804,25 @@
         <v>401558</v>
       </c>
       <c r="P99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q99" s="1">
         <v>44175</v>
       </c>
       <c r="R99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W99">
         <v>4</v>
@@ -8843,33 +8843,33 @@
         <v>45936</v>
       </c>
       <c r="AD99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C100">
         <v>29772599</v>
       </c>
       <c r="D100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J100">
         <v>785957</v>
@@ -8884,25 +8884,25 @@
         <v>115401</v>
       </c>
       <c r="P100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q100" s="1">
         <v>44272</v>
       </c>
       <c r="R100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W100">
         <v>4</v>
@@ -8923,33 +8923,33 @@
         <v>45941</v>
       </c>
       <c r="AD100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C101">
         <v>95411907</v>
       </c>
       <c r="D101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J101">
         <v>899244</v>
@@ -8964,25 +8964,25 @@
         <v>941224</v>
       </c>
       <c r="P101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q101" s="1">
         <v>44707</v>
       </c>
       <c r="R101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W101">
         <v>4</v>
@@ -9003,33 +9003,33 @@
         <v>45947</v>
       </c>
       <c r="AD101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C102">
         <v>26730847</v>
       </c>
       <c r="D102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J102">
         <v>533598</v>
@@ -9044,25 +9044,25 @@
         <v>575799</v>
       </c>
       <c r="P102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q102" s="1">
         <v>45212</v>
       </c>
       <c r="R102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W102">
         <v>4</v>
@@ -9083,13 +9083,13 @@
         <v>45953</v>
       </c>
       <c r="AD102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/data/Datos_Dummy_Vehiculos.xlsx
+++ b/Backend/data/Datos_Dummy_Vehiculos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\ProyectoConsultasEnLinea\Backend\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\Desktop\ProyectoConsultasEnLinea\Backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19647E32-EFB9-46EA-B3CE-E5D14A3D41EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45970646-29E1-4E29-AEA3-A7DF79B2FB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="267">
   <si>
     <t>Numero de placa</t>
   </si>
@@ -523,6 +523,309 @@
   </si>
   <si>
     <t>ABC123</t>
+  </si>
+  <si>
+    <t>1HGCM82633A123456</t>
+  </si>
+  <si>
+    <t>JH4KA8260MC012345</t>
+  </si>
+  <si>
+    <t>1FTSW21R08ED56789</t>
+  </si>
+  <si>
+    <t>4T1BG22KXWU123456</t>
+  </si>
+  <si>
+    <t>2HGFG12856H654321</t>
+  </si>
+  <si>
+    <t>1J4GL48KX7W543210</t>
+  </si>
+  <si>
+    <t>1N4AL11D75C123456</t>
+  </si>
+  <si>
+    <t>2T2BZMCA2GC123456</t>
+  </si>
+  <si>
+    <t>5N1AT2MV5HC789012</t>
+  </si>
+  <si>
+    <t>JHMFA16586S012345</t>
+  </si>
+  <si>
+    <t>1HGCM66586A654321</t>
+  </si>
+  <si>
+    <t>4S4BP61C667789012</t>
+  </si>
+  <si>
+    <t>1C4NJPFA8CD123456</t>
+  </si>
+  <si>
+    <t>5XYKTDA26CG654321</t>
+  </si>
+  <si>
+    <t>1FMEU15N1SLC12345</t>
+  </si>
+  <si>
+    <t>3C4PDCBG0FT654321</t>
+  </si>
+  <si>
+    <t>1G1JC1244VJ123456</t>
+  </si>
+  <si>
+    <t>2G4WB52K8X1234567</t>
+  </si>
+  <si>
+    <t>2HGFA16578H654321</t>
+  </si>
+  <si>
+    <t>1HGEJ8240WL123456</t>
+  </si>
+  <si>
+    <t>JTHBE1BL5D5001234</t>
+  </si>
+  <si>
+    <t>1FTEX1C85AF123456</t>
+  </si>
+  <si>
+    <t>1C6RR7MT4FS654321</t>
+  </si>
+  <si>
+    <t>1FTFW1ET2EFB12345</t>
+  </si>
+  <si>
+    <t>3FAHP08148R654321</t>
+  </si>
+  <si>
+    <t>5J6RE4H56BL123456</t>
+  </si>
+  <si>
+    <t>1HGCP26798A123456</t>
+  </si>
+  <si>
+    <t>JTLKE50E591654321</t>
+  </si>
+  <si>
+    <t>1G4HR52KXWH123456</t>
+  </si>
+  <si>
+    <t>1FMRU1763VLA12345</t>
+  </si>
+  <si>
+    <t>JHMEG8650PS654321</t>
+  </si>
+  <si>
+    <t>JN8AZ1MU1AW123456</t>
+  </si>
+  <si>
+    <t>1FTNW21PX7EC12345</t>
+  </si>
+  <si>
+    <t>2LMPJ8LR8KBL12345</t>
+  </si>
+  <si>
+    <t>1FADP3F24EL123456</t>
+  </si>
+  <si>
+    <t>4S3BMBC69H1254321</t>
+  </si>
+  <si>
+    <t>1FTRX18L7YKC12345</t>
+  </si>
+  <si>
+    <t>1HGFA16527L654321</t>
+  </si>
+  <si>
+    <t>3FA6P0HR5DR123456</t>
+  </si>
+  <si>
+    <t>1HGCP36759A123456</t>
+  </si>
+  <si>
+    <t>JN8DR09Y82W654321</t>
+  </si>
+  <si>
+    <t>3VWDP7AJ4DM123456</t>
+  </si>
+  <si>
+    <t>5J6YH28696L123456</t>
+  </si>
+  <si>
+    <t>5NPEC4AC6BH654321</t>
+  </si>
+  <si>
+    <t>JNKCA21D5VT123456</t>
+  </si>
+  <si>
+    <t>2HGFG4A55DH654321</t>
+  </si>
+  <si>
+    <t>1C3CCCAB3FN123456</t>
+  </si>
+  <si>
+    <t>1GNDT13S692654321</t>
+  </si>
+  <si>
+    <t>3CZRU5H36GM123456</t>
+  </si>
+  <si>
+    <t>JN1CV6EK6HM654321</t>
+  </si>
+  <si>
+    <t>2HKRM4H56DH123456</t>
+  </si>
+  <si>
+    <t>3FADP4EJ0FM123456</t>
+  </si>
+  <si>
+    <t>5YJSA1H26EFP67890</t>
+  </si>
+  <si>
+    <t>1G1ZD5STXJF654321</t>
+  </si>
+  <si>
+    <t>1N6BA0CJ4FN123456</t>
+  </si>
+  <si>
+    <t>WBA3A9C57EF456789</t>
+  </si>
+  <si>
+    <t>1FTEX1CM4FKE12345</t>
+  </si>
+  <si>
+    <t>JHMGE8H56DC123456</t>
+  </si>
+  <si>
+    <t>2HGFC2F59HH654321</t>
+  </si>
+  <si>
+    <t>3VWLL7AJ7EM123456</t>
+  </si>
+  <si>
+    <t>5TDZK3EH0FS987654</t>
+  </si>
+  <si>
+    <t>2G1WB58K489123456</t>
+  </si>
+  <si>
+    <t>1GKS2BKC6GR123456</t>
+  </si>
+  <si>
+    <t>JN8AS5MT9CW987654</t>
+  </si>
+  <si>
+    <t>KMHCT4AE6HU123456</t>
+  </si>
+  <si>
+    <t>1D7RV1CP1AS654321</t>
+  </si>
+  <si>
+    <t>3GTU2NEC1EG123456</t>
+  </si>
+  <si>
+    <t>1FTFW1EF3EK456789</t>
+  </si>
+  <si>
+    <t>2C4RDGBG3FR123456</t>
+  </si>
+  <si>
+    <t>5XYPGDA35GG654321</t>
+  </si>
+  <si>
+    <t>1FAHP3FN1AW654321</t>
+  </si>
+  <si>
+    <t>5FNYF4H99BB123456</t>
+  </si>
+  <si>
+    <t>JA32U2FU6AU987654</t>
+  </si>
+  <si>
+    <t>3N1BC1AP8CL123456</t>
+  </si>
+  <si>
+    <t>5XXGN4A76EG123456</t>
+  </si>
+  <si>
+    <t>KM8SRDHF9EU654321</t>
+  </si>
+  <si>
+    <t>3VW517AT9DM456789</t>
+  </si>
+  <si>
+    <t>JTHBK262875123456</t>
+  </si>
+  <si>
+    <t>1HGEJ622XWL654321</t>
+  </si>
+  <si>
+    <t>2C3CCARG6FH123456</t>
+  </si>
+  <si>
+    <t>KM8K53A14JU123456</t>
+  </si>
+  <si>
+    <t>1C4PJMDS5GW123456</t>
+  </si>
+  <si>
+    <t>JN8AF5MR5ET654321</t>
+  </si>
+  <si>
+    <t>5TFAW5F12DX987654</t>
+  </si>
+  <si>
+    <t>4T4BF3EK9BR654321</t>
+  </si>
+  <si>
+    <t>3C6UR5FL1FG123456</t>
+  </si>
+  <si>
+    <t>1GCGC24R1ES654321</t>
+  </si>
+  <si>
+    <t>1GTW7AFG6G1212345</t>
+  </si>
+  <si>
+    <t>5FRYD3H29GB654321</t>
+  </si>
+  <si>
+    <t>5TFHW5F17GX123456</t>
+  </si>
+  <si>
+    <t>JTEBU5JR3E5678901</t>
+  </si>
+  <si>
+    <t>3FA6P0LU5HR654321</t>
+  </si>
+  <si>
+    <t>1GCGK29J1LE123456</t>
+  </si>
+  <si>
+    <t>1GNER13DXYJ654321</t>
+  </si>
+  <si>
+    <t>JHMCM56457S123456</t>
+  </si>
+  <si>
+    <t>4T1BE32K33U123456</t>
+  </si>
+  <si>
+    <t>2G1WT57K391234567</t>
+  </si>
+  <si>
+    <t>5J8TB4H36HL654321</t>
+  </si>
+  <si>
+    <t>JN8AZ2KR6HT654321</t>
+  </si>
+  <si>
+    <t>KMHCM3ACXBU123456</t>
+  </si>
+  <si>
+    <t>1HGCR2F32EA987654</t>
   </si>
 </sst>
 </file>
@@ -850,47 +1153,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="H98" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M111" sqref="M111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.26953125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="28" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="25.7265625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="45.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -991,7 +1294,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>165</v>
       </c>
@@ -1028,8 +1331,8 @@
       <c r="L2">
         <v>123456</v>
       </c>
-      <c r="M2">
-        <v>123456</v>
+      <c r="M2" t="s">
+        <v>166</v>
       </c>
       <c r="N2">
         <v>1500</v>
@@ -1092,7 +1395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1120,8 +1423,8 @@
       <c r="L3">
         <v>137589</v>
       </c>
-      <c r="M3">
-        <v>777273</v>
+      <c r="M3" t="s">
+        <v>167</v>
       </c>
       <c r="P3" t="s">
         <v>39</v>
@@ -1172,7 +1475,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1200,8 +1503,8 @@
       <c r="L4">
         <v>126531</v>
       </c>
-      <c r="M4">
-        <v>296238</v>
+      <c r="M4" t="s">
+        <v>168</v>
       </c>
       <c r="P4" t="s">
         <v>39</v>
@@ -1252,7 +1555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1280,8 +1583,8 @@
       <c r="L5">
         <v>622144</v>
       </c>
-      <c r="M5">
-        <v>450834</v>
+      <c r="M5" t="s">
+        <v>169</v>
       </c>
       <c r="P5" t="s">
         <v>39</v>
@@ -1332,7 +1635,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1360,8 +1663,8 @@
       <c r="L6">
         <v>991194</v>
       </c>
-      <c r="M6">
-        <v>873940</v>
+      <c r="M6" t="s">
+        <v>170</v>
       </c>
       <c r="P6" t="s">
         <v>39</v>
@@ -1412,7 +1715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1440,8 +1743,8 @@
       <c r="L7">
         <v>904392</v>
       </c>
-      <c r="M7">
-        <v>492134</v>
+      <c r="M7" t="s">
+        <v>171</v>
       </c>
       <c r="P7" t="s">
         <v>39</v>
@@ -1492,7 +1795,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1520,8 +1823,8 @@
       <c r="L8">
         <v>834704</v>
       </c>
-      <c r="M8">
-        <v>972972</v>
+      <c r="M8" t="s">
+        <v>172</v>
       </c>
       <c r="P8" t="s">
         <v>39</v>
@@ -1572,7 +1875,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1600,8 +1903,8 @@
       <c r="L9">
         <v>639564</v>
       </c>
-      <c r="M9">
-        <v>683741</v>
+      <c r="M9" t="s">
+        <v>173</v>
       </c>
       <c r="P9" t="s">
         <v>39</v>
@@ -1652,7 +1955,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1680,8 +1983,8 @@
       <c r="L10">
         <v>759371</v>
       </c>
-      <c r="M10">
-        <v>599289</v>
+      <c r="M10" t="s">
+        <v>174</v>
       </c>
       <c r="P10" t="s">
         <v>39</v>
@@ -1732,7 +2035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1760,8 +2063,8 @@
       <c r="L11">
         <v>780470</v>
       </c>
-      <c r="M11">
-        <v>948121</v>
+      <c r="M11" t="s">
+        <v>175</v>
       </c>
       <c r="P11" t="s">
         <v>39</v>
@@ -1812,7 +2115,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1840,8 +2143,8 @@
       <c r="L12">
         <v>431076</v>
       </c>
-      <c r="M12">
-        <v>795348</v>
+      <c r="M12" t="s">
+        <v>176</v>
       </c>
       <c r="P12" t="s">
         <v>39</v>
@@ -1892,7 +2195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1920,8 +2223,8 @@
       <c r="L13">
         <v>868362</v>
       </c>
-      <c r="M13">
-        <v>832866</v>
+      <c r="M13" t="s">
+        <v>177</v>
       </c>
       <c r="P13" t="s">
         <v>39</v>
@@ -1972,7 +2275,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -2000,8 +2303,8 @@
       <c r="L14">
         <v>460913</v>
       </c>
-      <c r="M14">
-        <v>424272</v>
+      <c r="M14" t="s">
+        <v>178</v>
       </c>
       <c r="P14" t="s">
         <v>39</v>
@@ -2052,7 +2355,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -2080,8 +2383,8 @@
       <c r="L15">
         <v>157671</v>
       </c>
-      <c r="M15">
-        <v>348830</v>
+      <c r="M15" t="s">
+        <v>179</v>
       </c>
       <c r="P15" t="s">
         <v>39</v>
@@ -2132,7 +2435,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -2160,8 +2463,8 @@
       <c r="L16">
         <v>937925</v>
       </c>
-      <c r="M16">
-        <v>735744</v>
+      <c r="M16" t="s">
+        <v>180</v>
       </c>
       <c r="P16" t="s">
         <v>39</v>
@@ -2212,7 +2515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -2240,8 +2543,8 @@
       <c r="L17">
         <v>165921</v>
       </c>
-      <c r="M17">
-        <v>839595</v>
+      <c r="M17" t="s">
+        <v>181</v>
       </c>
       <c r="P17" t="s">
         <v>39</v>
@@ -2292,7 +2595,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -2320,8 +2623,8 @@
       <c r="L18">
         <v>807143</v>
       </c>
-      <c r="M18">
-        <v>574065</v>
+      <c r="M18" t="s">
+        <v>182</v>
       </c>
       <c r="P18" t="s">
         <v>39</v>
@@ -2372,7 +2675,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -2400,8 +2703,8 @@
       <c r="L19">
         <v>298867</v>
       </c>
-      <c r="M19">
-        <v>476320</v>
+      <c r="M19" t="s">
+        <v>183</v>
       </c>
       <c r="P19" t="s">
         <v>39</v>
@@ -2452,7 +2755,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -2480,8 +2783,8 @@
       <c r="L20">
         <v>914284</v>
       </c>
-      <c r="M20">
-        <v>797616</v>
+      <c r="M20" t="s">
+        <v>184</v>
       </c>
       <c r="P20" t="s">
         <v>39</v>
@@ -2532,7 +2835,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -2560,8 +2863,8 @@
       <c r="L21">
         <v>732516</v>
       </c>
-      <c r="M21">
-        <v>832280</v>
+      <c r="M21" t="s">
+        <v>185</v>
       </c>
       <c r="P21" t="s">
         <v>39</v>
@@ -2612,7 +2915,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -2640,8 +2943,8 @@
       <c r="L22">
         <v>235354</v>
       </c>
-      <c r="M22">
-        <v>744438</v>
+      <c r="M22" t="s">
+        <v>186</v>
       </c>
       <c r="P22" t="s">
         <v>39</v>
@@ -2692,7 +2995,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2720,8 +3023,8 @@
       <c r="L23">
         <v>983505</v>
       </c>
-      <c r="M23">
-        <v>913881</v>
+      <c r="M23" t="s">
+        <v>187</v>
       </c>
       <c r="P23" t="s">
         <v>39</v>
@@ -2772,7 +3075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -2800,8 +3103,8 @@
       <c r="L24">
         <v>540246</v>
       </c>
-      <c r="M24">
-        <v>999154</v>
+      <c r="M24" t="s">
+        <v>188</v>
       </c>
       <c r="P24" t="s">
         <v>39</v>
@@ -2852,7 +3155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -2880,8 +3183,8 @@
       <c r="L25">
         <v>669811</v>
       </c>
-      <c r="M25">
-        <v>393850</v>
+      <c r="M25" t="s">
+        <v>189</v>
       </c>
       <c r="P25" t="s">
         <v>39</v>
@@ -2932,7 +3235,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -2960,8 +3263,8 @@
       <c r="L26">
         <v>658136</v>
       </c>
-      <c r="M26">
-        <v>184803</v>
+      <c r="M26" t="s">
+        <v>190</v>
       </c>
       <c r="P26" t="s">
         <v>39</v>
@@ -3012,7 +3315,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -3040,8 +3343,8 @@
       <c r="L27">
         <v>499011</v>
       </c>
-      <c r="M27">
-        <v>261668</v>
+      <c r="M27" t="s">
+        <v>191</v>
       </c>
       <c r="P27" t="s">
         <v>39</v>
@@ -3092,7 +3395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -3120,8 +3423,8 @@
       <c r="L28">
         <v>323266</v>
       </c>
-      <c r="M28">
-        <v>796468</v>
+      <c r="M28" t="s">
+        <v>192</v>
       </c>
       <c r="P28" t="s">
         <v>39</v>
@@ -3172,7 +3475,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -3200,8 +3503,8 @@
       <c r="L29">
         <v>289675</v>
       </c>
-      <c r="M29">
-        <v>337211</v>
+      <c r="M29" t="s">
+        <v>193</v>
       </c>
       <c r="P29" t="s">
         <v>39</v>
@@ -3252,7 +3555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -3280,8 +3583,8 @@
       <c r="L30">
         <v>211183</v>
       </c>
-      <c r="M30">
-        <v>639411</v>
+      <c r="M30" t="s">
+        <v>194</v>
       </c>
       <c r="P30" t="s">
         <v>39</v>
@@ -3332,7 +3635,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -3360,8 +3663,8 @@
       <c r="L31">
         <v>143391</v>
       </c>
-      <c r="M31">
-        <v>425682</v>
+      <c r="M31" t="s">
+        <v>195</v>
       </c>
       <c r="P31" t="s">
         <v>39</v>
@@ -3412,7 +3715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -3440,8 +3743,8 @@
       <c r="L32">
         <v>544501</v>
       </c>
-      <c r="M32">
-        <v>984509</v>
+      <c r="M32" t="s">
+        <v>196</v>
       </c>
       <c r="P32" t="s">
         <v>39</v>
@@ -3492,7 +3795,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -3520,8 +3823,8 @@
       <c r="L33">
         <v>928437</v>
       </c>
-      <c r="M33">
-        <v>988482</v>
+      <c r="M33" t="s">
+        <v>197</v>
       </c>
       <c r="P33" t="s">
         <v>39</v>
@@ -3572,7 +3875,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -3600,8 +3903,8 @@
       <c r="L34">
         <v>814726</v>
       </c>
-      <c r="M34">
-        <v>492484</v>
+      <c r="M34" t="s">
+        <v>198</v>
       </c>
       <c r="P34" t="s">
         <v>39</v>
@@ -3652,7 +3955,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -3680,8 +3983,8 @@
       <c r="L35">
         <v>620327</v>
       </c>
-      <c r="M35">
-        <v>292826</v>
+      <c r="M35" t="s">
+        <v>199</v>
       </c>
       <c r="P35" t="s">
         <v>39</v>
@@ -3732,7 +4035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -3760,8 +4063,8 @@
       <c r="L36">
         <v>531986</v>
       </c>
-      <c r="M36">
-        <v>762523</v>
+      <c r="M36" t="s">
+        <v>200</v>
       </c>
       <c r="P36" t="s">
         <v>39</v>
@@ -3812,7 +4115,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -3840,8 +4143,8 @@
       <c r="L37">
         <v>549585</v>
       </c>
-      <c r="M37">
-        <v>363385</v>
+      <c r="M37" t="s">
+        <v>201</v>
       </c>
       <c r="P37" t="s">
         <v>39</v>
@@ -3892,7 +4195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -3920,8 +4223,8 @@
       <c r="L38">
         <v>240236</v>
       </c>
-      <c r="M38">
-        <v>195043</v>
+      <c r="M38" t="s">
+        <v>202</v>
       </c>
       <c r="P38" t="s">
         <v>39</v>
@@ -3972,7 +4275,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -4000,8 +4303,8 @@
       <c r="L39">
         <v>807684</v>
       </c>
-      <c r="M39">
-        <v>204430</v>
+      <c r="M39" t="s">
+        <v>203</v>
       </c>
       <c r="P39" t="s">
         <v>39</v>
@@ -4052,7 +4355,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -4080,8 +4383,8 @@
       <c r="L40">
         <v>717709</v>
       </c>
-      <c r="M40">
-        <v>746329</v>
+      <c r="M40" t="s">
+        <v>204</v>
       </c>
       <c r="P40" t="s">
         <v>39</v>
@@ -4132,7 +4435,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -4160,8 +4463,8 @@
       <c r="L41">
         <v>667004</v>
       </c>
-      <c r="M41">
-        <v>483650</v>
+      <c r="M41" t="s">
+        <v>205</v>
       </c>
       <c r="P41" t="s">
         <v>39</v>
@@ -4212,7 +4515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -4240,8 +4543,8 @@
       <c r="L42">
         <v>496275</v>
       </c>
-      <c r="M42">
-        <v>171403</v>
+      <c r="M42" t="s">
+        <v>206</v>
       </c>
       <c r="P42" t="s">
         <v>39</v>
@@ -4292,7 +4595,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -4320,8 +4623,8 @@
       <c r="L43">
         <v>643700</v>
       </c>
-      <c r="M43">
-        <v>325379</v>
+      <c r="M43" t="s">
+        <v>207</v>
       </c>
       <c r="P43" t="s">
         <v>39</v>
@@ -4372,7 +4675,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -4400,8 +4703,8 @@
       <c r="L44">
         <v>534985</v>
       </c>
-      <c r="M44">
-        <v>404568</v>
+      <c r="M44" t="s">
+        <v>208</v>
       </c>
       <c r="P44" t="s">
         <v>39</v>
@@ -4452,7 +4755,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -4480,8 +4783,8 @@
       <c r="L45">
         <v>193486</v>
       </c>
-      <c r="M45">
-        <v>717970</v>
+      <c r="M45" t="s">
+        <v>209</v>
       </c>
       <c r="P45" t="s">
         <v>39</v>
@@ -4532,7 +4835,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -4560,8 +4863,8 @@
       <c r="L46">
         <v>896584</v>
       </c>
-      <c r="M46">
-        <v>981394</v>
+      <c r="M46" t="s">
+        <v>210</v>
       </c>
       <c r="P46" t="s">
         <v>39</v>
@@ -4612,7 +4915,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -4640,8 +4943,8 @@
       <c r="L47">
         <v>398997</v>
       </c>
-      <c r="M47">
-        <v>502118</v>
+      <c r="M47" t="s">
+        <v>211</v>
       </c>
       <c r="P47" t="s">
         <v>39</v>
@@ -4692,7 +4995,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -4720,8 +5023,8 @@
       <c r="L48">
         <v>213016</v>
       </c>
-      <c r="M48">
-        <v>799978</v>
+      <c r="M48" t="s">
+        <v>212</v>
       </c>
       <c r="P48" t="s">
         <v>39</v>
@@ -4772,7 +5075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -4800,8 +5103,8 @@
       <c r="L49">
         <v>366146</v>
       </c>
-      <c r="M49">
-        <v>463003</v>
+      <c r="M49" t="s">
+        <v>213</v>
       </c>
       <c r="P49" t="s">
         <v>39</v>
@@ -4852,7 +5155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -4880,8 +5183,8 @@
       <c r="L50">
         <v>968614</v>
       </c>
-      <c r="M50">
-        <v>380451</v>
+      <c r="M50" t="s">
+        <v>214</v>
       </c>
       <c r="P50" t="s">
         <v>39</v>
@@ -4932,7 +5235,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -4960,8 +5263,8 @@
       <c r="L51">
         <v>320338</v>
       </c>
-      <c r="M51">
-        <v>749027</v>
+      <c r="M51" t="s">
+        <v>215</v>
       </c>
       <c r="P51" t="s">
         <v>39</v>
@@ -5012,7 +5315,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -5040,8 +5343,8 @@
       <c r="L52">
         <v>477711</v>
       </c>
-      <c r="M52">
-        <v>366282</v>
+      <c r="M52" t="s">
+        <v>216</v>
       </c>
       <c r="P52" t="s">
         <v>39</v>
@@ -5092,7 +5395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -5120,8 +5423,8 @@
       <c r="L53">
         <v>730422</v>
       </c>
-      <c r="M53">
-        <v>543968</v>
+      <c r="M53" t="s">
+        <v>217</v>
       </c>
       <c r="P53" t="s">
         <v>39</v>
@@ -5172,7 +5475,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -5200,8 +5503,8 @@
       <c r="L54">
         <v>991517</v>
       </c>
-      <c r="M54">
-        <v>757673</v>
+      <c r="M54" t="s">
+        <v>218</v>
       </c>
       <c r="P54" t="s">
         <v>39</v>
@@ -5252,7 +5555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -5280,8 +5583,8 @@
       <c r="L55">
         <v>753426</v>
       </c>
-      <c r="M55">
-        <v>444532</v>
+      <c r="M55" t="s">
+        <v>219</v>
       </c>
       <c r="P55" t="s">
         <v>39</v>
@@ -5332,7 +5635,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -5360,8 +5663,8 @@
       <c r="L56">
         <v>995419</v>
       </c>
-      <c r="M56">
-        <v>267798</v>
+      <c r="M56" t="s">
+        <v>220</v>
       </c>
       <c r="P56" t="s">
         <v>39</v>
@@ -5412,7 +5715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>99</v>
       </c>
@@ -5440,8 +5743,8 @@
       <c r="L57">
         <v>905546</v>
       </c>
-      <c r="M57">
-        <v>332164</v>
+      <c r="M57" t="s">
+        <v>221</v>
       </c>
       <c r="P57" t="s">
         <v>39</v>
@@ -5492,7 +5795,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>100</v>
       </c>
@@ -5520,8 +5823,8 @@
       <c r="L58">
         <v>296921</v>
       </c>
-      <c r="M58">
-        <v>261019</v>
+      <c r="M58" t="s">
+        <v>222</v>
       </c>
       <c r="P58" t="s">
         <v>39</v>
@@ -5572,7 +5875,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>101</v>
       </c>
@@ -5600,8 +5903,8 @@
       <c r="L59">
         <v>455891</v>
       </c>
-      <c r="M59">
-        <v>173084</v>
+      <c r="M59" t="s">
+        <v>223</v>
       </c>
       <c r="P59" t="s">
         <v>39</v>
@@ -5652,7 +5955,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>102</v>
       </c>
@@ -5680,8 +5983,8 @@
       <c r="L60">
         <v>469335</v>
       </c>
-      <c r="M60">
-        <v>779409</v>
+      <c r="M60" t="s">
+        <v>224</v>
       </c>
       <c r="P60" t="s">
         <v>39</v>
@@ -5732,7 +6035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -5760,8 +6063,8 @@
       <c r="L61">
         <v>192884</v>
       </c>
-      <c r="M61">
-        <v>593351</v>
+      <c r="M61" t="s">
+        <v>225</v>
       </c>
       <c r="P61" t="s">
         <v>39</v>
@@ -5812,7 +6115,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>104</v>
       </c>
@@ -5840,8 +6143,8 @@
       <c r="L62">
         <v>173466</v>
       </c>
-      <c r="M62">
-        <v>788727</v>
+      <c r="M62" t="s">
+        <v>226</v>
       </c>
       <c r="P62" t="s">
         <v>39</v>
@@ -5892,7 +6195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -5920,8 +6223,8 @@
       <c r="L63">
         <v>556943</v>
       </c>
-      <c r="M63">
-        <v>494212</v>
+      <c r="M63" t="s">
+        <v>227</v>
       </c>
       <c r="P63" t="s">
         <v>39</v>
@@ -5972,7 +6275,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -6000,8 +6303,8 @@
       <c r="L64">
         <v>259185</v>
       </c>
-      <c r="M64">
-        <v>252865</v>
+      <c r="M64" t="s">
+        <v>228</v>
       </c>
       <c r="P64" t="s">
         <v>39</v>
@@ -6052,7 +6355,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>107</v>
       </c>
@@ -6080,8 +6383,8 @@
       <c r="L65">
         <v>605554</v>
       </c>
-      <c r="M65">
-        <v>381110</v>
+      <c r="M65" t="s">
+        <v>229</v>
       </c>
       <c r="P65" t="s">
         <v>39</v>
@@ -6132,7 +6435,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>108</v>
       </c>
@@ -6160,8 +6463,8 @@
       <c r="L66">
         <v>584617</v>
       </c>
-      <c r="M66">
-        <v>958434</v>
+      <c r="M66" t="s">
+        <v>230</v>
       </c>
       <c r="P66" t="s">
         <v>39</v>
@@ -6212,7 +6515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>109</v>
       </c>
@@ -6240,8 +6543,8 @@
       <c r="L67">
         <v>722822</v>
       </c>
-      <c r="M67">
-        <v>786256</v>
+      <c r="M67" t="s">
+        <v>231</v>
       </c>
       <c r="P67" t="s">
         <v>39</v>
@@ -6292,7 +6595,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>110</v>
       </c>
@@ -6320,8 +6623,8 @@
       <c r="L68">
         <v>234661</v>
       </c>
-      <c r="M68">
-        <v>355320</v>
+      <c r="M68" t="s">
+        <v>232</v>
       </c>
       <c r="P68" t="s">
         <v>39</v>
@@ -6372,7 +6675,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>111</v>
       </c>
@@ -6400,8 +6703,8 @@
       <c r="L69">
         <v>362978</v>
       </c>
-      <c r="M69">
-        <v>486219</v>
+      <c r="M69" t="s">
+        <v>233</v>
       </c>
       <c r="P69" t="s">
         <v>39</v>
@@ -6452,7 +6755,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -6480,8 +6783,8 @@
       <c r="L70">
         <v>205267</v>
       </c>
-      <c r="M70">
-        <v>358863</v>
+      <c r="M70" t="s">
+        <v>234</v>
       </c>
       <c r="P70" t="s">
         <v>39</v>
@@ -6532,7 +6835,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>113</v>
       </c>
@@ -6560,8 +6863,8 @@
       <c r="L71">
         <v>929732</v>
       </c>
-      <c r="M71">
-        <v>560814</v>
+      <c r="M71" t="s">
+        <v>235</v>
       </c>
       <c r="P71" t="s">
         <v>39</v>
@@ -6612,7 +6915,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>114</v>
       </c>
@@ -6640,8 +6943,8 @@
       <c r="L72">
         <v>561901</v>
       </c>
-      <c r="M72">
-        <v>814488</v>
+      <c r="M72" t="s">
+        <v>236</v>
       </c>
       <c r="P72" t="s">
         <v>39</v>
@@ -6692,7 +6995,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -6720,8 +7023,8 @@
       <c r="L73">
         <v>555642</v>
       </c>
-      <c r="M73">
-        <v>294187</v>
+      <c r="M73" t="s">
+        <v>237</v>
       </c>
       <c r="P73" t="s">
         <v>39</v>
@@ -6772,7 +7075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>116</v>
       </c>
@@ -6800,8 +7103,8 @@
       <c r="L74">
         <v>246175</v>
       </c>
-      <c r="M74">
-        <v>386877</v>
+      <c r="M74" t="s">
+        <v>238</v>
       </c>
       <c r="P74" t="s">
         <v>39</v>
@@ -6852,7 +7155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>117</v>
       </c>
@@ -6880,8 +7183,8 @@
       <c r="L75">
         <v>935519</v>
       </c>
-      <c r="M75">
-        <v>195111</v>
+      <c r="M75" t="s">
+        <v>239</v>
       </c>
       <c r="P75" t="s">
         <v>39</v>
@@ -6932,7 +7235,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>118</v>
       </c>
@@ -6960,8 +7263,8 @@
       <c r="L76">
         <v>100084</v>
       </c>
-      <c r="M76">
-        <v>773847</v>
+      <c r="M76" t="s">
+        <v>240</v>
       </c>
       <c r="P76" t="s">
         <v>39</v>
@@ -7012,7 +7315,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -7040,8 +7343,8 @@
       <c r="L77">
         <v>795319</v>
       </c>
-      <c r="M77">
-        <v>268100</v>
+      <c r="M77" t="s">
+        <v>241</v>
       </c>
       <c r="P77" t="s">
         <v>39</v>
@@ -7092,7 +7395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>120</v>
       </c>
@@ -7120,8 +7423,8 @@
       <c r="L78">
         <v>494047</v>
       </c>
-      <c r="M78">
-        <v>514300</v>
+      <c r="M78" t="s">
+        <v>242</v>
       </c>
       <c r="P78" t="s">
         <v>39</v>
@@ -7172,7 +7475,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -7200,8 +7503,8 @@
       <c r="L79">
         <v>109593</v>
       </c>
-      <c r="M79">
-        <v>656189</v>
+      <c r="M79" t="s">
+        <v>243</v>
       </c>
       <c r="P79" t="s">
         <v>39</v>
@@ -7252,7 +7555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>122</v>
       </c>
@@ -7280,8 +7583,8 @@
       <c r="L80">
         <v>453672</v>
       </c>
-      <c r="M80">
-        <v>498604</v>
+      <c r="M80" t="s">
+        <v>244</v>
       </c>
       <c r="P80" t="s">
         <v>39</v>
@@ -7332,7 +7635,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>123</v>
       </c>
@@ -7360,8 +7663,8 @@
       <c r="L81">
         <v>539632</v>
       </c>
-      <c r="M81">
-        <v>450835</v>
+      <c r="M81" t="s">
+        <v>245</v>
       </c>
       <c r="P81" t="s">
         <v>39</v>
@@ -7412,7 +7715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>124</v>
       </c>
@@ -7440,8 +7743,8 @@
       <c r="L82">
         <v>168610</v>
       </c>
-      <c r="M82">
-        <v>511359</v>
+      <c r="M82" t="s">
+        <v>246</v>
       </c>
       <c r="P82" t="s">
         <v>39</v>
@@ -7492,7 +7795,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>125</v>
       </c>
@@ -7520,8 +7823,8 @@
       <c r="L83">
         <v>935676</v>
       </c>
-      <c r="M83">
-        <v>524215</v>
+      <c r="M83" t="s">
+        <v>247</v>
       </c>
       <c r="P83" t="s">
         <v>39</v>
@@ -7572,7 +7875,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>126</v>
       </c>
@@ -7600,8 +7903,8 @@
       <c r="L84">
         <v>124998</v>
       </c>
-      <c r="M84">
-        <v>631224</v>
+      <c r="M84" t="s">
+        <v>248</v>
       </c>
       <c r="P84" t="s">
         <v>39</v>
@@ -7652,7 +7955,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>127</v>
       </c>
@@ -7680,8 +7983,8 @@
       <c r="L85">
         <v>956145</v>
       </c>
-      <c r="M85">
-        <v>944948</v>
+      <c r="M85" t="s">
+        <v>249</v>
       </c>
       <c r="P85" t="s">
         <v>39</v>
@@ -7732,7 +8035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>128</v>
       </c>
@@ -7760,8 +8063,8 @@
       <c r="L86">
         <v>339213</v>
       </c>
-      <c r="M86">
-        <v>448438</v>
+      <c r="M86" t="s">
+        <v>250</v>
       </c>
       <c r="P86" t="s">
         <v>39</v>
@@ -7812,7 +8115,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -7840,8 +8143,8 @@
       <c r="L87">
         <v>542170</v>
       </c>
-      <c r="M87">
-        <v>743491</v>
+      <c r="M87" t="s">
+        <v>251</v>
       </c>
       <c r="P87" t="s">
         <v>39</v>
@@ -7892,7 +8195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>130</v>
       </c>
@@ -7920,8 +8223,8 @@
       <c r="L88">
         <v>130047</v>
       </c>
-      <c r="M88">
-        <v>827371</v>
+      <c r="M88" t="s">
+        <v>252</v>
       </c>
       <c r="P88" t="s">
         <v>39</v>
@@ -7972,7 +8275,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>131</v>
       </c>
@@ -8000,8 +8303,8 @@
       <c r="L89">
         <v>556062</v>
       </c>
-      <c r="M89">
-        <v>373517</v>
+      <c r="M89" t="s">
+        <v>253</v>
       </c>
       <c r="P89" t="s">
         <v>39</v>
@@ -8052,7 +8355,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>132</v>
       </c>
@@ -8080,8 +8383,8 @@
       <c r="L90">
         <v>575065</v>
       </c>
-      <c r="M90">
-        <v>255342</v>
+      <c r="M90" t="s">
+        <v>254</v>
       </c>
       <c r="P90" t="s">
         <v>39</v>
@@ -8132,7 +8435,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>133</v>
       </c>
@@ -8160,8 +8463,8 @@
       <c r="L91">
         <v>418697</v>
       </c>
-      <c r="M91">
-        <v>259333</v>
+      <c r="M91" t="s">
+        <v>255</v>
       </c>
       <c r="P91" t="s">
         <v>39</v>
@@ -8212,7 +8515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>134</v>
       </c>
@@ -8240,8 +8543,8 @@
       <c r="L92">
         <v>552312</v>
       </c>
-      <c r="M92">
-        <v>380089</v>
+      <c r="M92" t="s">
+        <v>256</v>
       </c>
       <c r="P92" t="s">
         <v>39</v>
@@ -8292,7 +8595,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>135</v>
       </c>
@@ -8320,8 +8623,8 @@
       <c r="L93">
         <v>196567</v>
       </c>
-      <c r="M93">
-        <v>878252</v>
+      <c r="M93" t="s">
+        <v>257</v>
       </c>
       <c r="P93" t="s">
         <v>39</v>
@@ -8372,7 +8675,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>136</v>
       </c>
@@ -8400,8 +8703,8 @@
       <c r="L94">
         <v>712462</v>
       </c>
-      <c r="M94">
-        <v>373686</v>
+      <c r="M94" t="s">
+        <v>258</v>
       </c>
       <c r="P94" t="s">
         <v>39</v>
@@ -8452,7 +8755,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>137</v>
       </c>
@@ -8480,8 +8783,8 @@
       <c r="L95">
         <v>688262</v>
       </c>
-      <c r="M95">
-        <v>503010</v>
+      <c r="M95" t="s">
+        <v>259</v>
       </c>
       <c r="P95" t="s">
         <v>39</v>
@@ -8532,7 +8835,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>138</v>
       </c>
@@ -8560,8 +8863,8 @@
       <c r="L96">
         <v>978611</v>
       </c>
-      <c r="M96">
-        <v>312888</v>
+      <c r="M96" t="s">
+        <v>260</v>
       </c>
       <c r="P96" t="s">
         <v>39</v>
@@ -8612,7 +8915,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>139</v>
       </c>
@@ -8640,8 +8943,8 @@
       <c r="L97">
         <v>586576</v>
       </c>
-      <c r="M97">
-        <v>123989</v>
+      <c r="M97" t="s">
+        <v>261</v>
       </c>
       <c r="P97" t="s">
         <v>39</v>
@@ -8692,7 +8995,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>140</v>
       </c>
@@ -8720,8 +9023,8 @@
       <c r="L98">
         <v>907179</v>
       </c>
-      <c r="M98">
-        <v>673848</v>
+      <c r="M98" t="s">
+        <v>262</v>
       </c>
       <c r="P98" t="s">
         <v>39</v>
@@ -8772,7 +9075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>141</v>
       </c>
@@ -8800,8 +9103,8 @@
       <c r="L99">
         <v>146926</v>
       </c>
-      <c r="M99">
-        <v>401558</v>
+      <c r="M99" t="s">
+        <v>263</v>
       </c>
       <c r="P99" t="s">
         <v>39</v>
@@ -8852,7 +9155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>142</v>
       </c>
@@ -8880,8 +9183,8 @@
       <c r="L100">
         <v>564310</v>
       </c>
-      <c r="M100">
-        <v>115401</v>
+      <c r="M100" t="s">
+        <v>264</v>
       </c>
       <c r="P100" t="s">
         <v>39</v>
@@ -8932,7 +9235,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>143</v>
       </c>
@@ -8960,8 +9263,8 @@
       <c r="L101">
         <v>827355</v>
       </c>
-      <c r="M101">
-        <v>941224</v>
+      <c r="M101" t="s">
+        <v>265</v>
       </c>
       <c r="P101" t="s">
         <v>39</v>
@@ -9012,7 +9315,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>144</v>
       </c>
@@ -9040,8 +9343,8 @@
       <c r="L102">
         <v>376548</v>
       </c>
-      <c r="M102">
-        <v>575799</v>
+      <c r="M102" t="s">
+        <v>266</v>
       </c>
       <c r="P102" t="s">
         <v>39</v>

--- a/Backend/data/Datos_Dummy_Vehiculos.xlsx
+++ b/Backend/data/Datos_Dummy_Vehiculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\Desktop\ProyectoConsultasEnLinea\Backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45970646-29E1-4E29-AEA3-A7DF79B2FB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9E78BA-1A89-459E-BCCD-FDDEAF041C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="268">
   <si>
     <t>Numero de placa</t>
   </si>
@@ -826,13 +826,23 @@
   </si>
   <si>
     <t>1HGCR2F32EA987654</t>
+  </si>
+  <si>
+    <t>Numero Certificado RTM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -864,16 +874,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1151,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H98" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M111" sqref="M111"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1185,15 +1199,16 @@
     <col min="24" max="24" width="20.26953125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="28" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="25.7265625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="45.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.26953125" customWidth="1"/>
+    <col min="33" max="33" width="45.26953125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1288,13 +1303,16 @@
         <v>29</v>
       </c>
       <c r="AF1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>165</v>
       </c>
@@ -1373,8 +1391,8 @@
       <c r="Z2">
         <v>2</v>
       </c>
-      <c r="AA2">
-        <v>123456</v>
+      <c r="AA2" s="3">
+        <v>1234567890123</v>
       </c>
       <c r="AB2" s="1">
         <v>45292</v>
@@ -1388,14 +1406,17 @@
       <c r="AE2" t="s">
         <v>44</v>
       </c>
-      <c r="AF2" t="s">
-        <v>42</v>
+      <c r="AF2">
+        <v>12345678</v>
       </c>
       <c r="AG2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1456,8 +1477,8 @@
       <c r="Z3">
         <v>2</v>
       </c>
-      <c r="AA3">
-        <v>293724</v>
+      <c r="AA3" s="3">
+        <v>9876543210987</v>
       </c>
       <c r="AB3" s="1">
         <v>45292</v>
@@ -1468,14 +1489,17 @@
       <c r="AD3" t="s">
         <v>43</v>
       </c>
-      <c r="AF3" t="s">
-        <v>42</v>
+      <c r="AF3">
+        <v>87654321</v>
       </c>
       <c r="AG3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1536,8 +1560,8 @@
       <c r="Z4">
         <v>2</v>
       </c>
-      <c r="AA4">
-        <v>873144</v>
+      <c r="AA4" s="3">
+        <v>2345678901234</v>
       </c>
       <c r="AB4" s="1">
         <v>45301</v>
@@ -1548,14 +1572,17 @@
       <c r="AD4" t="s">
         <v>43</v>
       </c>
-      <c r="AF4" t="s">
-        <v>42</v>
+      <c r="AF4">
+        <v>23456789</v>
       </c>
       <c r="AG4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1616,8 +1643,8 @@
       <c r="Z5">
         <v>2</v>
       </c>
-      <c r="AA5">
-        <v>277418</v>
+      <c r="AA5" s="3">
+        <v>8765432109876</v>
       </c>
       <c r="AB5" s="1">
         <v>45306</v>
@@ -1628,14 +1655,17 @@
       <c r="AD5" t="s">
         <v>43</v>
       </c>
-      <c r="AF5" t="s">
-        <v>42</v>
+      <c r="AF5">
+        <v>98765432</v>
       </c>
       <c r="AG5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1696,8 +1726,8 @@
       <c r="Z6">
         <v>2</v>
       </c>
-      <c r="AA6">
-        <v>974448</v>
+      <c r="AA6" s="3">
+        <v>3456789012345</v>
       </c>
       <c r="AB6" s="1">
         <v>45314</v>
@@ -1708,14 +1738,17 @@
       <c r="AD6" t="s">
         <v>43</v>
       </c>
-      <c r="AF6" t="s">
-        <v>42</v>
+      <c r="AF6">
+        <v>34567890</v>
       </c>
       <c r="AG6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1776,8 +1809,8 @@
       <c r="Z7">
         <v>2</v>
       </c>
-      <c r="AA7">
-        <v>342445</v>
+      <c r="AA7" s="3">
+        <v>7654321098765</v>
       </c>
       <c r="AB7" s="1">
         <v>45327</v>
@@ -1788,14 +1821,17 @@
       <c r="AD7" t="s">
         <v>43</v>
       </c>
-      <c r="AF7" t="s">
-        <v>42</v>
+      <c r="AF7">
+        <v>65432109</v>
       </c>
       <c r="AG7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1856,8 +1892,8 @@
       <c r="Z8">
         <v>2</v>
       </c>
-      <c r="AA8">
-        <v>907960</v>
+      <c r="AA8" s="3">
+        <v>4567890123456</v>
       </c>
       <c r="AB8" s="1">
         <v>45334</v>
@@ -1868,14 +1904,17 @@
       <c r="AD8" t="s">
         <v>43</v>
       </c>
-      <c r="AF8" t="s">
-        <v>42</v>
+      <c r="AF8">
+        <v>45678901</v>
       </c>
       <c r="AG8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1936,8 +1975,8 @@
       <c r="Z9">
         <v>2</v>
       </c>
-      <c r="AA9">
-        <v>538137</v>
+      <c r="AA9" s="3">
+        <v>6543210987654</v>
       </c>
       <c r="AB9" s="1">
         <v>45341</v>
@@ -1948,14 +1987,17 @@
       <c r="AD9" t="s">
         <v>43</v>
       </c>
-      <c r="AF9" t="s">
-        <v>42</v>
+      <c r="AF9">
+        <v>76543210</v>
       </c>
       <c r="AG9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -2016,8 +2058,8 @@
       <c r="Z10">
         <v>2</v>
       </c>
-      <c r="AA10">
-        <v>908233</v>
+      <c r="AA10" s="3">
+        <v>5678901234567</v>
       </c>
       <c r="AB10" s="1">
         <v>45347</v>
@@ -2028,14 +2070,17 @@
       <c r="AD10" t="s">
         <v>43</v>
       </c>
-      <c r="AF10" t="s">
-        <v>42</v>
+      <c r="AF10">
+        <v>56789012</v>
       </c>
       <c r="AG10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2096,8 +2141,8 @@
       <c r="Z11">
         <v>2</v>
       </c>
-      <c r="AA11">
-        <v>296059</v>
+      <c r="AA11" s="3">
+        <v>5432109876543</v>
       </c>
       <c r="AB11" s="1">
         <v>45355</v>
@@ -2108,14 +2153,17 @@
       <c r="AD11" t="s">
         <v>43</v>
       </c>
-      <c r="AF11" t="s">
-        <v>42</v>
+      <c r="AF11">
+        <v>87654320</v>
       </c>
       <c r="AG11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -2176,8 +2224,8 @@
       <c r="Z12">
         <v>2</v>
       </c>
-      <c r="AA12">
-        <v>977499</v>
+      <c r="AA12" s="3">
+        <v>6789012345678</v>
       </c>
       <c r="AB12" s="1">
         <v>45361</v>
@@ -2188,14 +2236,17 @@
       <c r="AD12" t="s">
         <v>43</v>
       </c>
-      <c r="AF12" t="s">
-        <v>42</v>
+      <c r="AF12">
+        <v>67890123</v>
       </c>
       <c r="AG12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -2256,8 +2307,8 @@
       <c r="Z13">
         <v>2</v>
       </c>
-      <c r="AA13">
-        <v>387360</v>
+      <c r="AA13" s="3">
+        <v>4321098765432</v>
       </c>
       <c r="AB13" s="1">
         <v>45369</v>
@@ -2268,14 +2319,17 @@
       <c r="AD13" t="s">
         <v>43</v>
       </c>
-      <c r="AF13" t="s">
-        <v>42</v>
+      <c r="AF13">
+        <v>98765430</v>
       </c>
       <c r="AG13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -2336,8 +2390,8 @@
       <c r="Z14">
         <v>2</v>
       </c>
-      <c r="AA14">
-        <v>313209</v>
+      <c r="AA14" s="3">
+        <v>7890123456789</v>
       </c>
       <c r="AB14" s="1">
         <v>45375</v>
@@ -2348,14 +2402,17 @@
       <c r="AD14" t="s">
         <v>43</v>
       </c>
-      <c r="AF14" t="s">
-        <v>42</v>
+      <c r="AF14">
+        <v>78901234</v>
       </c>
       <c r="AG14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -2416,8 +2473,8 @@
       <c r="Z15">
         <v>2</v>
       </c>
-      <c r="AA15">
-        <v>314375</v>
+      <c r="AA15" s="3">
+        <v>3210987654321</v>
       </c>
       <c r="AB15" s="1">
         <v>45384</v>
@@ -2428,14 +2485,17 @@
       <c r="AD15" t="s">
         <v>43</v>
       </c>
-      <c r="AF15" t="s">
-        <v>42</v>
+      <c r="AF15">
+        <v>10987654</v>
       </c>
       <c r="AG15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -2496,8 +2556,8 @@
       <c r="Z16">
         <v>2</v>
       </c>
-      <c r="AA16">
-        <v>994609</v>
+      <c r="AA16" s="3">
+        <v>8901234567890</v>
       </c>
       <c r="AB16" s="1">
         <v>45391</v>
@@ -2508,14 +2568,17 @@
       <c r="AD16" t="s">
         <v>43</v>
       </c>
-      <c r="AF16" t="s">
-        <v>42</v>
+      <c r="AF16">
+        <v>89012345</v>
       </c>
       <c r="AG16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -2576,8 +2639,8 @@
       <c r="Z17">
         <v>2</v>
       </c>
-      <c r="AA17">
-        <v>282812</v>
+      <c r="AA17" s="3">
+        <v>2109876543210</v>
       </c>
       <c r="AB17" s="1">
         <v>45397</v>
@@ -2588,14 +2651,17 @@
       <c r="AD17" t="s">
         <v>43</v>
       </c>
-      <c r="AF17" t="s">
-        <v>42</v>
+      <c r="AF17">
+        <v>21098765</v>
       </c>
       <c r="AG17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -2656,8 +2722,8 @@
       <c r="Z18">
         <v>2</v>
       </c>
-      <c r="AA18">
-        <v>586388</v>
+      <c r="AA18" s="3">
+        <v>9012345678901</v>
       </c>
       <c r="AB18" s="1">
         <v>45404</v>
@@ -2668,14 +2734,17 @@
       <c r="AD18" t="s">
         <v>43</v>
       </c>
-      <c r="AF18" t="s">
-        <v>42</v>
+      <c r="AF18">
+        <v>90123456</v>
       </c>
       <c r="AG18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -2736,8 +2805,8 @@
       <c r="Z19">
         <v>2</v>
       </c>
-      <c r="AA19">
-        <v>938855</v>
+      <c r="AA19" s="3">
+        <v>1098765432109</v>
       </c>
       <c r="AB19" s="1">
         <v>45411</v>
@@ -2748,14 +2817,17 @@
       <c r="AD19" t="s">
         <v>43</v>
       </c>
-      <c r="AF19" t="s">
-        <v>42</v>
+      <c r="AF19">
+        <v>32109876</v>
       </c>
       <c r="AG19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -2816,8 +2888,8 @@
       <c r="Z20">
         <v>2</v>
       </c>
-      <c r="AA20">
-        <v>491554</v>
+      <c r="AA20" s="3">
+        <v>1234567890124</v>
       </c>
       <c r="AB20" s="1">
         <v>45417</v>
@@ -2828,14 +2900,17 @@
       <c r="AD20" t="s">
         <v>43</v>
       </c>
-      <c r="AF20" t="s">
-        <v>42</v>
+      <c r="AF20">
+        <v>12345679</v>
       </c>
       <c r="AG20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -2896,8 +2971,8 @@
       <c r="Z21">
         <v>2</v>
       </c>
-      <c r="AA21">
-        <v>452214</v>
+      <c r="AA21" s="3">
+        <v>9876543210986</v>
       </c>
       <c r="AB21" s="1">
         <v>45424</v>
@@ -2908,14 +2983,17 @@
       <c r="AD21" t="s">
         <v>43</v>
       </c>
-      <c r="AF21" t="s">
-        <v>42</v>
+      <c r="AF21">
+        <v>43210987</v>
       </c>
       <c r="AG21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -2976,8 +3054,8 @@
       <c r="Z22">
         <v>2</v>
       </c>
-      <c r="AA22">
-        <v>894837</v>
+      <c r="AA22" s="3">
+        <v>2345678901235</v>
       </c>
       <c r="AB22" s="1">
         <v>45430</v>
@@ -2988,14 +3066,17 @@
       <c r="AD22" t="s">
         <v>43</v>
       </c>
-      <c r="AF22" t="s">
-        <v>42</v>
+      <c r="AF22">
+        <v>23456780</v>
       </c>
       <c r="AG22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -3056,8 +3137,8 @@
       <c r="Z23">
         <v>2</v>
       </c>
-      <c r="AA23">
-        <v>405652</v>
+      <c r="AA23" s="3">
+        <v>8765432109875</v>
       </c>
       <c r="AB23" s="1">
         <v>45438</v>
@@ -3068,14 +3149,17 @@
       <c r="AD23" t="s">
         <v>43</v>
       </c>
-      <c r="AF23" t="s">
-        <v>42</v>
+      <c r="AF23">
+        <v>54321098</v>
       </c>
       <c r="AG23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -3136,8 +3220,8 @@
       <c r="Z24">
         <v>2</v>
       </c>
-      <c r="AA24">
-        <v>799655</v>
+      <c r="AA24" s="3">
+        <v>3456789012346</v>
       </c>
       <c r="AB24" s="1">
         <v>45445</v>
@@ -3148,14 +3232,17 @@
       <c r="AD24" t="s">
         <v>43</v>
       </c>
-      <c r="AF24" t="s">
-        <v>42</v>
+      <c r="AF24">
+        <v>34567891</v>
       </c>
       <c r="AG24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -3216,8 +3303,8 @@
       <c r="Z25">
         <v>2</v>
       </c>
-      <c r="AA25">
-        <v>844670</v>
+      <c r="AA25" s="3">
+        <v>7654321098764</v>
       </c>
       <c r="AB25" s="1">
         <v>45451</v>
@@ -3228,14 +3315,17 @@
       <c r="AD25" t="s">
         <v>43</v>
       </c>
-      <c r="AF25" t="s">
-        <v>42</v>
+      <c r="AF25">
+        <v>65432109</v>
       </c>
       <c r="AG25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -3296,8 +3386,8 @@
       <c r="Z26">
         <v>2</v>
       </c>
-      <c r="AA26">
-        <v>336913</v>
+      <c r="AA26" s="3">
+        <v>4567890123457</v>
       </c>
       <c r="AB26" s="1">
         <v>45458</v>
@@ -3308,14 +3398,17 @@
       <c r="AD26" t="s">
         <v>43</v>
       </c>
-      <c r="AF26" t="s">
-        <v>42</v>
+      <c r="AF26">
+        <v>45678902</v>
       </c>
       <c r="AG26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -3376,8 +3469,8 @@
       <c r="Z27">
         <v>2</v>
       </c>
-      <c r="AA27">
-        <v>926125</v>
+      <c r="AA27" s="3">
+        <v>6543210987653</v>
       </c>
       <c r="AB27" s="1">
         <v>45465</v>
@@ -3388,14 +3481,17 @@
       <c r="AD27" t="s">
         <v>43</v>
       </c>
-      <c r="AF27" t="s">
-        <v>42</v>
+      <c r="AF27">
+        <v>76543211</v>
       </c>
       <c r="AG27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -3456,8 +3552,8 @@
       <c r="Z28">
         <v>2</v>
       </c>
-      <c r="AA28">
-        <v>876469</v>
+      <c r="AA28" s="3">
+        <v>5678901234568</v>
       </c>
       <c r="AB28" s="1">
         <v>45473</v>
@@ -3468,14 +3564,17 @@
       <c r="AD28" t="s">
         <v>43</v>
       </c>
-      <c r="AF28" t="s">
-        <v>42</v>
+      <c r="AF28">
+        <v>56789023</v>
       </c>
       <c r="AG28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -3536,8 +3635,8 @@
       <c r="Z29">
         <v>2</v>
       </c>
-      <c r="AA29">
-        <v>329215</v>
+      <c r="AA29" s="3">
+        <v>5432109876542</v>
       </c>
       <c r="AB29" s="1">
         <v>45476</v>
@@ -3548,14 +3647,17 @@
       <c r="AD29" t="s">
         <v>43</v>
       </c>
-      <c r="AF29" t="s">
-        <v>42</v>
+      <c r="AF29">
+        <v>87654321</v>
       </c>
       <c r="AG29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -3616,8 +3718,8 @@
       <c r="Z30">
         <v>2</v>
       </c>
-      <c r="AA30">
-        <v>136234</v>
+      <c r="AA30" s="3">
+        <v>6789012345679</v>
       </c>
       <c r="AB30" s="1">
         <v>45483</v>
@@ -3628,14 +3730,17 @@
       <c r="AD30" t="s">
         <v>43</v>
       </c>
-      <c r="AF30" t="s">
-        <v>42</v>
+      <c r="AF30">
+        <v>67890124</v>
       </c>
       <c r="AG30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -3696,8 +3801,8 @@
       <c r="Z31">
         <v>2</v>
       </c>
-      <c r="AA31">
-        <v>337638</v>
+      <c r="AA31" s="3">
+        <v>4321098765431</v>
       </c>
       <c r="AB31" s="1">
         <v>45489</v>
@@ -3708,14 +3813,17 @@
       <c r="AD31" t="s">
         <v>43</v>
       </c>
-      <c r="AF31" t="s">
-        <v>42</v>
+      <c r="AF31">
+        <v>98765432</v>
       </c>
       <c r="AG31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -3776,8 +3884,8 @@
       <c r="Z32">
         <v>2</v>
       </c>
-      <c r="AA32">
-        <v>227798</v>
+      <c r="AA32" s="3">
+        <v>7890123456790</v>
       </c>
       <c r="AB32" s="1">
         <v>45495</v>
@@ -3788,14 +3896,17 @@
       <c r="AD32" t="s">
         <v>43</v>
       </c>
-      <c r="AF32" t="s">
-        <v>42</v>
+      <c r="AF32">
+        <v>78901235</v>
       </c>
       <c r="AG32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -3856,8 +3967,8 @@
       <c r="Z33">
         <v>2</v>
       </c>
-      <c r="AA33">
-        <v>484695</v>
+      <c r="AA33" s="3">
+        <v>3210987654322</v>
       </c>
       <c r="AB33" s="1">
         <v>45502</v>
@@ -3868,14 +3979,17 @@
       <c r="AD33" t="s">
         <v>43</v>
       </c>
-      <c r="AF33" t="s">
-        <v>42</v>
+      <c r="AF33">
+        <v>10987653</v>
       </c>
       <c r="AG33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -3936,8 +4050,8 @@
       <c r="Z34">
         <v>2</v>
       </c>
-      <c r="AA34">
-        <v>896602</v>
+      <c r="AA34" s="3">
+        <v>8901234567891</v>
       </c>
       <c r="AB34" s="1">
         <v>45508</v>
@@ -3948,14 +4062,17 @@
       <c r="AD34" t="s">
         <v>43</v>
       </c>
-      <c r="AF34" t="s">
-        <v>42</v>
+      <c r="AF34">
+        <v>89012346</v>
       </c>
       <c r="AG34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -4016,8 +4133,8 @@
       <c r="Z35">
         <v>2</v>
       </c>
-      <c r="AA35">
-        <v>429756</v>
+      <c r="AA35" s="3">
+        <v>2109876543213</v>
       </c>
       <c r="AB35" s="1">
         <v>45515</v>
@@ -4028,14 +4145,17 @@
       <c r="AD35" t="s">
         <v>43</v>
       </c>
-      <c r="AF35" t="s">
-        <v>42</v>
+      <c r="AF35">
+        <v>21098764</v>
       </c>
       <c r="AG35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -4096,8 +4216,8 @@
       <c r="Z36">
         <v>2</v>
       </c>
-      <c r="AA36">
-        <v>849787</v>
+      <c r="AA36" s="3">
+        <v>9012345678902</v>
       </c>
       <c r="AB36" s="1">
         <v>45522</v>
@@ -4108,14 +4228,17 @@
       <c r="AD36" t="s">
         <v>43</v>
       </c>
-      <c r="AF36" t="s">
-        <v>42</v>
+      <c r="AF36">
+        <v>90123457</v>
       </c>
       <c r="AG36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -4176,8 +4299,8 @@
       <c r="Z37">
         <v>2</v>
       </c>
-      <c r="AA37">
-        <v>153149</v>
+      <c r="AA37" s="3">
+        <v>1098765432108</v>
       </c>
       <c r="AB37" s="1">
         <v>45529</v>
@@ -4188,14 +4311,17 @@
       <c r="AD37" t="s">
         <v>43</v>
       </c>
-      <c r="AF37" t="s">
-        <v>42</v>
+      <c r="AF37">
+        <v>32109875</v>
       </c>
       <c r="AG37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -4256,8 +4382,8 @@
       <c r="Z38">
         <v>2</v>
       </c>
-      <c r="AA38">
-        <v>853992</v>
+      <c r="AA38" s="3">
+        <v>1234567890125</v>
       </c>
       <c r="AB38" s="1">
         <v>45536</v>
@@ -4268,14 +4394,17 @@
       <c r="AD38" t="s">
         <v>43</v>
       </c>
-      <c r="AF38" t="s">
-        <v>42</v>
+      <c r="AF38">
+        <v>12345670</v>
       </c>
       <c r="AG38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -4336,8 +4465,8 @@
       <c r="Z39">
         <v>2</v>
       </c>
-      <c r="AA39">
-        <v>878149</v>
+      <c r="AA39" s="3">
+        <v>9876543210985</v>
       </c>
       <c r="AB39" s="1">
         <v>45542</v>
@@ -4348,14 +4477,17 @@
       <c r="AD39" t="s">
         <v>43</v>
       </c>
-      <c r="AF39" t="s">
-        <v>42</v>
+      <c r="AF39">
+        <v>43210986</v>
       </c>
       <c r="AG39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -4416,8 +4548,8 @@
       <c r="Z40">
         <v>2</v>
       </c>
-      <c r="AA40">
-        <v>254305</v>
+      <c r="AA40" s="3">
+        <v>2345678901236</v>
       </c>
       <c r="AB40" s="1">
         <v>45549</v>
@@ -4428,14 +4560,17 @@
       <c r="AD40" t="s">
         <v>43</v>
       </c>
-      <c r="AF40" t="s">
-        <v>42</v>
+      <c r="AF40">
+        <v>23456781</v>
       </c>
       <c r="AG40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -4496,8 +4631,8 @@
       <c r="Z41">
         <v>2</v>
       </c>
-      <c r="AA41">
-        <v>640057</v>
+      <c r="AA41" s="3">
+        <v>8765432109874</v>
       </c>
       <c r="AB41" s="1">
         <v>45554</v>
@@ -4508,14 +4643,17 @@
       <c r="AD41" t="s">
         <v>43</v>
       </c>
-      <c r="AF41" t="s">
-        <v>42</v>
+      <c r="AF41">
+        <v>54321097</v>
       </c>
       <c r="AG41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -4576,8 +4714,8 @@
       <c r="Z42">
         <v>2</v>
       </c>
-      <c r="AA42">
-        <v>630207</v>
+      <c r="AA42" s="3">
+        <v>3456789012347</v>
       </c>
       <c r="AB42" s="1">
         <v>45560</v>
@@ -4588,14 +4726,17 @@
       <c r="AD42" t="s">
         <v>43</v>
       </c>
-      <c r="AF42" t="s">
-        <v>42</v>
+      <c r="AF42">
+        <v>34567892</v>
       </c>
       <c r="AG42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -4656,8 +4797,8 @@
       <c r="Z43">
         <v>2</v>
       </c>
-      <c r="AA43">
-        <v>664499</v>
+      <c r="AA43" s="3">
+        <v>7654321098763</v>
       </c>
       <c r="AB43" s="1">
         <v>45565</v>
@@ -4668,14 +4809,17 @@
       <c r="AD43" t="s">
         <v>43</v>
       </c>
-      <c r="AF43" t="s">
-        <v>42</v>
+      <c r="AF43">
+        <v>65432108</v>
       </c>
       <c r="AG43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -4736,8 +4880,8 @@
       <c r="Z44">
         <v>2</v>
       </c>
-      <c r="AA44">
-        <v>118502</v>
+      <c r="AA44" s="3">
+        <v>4567890123458</v>
       </c>
       <c r="AB44" s="1">
         <v>45567</v>
@@ -4748,14 +4892,17 @@
       <c r="AD44" t="s">
         <v>43</v>
       </c>
-      <c r="AF44" t="s">
-        <v>42</v>
+      <c r="AF44">
+        <v>45678903</v>
       </c>
       <c r="AG44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -4816,8 +4963,8 @@
       <c r="Z45">
         <v>2</v>
       </c>
-      <c r="AA45">
-        <v>779995</v>
+      <c r="AA45" s="3">
+        <v>6543210987652</v>
       </c>
       <c r="AB45" s="1">
         <v>45570</v>
@@ -4828,14 +4975,17 @@
       <c r="AD45" t="s">
         <v>43</v>
       </c>
-      <c r="AF45" t="s">
-        <v>42</v>
+      <c r="AF45">
+        <v>76543212</v>
       </c>
       <c r="AG45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -4896,8 +5046,8 @@
       <c r="Z46">
         <v>2</v>
       </c>
-      <c r="AA46">
-        <v>851009</v>
+      <c r="AA46" s="3">
+        <v>5678901234569</v>
       </c>
       <c r="AB46" s="1">
         <v>45573</v>
@@ -4908,14 +5058,17 @@
       <c r="AD46" t="s">
         <v>43</v>
       </c>
-      <c r="AF46" t="s">
-        <v>42</v>
+      <c r="AF46">
+        <v>56789034</v>
       </c>
       <c r="AG46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -4976,8 +5129,8 @@
       <c r="Z47">
         <v>2</v>
       </c>
-      <c r="AA47">
-        <v>326372</v>
+      <c r="AA47" s="3">
+        <v>5432109876541</v>
       </c>
       <c r="AB47" s="1">
         <v>45576</v>
@@ -4988,14 +5141,17 @@
       <c r="AD47" t="s">
         <v>43</v>
       </c>
-      <c r="AF47" t="s">
-        <v>42</v>
+      <c r="AF47">
+        <v>87654322</v>
       </c>
       <c r="AG47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -5056,8 +5212,8 @@
       <c r="Z48">
         <v>2</v>
       </c>
-      <c r="AA48">
-        <v>929637</v>
+      <c r="AA48" s="3">
+        <v>6789012345680</v>
       </c>
       <c r="AB48" s="1">
         <v>45579</v>
@@ -5068,14 +5224,17 @@
       <c r="AD48" t="s">
         <v>43</v>
       </c>
-      <c r="AF48" t="s">
-        <v>42</v>
+      <c r="AF48">
+        <v>67890125</v>
       </c>
       <c r="AG48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -5136,8 +5295,8 @@
       <c r="Z49">
         <v>2</v>
       </c>
-      <c r="AA49">
-        <v>833708</v>
+      <c r="AA49" s="3">
+        <v>4321098765430</v>
       </c>
       <c r="AB49" s="1">
         <v>45581</v>
@@ -5148,14 +5307,17 @@
       <c r="AD49" t="s">
         <v>43</v>
       </c>
-      <c r="AF49" t="s">
-        <v>42</v>
+      <c r="AF49">
+        <v>98765433</v>
       </c>
       <c r="AG49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -5216,8 +5378,8 @@
       <c r="Z50">
         <v>2</v>
       </c>
-      <c r="AA50">
-        <v>666575</v>
+      <c r="AA50" s="3">
+        <v>7890123456791</v>
       </c>
       <c r="AB50" s="1">
         <v>45583</v>
@@ -5228,14 +5390,17 @@
       <c r="AD50" t="s">
         <v>43</v>
       </c>
-      <c r="AF50" t="s">
-        <v>42</v>
+      <c r="AF50">
+        <v>78901236</v>
       </c>
       <c r="AG50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -5296,8 +5461,8 @@
       <c r="Z51">
         <v>2</v>
       </c>
-      <c r="AA51">
-        <v>986249</v>
+      <c r="AA51" s="3">
+        <v>3210987654323</v>
       </c>
       <c r="AB51" s="1">
         <v>45584</v>
@@ -5308,14 +5473,17 @@
       <c r="AD51" t="s">
         <v>43</v>
       </c>
-      <c r="AF51" t="s">
-        <v>42</v>
+      <c r="AF51">
+        <v>10987652</v>
       </c>
       <c r="AG51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -5376,8 +5544,8 @@
       <c r="Z52">
         <v>2</v>
       </c>
-      <c r="AA52">
-        <v>534001</v>
+      <c r="AA52" s="3">
+        <v>8901234567892</v>
       </c>
       <c r="AB52" s="1">
         <v>45293</v>
@@ -5388,14 +5556,17 @@
       <c r="AD52" t="s">
         <v>43</v>
       </c>
-      <c r="AF52" t="s">
-        <v>42</v>
+      <c r="AF52">
+        <v>89012347</v>
       </c>
       <c r="AG52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -5456,8 +5627,8 @@
       <c r="Z53">
         <v>2</v>
       </c>
-      <c r="AA53">
-        <v>280200</v>
+      <c r="AA53" s="4">
+        <v>1029384756102</v>
       </c>
       <c r="AB53" s="1">
         <v>45297</v>
@@ -5468,14 +5639,17 @@
       <c r="AD53" t="s">
         <v>43</v>
       </c>
-      <c r="AF53" t="s">
-        <v>42</v>
+      <c r="AF53">
+        <v>10293847</v>
       </c>
       <c r="AG53" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -5536,8 +5710,8 @@
       <c r="Z54">
         <v>2</v>
       </c>
-      <c r="AA54">
-        <v>670583</v>
+      <c r="AA54" s="4">
+        <v>5647382910564</v>
       </c>
       <c r="AB54" s="1">
         <v>45302</v>
@@ -5548,14 +5722,17 @@
       <c r="AD54" t="s">
         <v>43</v>
       </c>
-      <c r="AF54" t="s">
-        <v>42</v>
+      <c r="AF54">
+        <v>56473829</v>
       </c>
       <c r="AG54" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -5616,8 +5793,8 @@
       <c r="Z55">
         <v>2</v>
       </c>
-      <c r="AA55">
-        <v>386289</v>
+      <c r="AA55" s="4">
+        <v>2039485761203</v>
       </c>
       <c r="AB55" s="1">
         <v>45305</v>
@@ -5628,14 +5805,17 @@
       <c r="AD55" t="s">
         <v>43</v>
       </c>
-      <c r="AF55" t="s">
-        <v>42</v>
+      <c r="AF55">
+        <v>20394857</v>
       </c>
       <c r="AG55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -5696,8 +5876,8 @@
       <c r="Z56">
         <v>2</v>
       </c>
-      <c r="AA56">
-        <v>378399</v>
+      <c r="AA56" s="4">
+        <v>4758392043475</v>
       </c>
       <c r="AB56" s="1">
         <v>45311</v>
@@ -5708,14 +5888,17 @@
       <c r="AD56" t="s">
         <v>43</v>
       </c>
-      <c r="AF56" t="s">
-        <v>42</v>
+      <c r="AF56">
+        <v>47583920</v>
       </c>
       <c r="AG56" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>99</v>
       </c>
@@ -5776,8 +5959,8 @@
       <c r="Z57">
         <v>2</v>
       </c>
-      <c r="AA57">
-        <v>924628</v>
+      <c r="AA57" s="4">
+        <v>3847562919384</v>
       </c>
       <c r="AB57" s="1">
         <v>45319</v>
@@ -5788,14 +5971,17 @@
       <c r="AD57" t="s">
         <v>43</v>
       </c>
-      <c r="AF57" t="s">
-        <v>42</v>
+      <c r="AF57">
+        <v>38475629</v>
       </c>
       <c r="AG57" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>100</v>
       </c>
@@ -5856,8 +6042,8 @@
       <c r="Z58">
         <v>2</v>
       </c>
-      <c r="AA58">
-        <v>165265</v>
+      <c r="AA58" s="4">
+        <v>1928374658192</v>
       </c>
       <c r="AB58" s="1">
         <v>45325</v>
@@ -5868,14 +6054,17 @@
       <c r="AD58" t="s">
         <v>43</v>
       </c>
-      <c r="AF58" t="s">
-        <v>42</v>
+      <c r="AF58">
+        <v>19283746</v>
       </c>
       <c r="AG58" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>101</v>
       </c>
@@ -5936,8 +6125,8 @@
       <c r="Z59">
         <v>2</v>
       </c>
-      <c r="AA59">
-        <v>510614</v>
+      <c r="AA59" s="4">
+        <v>5062738491506</v>
       </c>
       <c r="AB59" s="1">
         <v>45329</v>
@@ -5948,14 +6137,17 @@
       <c r="AD59" t="s">
         <v>43</v>
       </c>
-      <c r="AF59" t="s">
-        <v>42</v>
+      <c r="AF59">
+        <v>50627384</v>
       </c>
       <c r="AG59" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>102</v>
       </c>
@@ -6016,8 +6208,8 @@
       <c r="Z60">
         <v>2</v>
       </c>
-      <c r="AA60">
-        <v>555892</v>
+      <c r="AA60" s="4">
+        <v>2837465923283</v>
       </c>
       <c r="AB60" s="1">
         <v>45338</v>
@@ -6028,14 +6220,17 @@
       <c r="AD60" t="s">
         <v>43</v>
       </c>
-      <c r="AF60" t="s">
-        <v>42</v>
+      <c r="AF60">
+        <v>28374659</v>
       </c>
       <c r="AG60" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -6096,8 +6291,8 @@
       <c r="Z61">
         <v>2</v>
       </c>
-      <c r="AA61">
-        <v>319831</v>
+      <c r="AA61" s="4">
+        <v>9172836450917</v>
       </c>
       <c r="AB61" s="1">
         <v>45342</v>
@@ -6108,14 +6303,17 @@
       <c r="AD61" t="s">
         <v>43</v>
       </c>
-      <c r="AF61" t="s">
-        <v>42</v>
+      <c r="AF61">
+        <v>91728364</v>
       </c>
       <c r="AG61" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>104</v>
       </c>
@@ -6176,8 +6374,8 @@
       <c r="Z62">
         <v>2</v>
       </c>
-      <c r="AA62">
-        <v>797725</v>
+      <c r="AA62" s="4">
+        <v>6273845921627</v>
       </c>
       <c r="AB62" s="1">
         <v>45348</v>
@@ -6188,14 +6386,17 @@
       <c r="AD62" t="s">
         <v>43</v>
       </c>
-      <c r="AF62" t="s">
-        <v>42</v>
+      <c r="AF62">
+        <v>62738459</v>
       </c>
       <c r="AG62" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -6256,8 +6457,8 @@
       <c r="Z63">
         <v>2</v>
       </c>
-      <c r="AA63">
-        <v>895578</v>
+      <c r="AA63" s="4">
+        <v>7182936408718</v>
       </c>
       <c r="AB63" s="1">
         <v>45352</v>
@@ -6268,14 +6469,17 @@
       <c r="AD63" t="s">
         <v>43</v>
       </c>
-      <c r="AF63" t="s">
-        <v>42</v>
+      <c r="AF63">
+        <v>71829364</v>
       </c>
       <c r="AG63" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -6336,8 +6540,8 @@
       <c r="Z64">
         <v>2</v>
       </c>
-      <c r="AA64">
-        <v>260211</v>
+      <c r="AA64" s="4">
+        <v>9203847510920</v>
       </c>
       <c r="AB64" s="1">
         <v>45357</v>
@@ -6348,14 +6552,17 @@
       <c r="AD64" t="s">
         <v>43</v>
       </c>
-      <c r="AF64" t="s">
-        <v>42</v>
+      <c r="AF64">
+        <v>92038475</v>
       </c>
       <c r="AG64" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>107</v>
       </c>
@@ -6416,8 +6623,8 @@
       <c r="Z65">
         <v>2</v>
       </c>
-      <c r="AA65">
-        <v>863817</v>
+      <c r="AA65" s="4">
+        <v>3847562019384</v>
       </c>
       <c r="AB65" s="1">
         <v>45363</v>
@@ -6428,14 +6635,17 @@
       <c r="AD65" t="s">
         <v>43</v>
       </c>
-      <c r="AF65" t="s">
-        <v>42</v>
+      <c r="AF65">
+        <v>38475620</v>
       </c>
       <c r="AG65" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>108</v>
       </c>
@@ -6496,8 +6706,8 @@
       <c r="Z66">
         <v>2</v>
       </c>
-      <c r="AA66">
-        <v>569738</v>
+      <c r="AA66" s="4">
+        <v>4958673047495</v>
       </c>
       <c r="AB66" s="1">
         <v>45368</v>
@@ -6508,14 +6718,17 @@
       <c r="AD66" t="s">
         <v>43</v>
       </c>
-      <c r="AF66" t="s">
-        <v>42</v>
+      <c r="AF66">
+        <v>49586730</v>
       </c>
       <c r="AG66" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>109</v>
       </c>
@@ -6576,8 +6789,8 @@
       <c r="Z67">
         <v>2</v>
       </c>
-      <c r="AA67">
-        <v>242680</v>
+      <c r="AA67" s="4">
+        <v>5061729456506</v>
       </c>
       <c r="AB67" s="1">
         <v>45372</v>
@@ -6588,14 +6801,17 @@
       <c r="AD67" t="s">
         <v>43</v>
       </c>
-      <c r="AF67" t="s">
-        <v>42</v>
+      <c r="AF67">
+        <v>50617294</v>
       </c>
       <c r="AG67" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>110</v>
       </c>
@@ -6656,8 +6872,8 @@
       <c r="Z68">
         <v>2</v>
       </c>
-      <c r="AA68">
-        <v>866083</v>
+      <c r="AA68" s="4">
+        <v>7162938011716</v>
       </c>
       <c r="AB68" s="1">
         <v>45379</v>
@@ -6668,14 +6884,17 @@
       <c r="AD68" t="s">
         <v>43</v>
       </c>
-      <c r="AF68" t="s">
-        <v>42</v>
+      <c r="AF68">
+        <v>71629380</v>
       </c>
       <c r="AG68" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>111</v>
       </c>
@@ -6736,8 +6955,8 @@
       <c r="Z69">
         <v>2</v>
       </c>
-      <c r="AA69">
-        <v>767340</v>
+      <c r="AA69" s="4">
+        <v>2938475610293</v>
       </c>
       <c r="AB69" s="1">
         <v>45384</v>
@@ -6748,14 +6967,17 @@
       <c r="AD69" t="s">
         <v>43</v>
       </c>
-      <c r="AF69" t="s">
-        <v>42</v>
+      <c r="AF69">
+        <v>29384756</v>
       </c>
       <c r="AG69" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -6816,8 +7038,8 @@
       <c r="Z70">
         <v>2</v>
       </c>
-      <c r="AA70">
-        <v>310026</v>
+      <c r="AA70" s="4">
+        <v>1938476528193</v>
       </c>
       <c r="AB70" s="1">
         <v>45389</v>
@@ -6828,14 +7050,17 @@
       <c r="AD70" t="s">
         <v>43</v>
       </c>
-      <c r="AF70" t="s">
-        <v>42</v>
+      <c r="AF70">
+        <v>19384765</v>
       </c>
       <c r="AG70" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>113</v>
       </c>
@@ -6896,8 +7121,8 @@
       <c r="Z71">
         <v>2</v>
       </c>
-      <c r="AA71">
-        <v>853376</v>
+      <c r="AA71" s="4">
+        <v>3928475056392</v>
       </c>
       <c r="AB71" s="1">
         <v>45395</v>
@@ -6908,14 +7133,17 @@
       <c r="AD71" t="s">
         <v>43</v>
       </c>
-      <c r="AF71" t="s">
-        <v>42</v>
+      <c r="AF71">
+        <v>39284750</v>
       </c>
       <c r="AG71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>114</v>
       </c>
@@ -6976,8 +7204,8 @@
       <c r="Z72">
         <v>2</v>
       </c>
-      <c r="AA72">
-        <v>873850</v>
+      <c r="AA72" s="4">
+        <v>6473829012647</v>
       </c>
       <c r="AB72" s="1">
         <v>45402</v>
@@ -6988,14 +7216,17 @@
       <c r="AD72" t="s">
         <v>43</v>
       </c>
-      <c r="AF72" t="s">
-        <v>42</v>
+      <c r="AF72">
+        <v>64738290</v>
       </c>
       <c r="AG72" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -7056,8 +7287,8 @@
       <c r="Z73">
         <v>2</v>
       </c>
-      <c r="AA73">
-        <v>320306</v>
+      <c r="AA73" s="4">
+        <v>8392017410839</v>
       </c>
       <c r="AB73" s="1">
         <v>45409</v>
@@ -7068,14 +7299,17 @@
       <c r="AD73" t="s">
         <v>43</v>
       </c>
-      <c r="AF73" t="s">
-        <v>42</v>
+      <c r="AF73">
+        <v>83920174</v>
       </c>
       <c r="AG73" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>116</v>
       </c>
@@ -7136,8 +7370,8 @@
       <c r="Z74">
         <v>2</v>
       </c>
-      <c r="AA74">
-        <v>533191</v>
+      <c r="AA74" s="4">
+        <v>1947562850194</v>
       </c>
       <c r="AB74" s="1">
         <v>45414</v>
@@ -7148,14 +7382,17 @@
       <c r="AD74" t="s">
         <v>43</v>
       </c>
-      <c r="AF74" t="s">
-        <v>42</v>
+      <c r="AF74">
+        <v>19475628</v>
       </c>
       <c r="AG74" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>117</v>
       </c>
@@ -7216,8 +7453,8 @@
       <c r="Z75">
         <v>2</v>
       </c>
-      <c r="AA75">
-        <v>731179</v>
+      <c r="AA75" s="4">
+        <v>3849201730384</v>
       </c>
       <c r="AB75" s="1">
         <v>45421</v>
@@ -7228,14 +7465,17 @@
       <c r="AD75" t="s">
         <v>43</v>
       </c>
-      <c r="AF75" t="s">
-        <v>42</v>
+      <c r="AF75">
+        <v>38492017</v>
       </c>
       <c r="AG75" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>118</v>
       </c>
@@ -7296,8 +7536,8 @@
       <c r="Z76">
         <v>2</v>
       </c>
-      <c r="AA76">
-        <v>154995</v>
+      <c r="AA76" s="4">
+        <v>3948275028394</v>
       </c>
       <c r="AB76" s="1">
         <v>45428</v>
@@ -7308,14 +7548,17 @@
       <c r="AD76" t="s">
         <v>43</v>
       </c>
-      <c r="AF76" t="s">
-        <v>42</v>
+      <c r="AF76">
+        <v>39482750</v>
       </c>
       <c r="AG76" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -7376,8 +7619,8 @@
       <c r="Z77">
         <v>2</v>
       </c>
-      <c r="AA77">
-        <v>266018</v>
+      <c r="AA77" s="4">
+        <v>5847362050584</v>
       </c>
       <c r="AB77" s="1">
         <v>45435</v>
@@ -7388,14 +7631,17 @@
       <c r="AD77" t="s">
         <v>43</v>
       </c>
-      <c r="AF77" t="s">
-        <v>42</v>
+      <c r="AF77">
+        <v>58473620</v>
       </c>
       <c r="AG77" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>120</v>
       </c>
@@ -7456,8 +7702,8 @@
       <c r="Z78">
         <v>2</v>
       </c>
-      <c r="AA78">
-        <v>514789</v>
+      <c r="AA78" s="4">
+        <v>8475623091847</v>
       </c>
       <c r="AB78" s="1">
         <v>45441</v>
@@ -7468,14 +7714,17 @@
       <c r="AD78" t="s">
         <v>43</v>
       </c>
-      <c r="AF78" t="s">
-        <v>42</v>
+      <c r="AF78">
+        <v>84756230</v>
       </c>
       <c r="AG78" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -7536,8 +7785,8 @@
       <c r="Z79">
         <v>2</v>
       </c>
-      <c r="AA79">
-        <v>664897</v>
+      <c r="AA79" s="4">
+        <v>2938471510293</v>
       </c>
       <c r="AB79" s="1">
         <v>45448</v>
@@ -7548,14 +7797,17 @@
       <c r="AD79" t="s">
         <v>43</v>
       </c>
-      <c r="AF79" t="s">
-        <v>42</v>
+      <c r="AF79">
+        <v>29384715</v>
       </c>
       <c r="AG79" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>122</v>
       </c>
@@ -7616,8 +7868,8 @@
       <c r="Z80">
         <v>2</v>
       </c>
-      <c r="AA80">
-        <v>171510</v>
+      <c r="AA80" s="4">
+        <v>1847563927184</v>
       </c>
       <c r="AB80" s="1">
         <v>45455</v>
@@ -7628,14 +7880,17 @@
       <c r="AD80" t="s">
         <v>43</v>
       </c>
-      <c r="AF80" t="s">
-        <v>42</v>
+      <c r="AF80">
+        <v>18475639</v>
       </c>
       <c r="AG80" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>123</v>
       </c>
@@ -7696,8 +7951,8 @@
       <c r="Z81">
         <v>2</v>
       </c>
-      <c r="AA81">
-        <v>939734</v>
+      <c r="AA81" s="4">
+        <v>2938472629392</v>
       </c>
       <c r="AB81" s="1">
         <v>45462</v>
@@ -7708,14 +7963,17 @@
       <c r="AD81" t="s">
         <v>43</v>
       </c>
-      <c r="AF81" t="s">
-        <v>42</v>
+      <c r="AF81">
+        <v>29384726</v>
       </c>
       <c r="AG81" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>124</v>
       </c>
@@ -7776,8 +8034,8 @@
       <c r="Z82">
         <v>2</v>
       </c>
-      <c r="AA82">
-        <v>199863</v>
+      <c r="AA82" s="4">
+        <v>8473629120847</v>
       </c>
       <c r="AB82" s="1">
         <v>45469</v>
@@ -7788,14 +8046,17 @@
       <c r="AD82" t="s">
         <v>43</v>
       </c>
-      <c r="AF82" t="s">
-        <v>42</v>
+      <c r="AF82">
+        <v>84736291</v>
       </c>
       <c r="AG82" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>125</v>
       </c>
@@ -7856,8 +8117,8 @@
       <c r="Z83">
         <v>2</v>
       </c>
-      <c r="AA83">
-        <v>900842</v>
+      <c r="AA83" s="4">
+        <v>9384756110938</v>
       </c>
       <c r="AB83" s="1">
         <v>45474</v>
@@ -7868,14 +8129,17 @@
       <c r="AD83" t="s">
         <v>43</v>
       </c>
-      <c r="AF83" t="s">
-        <v>42</v>
+      <c r="AF83">
+        <v>93847561</v>
       </c>
       <c r="AG83" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>126</v>
       </c>
@@ -7936,8 +8200,8 @@
       <c r="Z84">
         <v>2</v>
       </c>
-      <c r="AA84">
-        <v>744392</v>
+      <c r="AA84" s="4">
+        <v>293847537029</v>
       </c>
       <c r="AB84" s="1">
         <v>45481</v>
@@ -7948,14 +8212,17 @@
       <c r="AD84" t="s">
         <v>43</v>
       </c>
-      <c r="AF84" t="s">
-        <v>42</v>
+      <c r="AF84">
+        <v>2938475</v>
       </c>
       <c r="AG84" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>127</v>
       </c>
@@ -8016,8 +8283,8 @@
       <c r="Z85">
         <v>2</v>
       </c>
-      <c r="AA85">
-        <v>929033</v>
+      <c r="AA85" s="4">
+        <v>7483920158748</v>
       </c>
       <c r="AB85" s="1">
         <v>45488</v>
@@ -8028,14 +8295,17 @@
       <c r="AD85" t="s">
         <v>43</v>
       </c>
-      <c r="AF85" t="s">
-        <v>42</v>
+      <c r="AF85">
+        <v>74839201</v>
       </c>
       <c r="AG85" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH85" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>128</v>
       </c>
@@ -8096,8 +8366,8 @@
       <c r="Z86">
         <v>2</v>
       </c>
-      <c r="AA86">
-        <v>906805</v>
+      <c r="AA86" s="4">
+        <v>8364927592836</v>
       </c>
       <c r="AB86" s="1">
         <v>45493</v>
@@ -8108,14 +8378,17 @@
       <c r="AD86" t="s">
         <v>43</v>
       </c>
-      <c r="AF86" t="s">
-        <v>42</v>
+      <c r="AF86">
+        <v>83649275</v>
       </c>
       <c r="AG86" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -8176,8 +8449,8 @@
       <c r="Z87">
         <v>2</v>
       </c>
-      <c r="AA87">
-        <v>991517</v>
+      <c r="AA87" s="4">
+        <v>9273648510927</v>
       </c>
       <c r="AB87" s="1">
         <v>45500</v>
@@ -8188,14 +8461,17 @@
       <c r="AD87" t="s">
         <v>43</v>
       </c>
-      <c r="AF87" t="s">
-        <v>42</v>
+      <c r="AF87">
+        <v>92736485</v>
       </c>
       <c r="AG87" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>130</v>
       </c>
@@ -8256,8 +8532,8 @@
       <c r="Z88">
         <v>2</v>
       </c>
-      <c r="AA88">
-        <v>896111</v>
+      <c r="AA88" s="4">
+        <v>1283476529128</v>
       </c>
       <c r="AB88" s="1">
         <v>45507</v>
@@ -8268,14 +8544,17 @@
       <c r="AD88" t="s">
         <v>43</v>
       </c>
-      <c r="AF88" t="s">
-        <v>42</v>
+      <c r="AF88">
+        <v>12834765</v>
       </c>
       <c r="AG88" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>131</v>
       </c>
@@ -8336,8 +8615,8 @@
       <c r="Z89">
         <v>2</v>
       </c>
-      <c r="AA89">
-        <v>650040</v>
+      <c r="AA89" s="4">
+        <v>2938471029384</v>
       </c>
       <c r="AB89" s="1">
         <v>45514</v>
@@ -8348,14 +8627,17 @@
       <c r="AD89" t="s">
         <v>43</v>
       </c>
-      <c r="AF89" t="s">
-        <v>42</v>
+      <c r="AF89">
+        <v>29384710</v>
       </c>
       <c r="AG89" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>132</v>
       </c>
@@ -8416,8 +8698,8 @@
       <c r="Z90">
         <v>2</v>
       </c>
-      <c r="AA90">
-        <v>719344</v>
+      <c r="AA90" s="4">
+        <v>8473628592747</v>
       </c>
       <c r="AB90" s="1">
         <v>45521</v>
@@ -8428,14 +8710,17 @@
       <c r="AD90" t="s">
         <v>43</v>
       </c>
-      <c r="AF90" t="s">
-        <v>42</v>
+      <c r="AF90">
+        <v>84736285</v>
       </c>
       <c r="AG90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH90" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>133</v>
       </c>
@@ -8496,8 +8781,8 @@
       <c r="Z91">
         <v>2</v>
       </c>
-      <c r="AA91">
-        <v>473535</v>
+      <c r="AA91" s="4">
+        <v>1283946538128</v>
       </c>
       <c r="AB91" s="1">
         <v>45528</v>
@@ -8508,14 +8793,17 @@
       <c r="AD91" t="s">
         <v>43</v>
       </c>
-      <c r="AF91" t="s">
-        <v>42</v>
+      <c r="AF91">
+        <v>12839465</v>
       </c>
       <c r="AG91" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH91" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>134</v>
       </c>
@@ -8576,8 +8864,8 @@
       <c r="Z92">
         <v>2</v>
       </c>
-      <c r="AA92">
-        <v>845164</v>
+      <c r="AA92" s="4">
+        <v>2938475650929</v>
       </c>
       <c r="AB92" s="1">
         <v>45535</v>
@@ -8588,14 +8876,17 @@
       <c r="AD92" t="s">
         <v>43</v>
       </c>
-      <c r="AF92" t="s">
-        <v>42</v>
+      <c r="AF92">
+        <v>29384756</v>
       </c>
       <c r="AG92" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH92" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>135</v>
       </c>
@@ -8656,8 +8947,8 @@
       <c r="Z93">
         <v>2</v>
       </c>
-      <c r="AA93">
-        <v>351302</v>
+      <c r="AA93" s="4">
+        <v>3947562058493</v>
       </c>
       <c r="AB93" s="1">
         <v>45540</v>
@@ -8668,14 +8959,17 @@
       <c r="AD93" t="s">
         <v>43</v>
       </c>
-      <c r="AF93" t="s">
-        <v>42</v>
+      <c r="AF93">
+        <v>39475620</v>
       </c>
       <c r="AG93" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH93" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>136</v>
       </c>
@@ -8736,8 +9030,8 @@
       <c r="Z94">
         <v>2</v>
       </c>
-      <c r="AA94">
-        <v>538255</v>
+      <c r="AA94" s="4">
+        <v>8374629017384</v>
       </c>
       <c r="AB94" s="1">
         <v>45547</v>
@@ -8748,14 +9042,17 @@
       <c r="AD94" t="s">
         <v>43</v>
       </c>
-      <c r="AF94" t="s">
-        <v>42</v>
+      <c r="AF94">
+        <v>83746290</v>
       </c>
       <c r="AG94" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH94" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>137</v>
       </c>
@@ -8816,8 +9113,8 @@
       <c r="Z95">
         <v>2</v>
       </c>
-      <c r="AA95">
-        <v>504189</v>
+      <c r="AA95" s="4">
+        <v>1203948765102</v>
       </c>
       <c r="AB95" s="1">
         <v>45554</v>
@@ -8828,14 +9125,17 @@
       <c r="AD95" t="s">
         <v>43</v>
       </c>
-      <c r="AF95" t="s">
-        <v>42</v>
+      <c r="AF95">
+        <v>12039487</v>
       </c>
       <c r="AG95" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>138</v>
       </c>
@@ -8896,8 +9196,8 @@
       <c r="Z96">
         <v>2</v>
       </c>
-      <c r="AA96">
-        <v>891079</v>
+      <c r="AA96" s="4">
+        <v>8475639238284</v>
       </c>
       <c r="AB96" s="1">
         <v>45561</v>
@@ -8908,14 +9208,17 @@
       <c r="AD96" t="s">
         <v>43</v>
       </c>
-      <c r="AF96" t="s">
-        <v>42</v>
+      <c r="AF96">
+        <v>84756392</v>
       </c>
       <c r="AG96" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH96" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>139</v>
       </c>
@@ -8976,8 +9279,8 @@
       <c r="Z97">
         <v>2</v>
       </c>
-      <c r="AA97">
-        <v>365297</v>
+      <c r="AA97" s="4">
+        <v>2839476520172</v>
       </c>
       <c r="AB97" s="1">
         <v>45566</v>
@@ -8988,14 +9291,17 @@
       <c r="AD97" t="s">
         <v>43</v>
       </c>
-      <c r="AF97" t="s">
-        <v>42</v>
+      <c r="AF97">
+        <v>28394765</v>
       </c>
       <c r="AG97" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH97" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>140</v>
       </c>
@@ -9056,8 +9362,8 @@
       <c r="Z98">
         <v>2</v>
       </c>
-      <c r="AA98">
-        <v>562966</v>
+      <c r="AA98" s="4">
+        <v>9384756259184</v>
       </c>
       <c r="AB98" s="1">
         <v>45571</v>
@@ -9068,14 +9374,17 @@
       <c r="AD98" t="s">
         <v>43</v>
       </c>
-      <c r="AF98" t="s">
-        <v>42</v>
+      <c r="AF98">
+        <v>93847562</v>
       </c>
       <c r="AG98" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH98" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>141</v>
       </c>
@@ -9136,8 +9445,8 @@
       <c r="Z99">
         <v>2</v>
       </c>
-      <c r="AA99">
-        <v>914250</v>
+      <c r="AA99" s="4">
+        <v>2938471691837</v>
       </c>
       <c r="AB99" s="1">
         <v>45577</v>
@@ -9148,14 +9457,17 @@
       <c r="AD99" t="s">
         <v>43</v>
       </c>
-      <c r="AF99" t="s">
-        <v>42</v>
+      <c r="AF99">
+        <v>29384716</v>
       </c>
       <c r="AG99" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>142</v>
       </c>
@@ -9216,8 +9528,8 @@
       <c r="Z100">
         <v>2</v>
       </c>
-      <c r="AA100">
-        <v>485924</v>
+      <c r="AA100" s="4">
+        <v>8374652910293</v>
       </c>
       <c r="AB100" s="1">
         <v>45580</v>
@@ -9228,14 +9540,17 @@
       <c r="AD100" t="s">
         <v>43</v>
       </c>
-      <c r="AF100" t="s">
-        <v>42</v>
+      <c r="AF100">
+        <v>83746529</v>
       </c>
       <c r="AG100" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>143</v>
       </c>
@@ -9296,8 +9611,8 @@
       <c r="Z101">
         <v>2</v>
       </c>
-      <c r="AA101">
-        <v>481541</v>
+      <c r="AA101" s="4">
+        <v>1948376512738</v>
       </c>
       <c r="AB101" s="1">
         <v>45583</v>
@@ -9308,14 +9623,17 @@
       <c r="AD101" t="s">
         <v>43</v>
       </c>
-      <c r="AF101" t="s">
-        <v>42</v>
+      <c r="AF101">
+        <v>19483765</v>
       </c>
       <c r="AG101" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="AH101" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>144</v>
       </c>
@@ -9376,8 +9694,8 @@
       <c r="Z102">
         <v>2</v>
       </c>
-      <c r="AA102">
-        <v>622467</v>
+      <c r="AA102" s="4">
+        <v>2847563956384</v>
       </c>
       <c r="AB102" s="1">
         <v>45571</v>
@@ -9388,14 +9706,21 @@
       <c r="AD102" t="s">
         <v>43</v>
       </c>
-      <c r="AF102" t="s">
-        <v>42</v>
+      <c r="AF102">
+        <v>28475639</v>
       </c>
       <c r="AG102" t="s">
-        <v>41</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AH102" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AA103" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Backend/data/Datos_Dummy_Vehiculos.xlsx
+++ b/Backend/data/Datos_Dummy_Vehiculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\Desktop\ProyectoConsultasEnLinea\Backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9E78BA-1A89-459E-BCCD-FDDEAF041C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42A21F9-5C27-43A3-A3B9-633F39D23547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="280">
   <si>
     <t>Numero de placa</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Vigente</t>
   </si>
   <si>
-    <t>Seguros del Estado</t>
-  </si>
-  <si>
     <t>TIB982</t>
   </si>
   <si>
@@ -829,6 +826,45 @@
   </si>
   <si>
     <t>Numero Certificado RTM</t>
+  </si>
+  <si>
+    <t>ALLIANZ SEGUROS S.A.</t>
+  </si>
+  <si>
+    <t>ASEGURADORA SOLIDARIA DE COLOMBIA ENTIDAD COOPERATIVA</t>
+  </si>
+  <si>
+    <t>AXA COLPATRIA SEGUROS SA</t>
+  </si>
+  <si>
+    <t>CARDIF COLOMBIA SEGUROS GENERALES SA</t>
+  </si>
+  <si>
+    <t>COMPAÑIA MUNDIAL DE SEGUROS SA</t>
+  </si>
+  <si>
+    <t>HDI SEGUROS COLOMBIA S.A.</t>
+  </si>
+  <si>
+    <t>LA EQUIDAD SEGUROS GENERALES ORGANISMO COOPERATIVO</t>
+  </si>
+  <si>
+    <t>LA PREVISORA S.A. COMPAÑIA DE SEGUROS</t>
+  </si>
+  <si>
+    <t>MAPFRE SEGUROS GENERALES DE COLOMBIA S.A.</t>
+  </si>
+  <si>
+    <t>SEGUROS COMERCIALES BOLIVAR S.A</t>
+  </si>
+  <si>
+    <t>SEGUROS DEL ESTADO S.A.</t>
+  </si>
+  <si>
+    <t>SEGUROS GENERALES SURAMERICANA S.A.</t>
+  </si>
+  <si>
+    <t>ZURICH COLOMBIA SEGUROS S.A.</t>
   </si>
 </sst>
 </file>
@@ -1167,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="AB91" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AE104" sqref="AE104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1202,7 +1238,7 @@
     <col min="27" max="27" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="25.7265625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="56.7265625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="24.26953125" customWidth="1"/>
     <col min="33" max="33" width="45.26953125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="28.7265625" bestFit="1" customWidth="1"/>
@@ -1303,7 +1339,7 @@
         <v>29</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG1" s="2" t="s">
         <v>30</v>
@@ -1314,10 +1350,10 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2">
         <v>1234567890</v>
@@ -1350,7 +1386,7 @@
         <v>123456</v>
       </c>
       <c r="M2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N2">
         <v>1500</v>
@@ -1404,7 +1440,7 @@
         <v>43</v>
       </c>
       <c r="AE2" t="s">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="AF2">
         <v>12345678</v>
@@ -1418,10 +1454,10 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3">
         <v>1008539057</v>
@@ -1430,10 +1466,10 @@
         <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J3">
         <v>284340</v>
@@ -1445,7 +1481,7 @@
         <v>137589</v>
       </c>
       <c r="M3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P3" t="s">
         <v>39</v>
@@ -1489,6 +1525,9 @@
       <c r="AD3" t="s">
         <v>43</v>
       </c>
+      <c r="AE3" t="s">
+        <v>268</v>
+      </c>
       <c r="AF3">
         <v>87654321</v>
       </c>
@@ -1501,10 +1540,10 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4">
         <v>1017782308</v>
@@ -1516,7 +1555,7 @@
         <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J4">
         <v>279760</v>
@@ -1528,7 +1567,7 @@
         <v>126531</v>
       </c>
       <c r="M4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P4" t="s">
         <v>39</v>
@@ -1572,6 +1611,9 @@
       <c r="AD4" t="s">
         <v>43</v>
       </c>
+      <c r="AE4" t="s">
+        <v>269</v>
+      </c>
       <c r="AF4">
         <v>23456789</v>
       </c>
@@ -1584,10 +1626,10 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5">
         <v>1009027789</v>
@@ -1596,10 +1638,10 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J5">
         <v>221833</v>
@@ -1611,7 +1653,7 @@
         <v>622144</v>
       </c>
       <c r="M5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P5" t="s">
         <v>39</v>
@@ -1655,6 +1697,9 @@
       <c r="AD5" t="s">
         <v>43</v>
       </c>
+      <c r="AE5" t="s">
+        <v>270</v>
+      </c>
       <c r="AF5">
         <v>98765432</v>
       </c>
@@ -1667,10 +1712,10 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6">
         <v>1003947845</v>
@@ -1679,10 +1724,10 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J6">
         <v>139195</v>
@@ -1694,7 +1739,7 @@
         <v>991194</v>
       </c>
       <c r="M6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P6" t="s">
         <v>39</v>
@@ -1738,6 +1783,9 @@
       <c r="AD6" t="s">
         <v>43</v>
       </c>
+      <c r="AE6" t="s">
+        <v>271</v>
+      </c>
       <c r="AF6">
         <v>34567890</v>
       </c>
@@ -1750,10 +1798,10 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7">
         <v>1005338700</v>
@@ -1762,7 +1810,7 @@
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I7" t="s">
         <v>37</v>
@@ -1777,7 +1825,7 @@
         <v>904392</v>
       </c>
       <c r="M7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P7" t="s">
         <v>39</v>
@@ -1821,6 +1869,9 @@
       <c r="AD7" t="s">
         <v>43</v>
       </c>
+      <c r="AE7" t="s">
+        <v>272</v>
+      </c>
       <c r="AF7">
         <v>65432109</v>
       </c>
@@ -1833,10 +1884,10 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8">
         <v>1002302378</v>
@@ -1845,10 +1896,10 @@
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J8">
         <v>654068</v>
@@ -1860,7 +1911,7 @@
         <v>834704</v>
       </c>
       <c r="M8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P8" t="s">
         <v>39</v>
@@ -1904,6 +1955,9 @@
       <c r="AD8" t="s">
         <v>43</v>
       </c>
+      <c r="AE8" t="s">
+        <v>273</v>
+      </c>
       <c r="AF8">
         <v>45678901</v>
       </c>
@@ -1916,10 +1970,10 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9">
         <v>1005722316</v>
@@ -1931,7 +1985,7 @@
         <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J9">
         <v>478450</v>
@@ -1943,7 +1997,7 @@
         <v>639564</v>
       </c>
       <c r="M9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P9" t="s">
         <v>39</v>
@@ -1987,6 +2041,9 @@
       <c r="AD9" t="s">
         <v>43</v>
       </c>
+      <c r="AE9" t="s">
+        <v>274</v>
+      </c>
       <c r="AF9">
         <v>76543210</v>
       </c>
@@ -1999,10 +2056,10 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10">
         <v>1009003874</v>
@@ -2011,10 +2068,10 @@
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J10">
         <v>178375</v>
@@ -2026,7 +2083,7 @@
         <v>759371</v>
       </c>
       <c r="M10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P10" t="s">
         <v>39</v>
@@ -2070,6 +2127,9 @@
       <c r="AD10" t="s">
         <v>43</v>
       </c>
+      <c r="AE10" t="s">
+        <v>275</v>
+      </c>
       <c r="AF10">
         <v>56789012</v>
       </c>
@@ -2082,10 +2142,10 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11">
         <v>1012746554</v>
@@ -2094,10 +2154,10 @@
         <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J11">
         <v>467315</v>
@@ -2109,7 +2169,7 @@
         <v>780470</v>
       </c>
       <c r="M11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P11" t="s">
         <v>39</v>
@@ -2153,6 +2213,9 @@
       <c r="AD11" t="s">
         <v>43</v>
       </c>
+      <c r="AE11" t="s">
+        <v>276</v>
+      </c>
       <c r="AF11">
         <v>87654320</v>
       </c>
@@ -2165,10 +2228,10 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12">
         <v>1012627461</v>
@@ -2177,10 +2240,10 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J12">
         <v>126797</v>
@@ -2192,7 +2255,7 @@
         <v>431076</v>
       </c>
       <c r="M12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P12" t="s">
         <v>39</v>
@@ -2236,6 +2299,9 @@
       <c r="AD12" t="s">
         <v>43</v>
       </c>
+      <c r="AE12" t="s">
+        <v>277</v>
+      </c>
       <c r="AF12">
         <v>67890123</v>
       </c>
@@ -2248,10 +2314,10 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13">
         <v>1015149761</v>
@@ -2260,10 +2326,10 @@
         <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J13">
         <v>298010</v>
@@ -2275,7 +2341,7 @@
         <v>868362</v>
       </c>
       <c r="M13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P13" t="s">
         <v>39</v>
@@ -2319,6 +2385,9 @@
       <c r="AD13" t="s">
         <v>43</v>
       </c>
+      <c r="AE13" t="s">
+        <v>278</v>
+      </c>
       <c r="AF13">
         <v>98765430</v>
       </c>
@@ -2331,10 +2400,10 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14">
         <v>1002271511</v>
@@ -2346,7 +2415,7 @@
         <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J14">
         <v>562940</v>
@@ -2358,7 +2427,7 @@
         <v>460913</v>
       </c>
       <c r="M14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P14" t="s">
         <v>39</v>
@@ -2402,6 +2471,9 @@
       <c r="AD14" t="s">
         <v>43</v>
       </c>
+      <c r="AE14" t="s">
+        <v>279</v>
+      </c>
       <c r="AF14">
         <v>78901234</v>
       </c>
@@ -2414,10 +2486,10 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15">
         <v>1014717513</v>
@@ -2426,10 +2498,10 @@
         <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J15">
         <v>821744</v>
@@ -2441,7 +2513,7 @@
         <v>157671</v>
       </c>
       <c r="M15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P15" t="s">
         <v>39</v>
@@ -2485,6 +2557,9 @@
       <c r="AD15" t="s">
         <v>43</v>
       </c>
+      <c r="AE15" t="s">
+        <v>267</v>
+      </c>
       <c r="AF15">
         <v>10987654</v>
       </c>
@@ -2497,10 +2572,10 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16">
         <v>1010254677</v>
@@ -2509,10 +2584,10 @@
         <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J16">
         <v>524391</v>
@@ -2524,7 +2599,7 @@
         <v>937925</v>
       </c>
       <c r="M16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P16" t="s">
         <v>39</v>
@@ -2568,6 +2643,9 @@
       <c r="AD16" t="s">
         <v>43</v>
       </c>
+      <c r="AE16" t="s">
+        <v>268</v>
+      </c>
       <c r="AF16">
         <v>89012345</v>
       </c>
@@ -2580,10 +2658,10 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17">
         <v>1015545705</v>
@@ -2592,7 +2670,7 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I17" t="s">
         <v>37</v>
@@ -2607,7 +2685,7 @@
         <v>165921</v>
       </c>
       <c r="M17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P17" t="s">
         <v>39</v>
@@ -2651,6 +2729,9 @@
       <c r="AD17" t="s">
         <v>43</v>
       </c>
+      <c r="AE17" t="s">
+        <v>269</v>
+      </c>
       <c r="AF17">
         <v>21098765</v>
       </c>
@@ -2663,10 +2744,10 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18">
         <v>1000020345</v>
@@ -2675,10 +2756,10 @@
         <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J18">
         <v>276483</v>
@@ -2690,7 +2771,7 @@
         <v>807143</v>
       </c>
       <c r="M18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P18" t="s">
         <v>39</v>
@@ -2734,6 +2815,9 @@
       <c r="AD18" t="s">
         <v>43</v>
       </c>
+      <c r="AE18" t="s">
+        <v>270</v>
+      </c>
       <c r="AF18">
         <v>90123456</v>
       </c>
@@ -2746,10 +2830,10 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19">
         <v>1010841130</v>
@@ -2761,7 +2845,7 @@
         <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J19">
         <v>623266</v>
@@ -2773,7 +2857,7 @@
         <v>298867</v>
       </c>
       <c r="M19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P19" t="s">
         <v>39</v>
@@ -2817,6 +2901,9 @@
       <c r="AD19" t="s">
         <v>43</v>
       </c>
+      <c r="AE19" t="s">
+        <v>271</v>
+      </c>
       <c r="AF19">
         <v>32109876</v>
       </c>
@@ -2829,10 +2916,10 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20">
         <v>1011282220</v>
@@ -2841,10 +2928,10 @@
         <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J20">
         <v>528138</v>
@@ -2856,7 +2943,7 @@
         <v>914284</v>
       </c>
       <c r="M20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P20" t="s">
         <v>39</v>
@@ -2900,6 +2987,9 @@
       <c r="AD20" t="s">
         <v>43</v>
       </c>
+      <c r="AE20" t="s">
+        <v>272</v>
+      </c>
       <c r="AF20">
         <v>12345679</v>
       </c>
@@ -2912,10 +3002,10 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C21">
         <v>1007211174</v>
@@ -2924,10 +3014,10 @@
         <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J21">
         <v>617125</v>
@@ -2939,7 +3029,7 @@
         <v>732516</v>
       </c>
       <c r="M21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P21" t="s">
         <v>39</v>
@@ -2983,6 +3073,9 @@
       <c r="AD21" t="s">
         <v>43</v>
       </c>
+      <c r="AE21" t="s">
+        <v>273</v>
+      </c>
       <c r="AF21">
         <v>43210987</v>
       </c>
@@ -2995,10 +3088,10 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22">
         <v>1008301114</v>
@@ -3007,10 +3100,10 @@
         <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J22">
         <v>389919</v>
@@ -3022,7 +3115,7 @@
         <v>235354</v>
       </c>
       <c r="M22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P22" t="s">
         <v>39</v>
@@ -3066,6 +3159,9 @@
       <c r="AD22" t="s">
         <v>43</v>
       </c>
+      <c r="AE22" t="s">
+        <v>274</v>
+      </c>
       <c r="AF22">
         <v>23456780</v>
       </c>
@@ -3078,10 +3174,10 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23">
         <v>1004556594</v>
@@ -3090,10 +3186,10 @@
         <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J23">
         <v>764269</v>
@@ -3105,7 +3201,7 @@
         <v>983505</v>
       </c>
       <c r="M23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P23" t="s">
         <v>39</v>
@@ -3149,6 +3245,9 @@
       <c r="AD23" t="s">
         <v>43</v>
       </c>
+      <c r="AE23" t="s">
+        <v>275</v>
+      </c>
       <c r="AF23">
         <v>54321098</v>
       </c>
@@ -3161,10 +3260,10 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24">
         <v>1017497543</v>
@@ -3176,7 +3275,7 @@
         <v>34</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J24">
         <v>950707</v>
@@ -3188,7 +3287,7 @@
         <v>540246</v>
       </c>
       <c r="M24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P24" t="s">
         <v>39</v>
@@ -3232,6 +3331,9 @@
       <c r="AD24" t="s">
         <v>43</v>
       </c>
+      <c r="AE24" t="s">
+        <v>276</v>
+      </c>
       <c r="AF24">
         <v>34567891</v>
       </c>
@@ -3244,10 +3346,10 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C25">
         <v>1015381046</v>
@@ -3256,10 +3358,10 @@
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J25">
         <v>208394</v>
@@ -3271,7 +3373,7 @@
         <v>669811</v>
       </c>
       <c r="M25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P25" t="s">
         <v>39</v>
@@ -3315,6 +3417,9 @@
       <c r="AD25" t="s">
         <v>43</v>
       </c>
+      <c r="AE25" t="s">
+        <v>277</v>
+      </c>
       <c r="AF25">
         <v>65432109</v>
       </c>
@@ -3327,10 +3432,10 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C26">
         <v>1005222893</v>
@@ -3339,10 +3444,10 @@
         <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J26">
         <v>337319</v>
@@ -3354,7 +3459,7 @@
         <v>658136</v>
       </c>
       <c r="M26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P26" t="s">
         <v>39</v>
@@ -3398,6 +3503,9 @@
       <c r="AD26" t="s">
         <v>43</v>
       </c>
+      <c r="AE26" t="s">
+        <v>278</v>
+      </c>
       <c r="AF26">
         <v>45678902</v>
       </c>
@@ -3410,10 +3518,10 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C27">
         <v>1017165382</v>
@@ -3422,7 +3530,7 @@
         <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I27" t="s">
         <v>37</v>
@@ -3437,7 +3545,7 @@
         <v>499011</v>
       </c>
       <c r="M27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P27" t="s">
         <v>39</v>
@@ -3481,6 +3589,9 @@
       <c r="AD27" t="s">
         <v>43</v>
       </c>
+      <c r="AE27" t="s">
+        <v>279</v>
+      </c>
       <c r="AF27">
         <v>76543211</v>
       </c>
@@ -3493,10 +3604,10 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28">
         <v>1001542776</v>
@@ -3505,10 +3616,10 @@
         <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J28">
         <v>960230</v>
@@ -3520,7 +3631,7 @@
         <v>323266</v>
       </c>
       <c r="M28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P28" t="s">
         <v>39</v>
@@ -3564,6 +3675,9 @@
       <c r="AD28" t="s">
         <v>43</v>
       </c>
+      <c r="AE28" t="s">
+        <v>267</v>
+      </c>
       <c r="AF28">
         <v>56789023</v>
       </c>
@@ -3576,10 +3690,10 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29">
         <v>1002712568</v>
@@ -3591,7 +3705,7 @@
         <v>34</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J29">
         <v>244571</v>
@@ -3603,7 +3717,7 @@
         <v>289675</v>
       </c>
       <c r="M29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P29" t="s">
         <v>39</v>
@@ -3647,6 +3761,9 @@
       <c r="AD29" t="s">
         <v>43</v>
       </c>
+      <c r="AE29" t="s">
+        <v>268</v>
+      </c>
       <c r="AF29">
         <v>87654321</v>
       </c>
@@ -3659,10 +3776,10 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C30">
         <v>1017442593</v>
@@ -3671,10 +3788,10 @@
         <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J30">
         <v>868482</v>
@@ -3686,7 +3803,7 @@
         <v>211183</v>
       </c>
       <c r="M30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P30" t="s">
         <v>39</v>
@@ -3730,6 +3847,9 @@
       <c r="AD30" t="s">
         <v>43</v>
       </c>
+      <c r="AE30" t="s">
+        <v>269</v>
+      </c>
       <c r="AF30">
         <v>67890124</v>
       </c>
@@ -3742,10 +3862,10 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C31">
         <v>1005055948</v>
@@ -3754,10 +3874,10 @@
         <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J31">
         <v>152428</v>
@@ -3769,7 +3889,7 @@
         <v>143391</v>
       </c>
       <c r="M31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P31" t="s">
         <v>39</v>
@@ -3813,6 +3933,9 @@
       <c r="AD31" t="s">
         <v>43</v>
       </c>
+      <c r="AE31" t="s">
+        <v>270</v>
+      </c>
       <c r="AF31">
         <v>98765432</v>
       </c>
@@ -3825,10 +3948,10 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C32">
         <v>1013489497</v>
@@ -3837,10 +3960,10 @@
         <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J32">
         <v>370162</v>
@@ -3852,7 +3975,7 @@
         <v>544501</v>
       </c>
       <c r="M32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P32" t="s">
         <v>39</v>
@@ -3896,6 +4019,9 @@
       <c r="AD32" t="s">
         <v>43</v>
       </c>
+      <c r="AE32" t="s">
+        <v>271</v>
+      </c>
       <c r="AF32">
         <v>78901235</v>
       </c>
@@ -3908,10 +4034,10 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C33">
         <v>1011062861</v>
@@ -3920,10 +4046,10 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J33">
         <v>545671</v>
@@ -3935,7 +4061,7 @@
         <v>928437</v>
       </c>
       <c r="M33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P33" t="s">
         <v>39</v>
@@ -3979,6 +4105,9 @@
       <c r="AD33" t="s">
         <v>43</v>
       </c>
+      <c r="AE33" t="s">
+        <v>272</v>
+      </c>
       <c r="AF33">
         <v>10987653</v>
       </c>
@@ -3991,10 +4120,10 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C34">
         <v>1016083545</v>
@@ -4006,7 +4135,7 @@
         <v>34</v>
       </c>
       <c r="I34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J34">
         <v>338268</v>
@@ -4018,7 +4147,7 @@
         <v>814726</v>
       </c>
       <c r="M34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P34" t="s">
         <v>39</v>
@@ -4062,6 +4191,9 @@
       <c r="AD34" t="s">
         <v>43</v>
       </c>
+      <c r="AE34" t="s">
+        <v>273</v>
+      </c>
       <c r="AF34">
         <v>89012346</v>
       </c>
@@ -4074,10 +4206,10 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35">
         <v>1010909211</v>
@@ -4086,10 +4218,10 @@
         <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J35">
         <v>642280</v>
@@ -4101,7 +4233,7 @@
         <v>620327</v>
       </c>
       <c r="M35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P35" t="s">
         <v>39</v>
@@ -4145,6 +4277,9 @@
       <c r="AD35" t="s">
         <v>43</v>
       </c>
+      <c r="AE35" t="s">
+        <v>274</v>
+      </c>
       <c r="AF35">
         <v>21098764</v>
       </c>
@@ -4157,10 +4292,10 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C36">
         <v>1018941126</v>
@@ -4169,10 +4304,10 @@
         <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J36">
         <v>139973</v>
@@ -4184,7 +4319,7 @@
         <v>531986</v>
       </c>
       <c r="M36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P36" t="s">
         <v>39</v>
@@ -4228,6 +4363,9 @@
       <c r="AD36" t="s">
         <v>43</v>
       </c>
+      <c r="AE36" t="s">
+        <v>275</v>
+      </c>
       <c r="AF36">
         <v>90123457</v>
       </c>
@@ -4240,10 +4378,10 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C37">
         <v>1017793906</v>
@@ -4252,7 +4390,7 @@
         <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I37" t="s">
         <v>37</v>
@@ -4267,7 +4405,7 @@
         <v>549585</v>
       </c>
       <c r="M37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P37" t="s">
         <v>39</v>
@@ -4311,6 +4449,9 @@
       <c r="AD37" t="s">
         <v>43</v>
       </c>
+      <c r="AE37" t="s">
+        <v>276</v>
+      </c>
       <c r="AF37">
         <v>32109875</v>
       </c>
@@ -4323,10 +4464,10 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C38">
         <v>1000557965</v>
@@ -4335,10 +4476,10 @@
         <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J38">
         <v>731612</v>
@@ -4350,7 +4491,7 @@
         <v>240236</v>
       </c>
       <c r="M38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P38" t="s">
         <v>39</v>
@@ -4394,6 +4535,9 @@
       <c r="AD38" t="s">
         <v>43</v>
       </c>
+      <c r="AE38" t="s">
+        <v>277</v>
+      </c>
       <c r="AF38">
         <v>12345670</v>
       </c>
@@ -4406,10 +4550,10 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C39">
         <v>1004046977</v>
@@ -4421,7 +4565,7 @@
         <v>34</v>
       </c>
       <c r="I39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J39">
         <v>975179</v>
@@ -4433,7 +4577,7 @@
         <v>807684</v>
       </c>
       <c r="M39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P39" t="s">
         <v>39</v>
@@ -4477,6 +4621,9 @@
       <c r="AD39" t="s">
         <v>43</v>
       </c>
+      <c r="AE39" t="s">
+        <v>278</v>
+      </c>
       <c r="AF39">
         <v>43210986</v>
       </c>
@@ -4489,10 +4636,10 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C40">
         <v>1007705974</v>
@@ -4501,10 +4648,10 @@
         <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J40">
         <v>699912</v>
@@ -4516,7 +4663,7 @@
         <v>717709</v>
       </c>
       <c r="M40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P40" t="s">
         <v>39</v>
@@ -4560,6 +4707,9 @@
       <c r="AD40" t="s">
         <v>43</v>
       </c>
+      <c r="AE40" t="s">
+        <v>279</v>
+      </c>
       <c r="AF40">
         <v>23456781</v>
       </c>
@@ -4572,10 +4722,10 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C41">
         <v>1018270390</v>
@@ -4584,10 +4734,10 @@
         <v>32</v>
       </c>
       <c r="F41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J41">
         <v>833028</v>
@@ -4599,7 +4749,7 @@
         <v>667004</v>
       </c>
       <c r="M41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P41" t="s">
         <v>39</v>
@@ -4643,6 +4793,9 @@
       <c r="AD41" t="s">
         <v>43</v>
       </c>
+      <c r="AE41" t="s">
+        <v>267</v>
+      </c>
       <c r="AF41">
         <v>54321097</v>
       </c>
@@ -4655,10 +4808,10 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C42">
         <v>1015005637</v>
@@ -4667,10 +4820,10 @@
         <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J42">
         <v>337802</v>
@@ -4682,7 +4835,7 @@
         <v>496275</v>
       </c>
       <c r="M42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P42" t="s">
         <v>39</v>
@@ -4726,6 +4879,9 @@
       <c r="AD42" t="s">
         <v>43</v>
       </c>
+      <c r="AE42" t="s">
+        <v>268</v>
+      </c>
       <c r="AF42">
         <v>34567892</v>
       </c>
@@ -4738,10 +4894,10 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C43">
         <v>1002147957</v>
@@ -4750,10 +4906,10 @@
         <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J43">
         <v>851125</v>
@@ -4765,7 +4921,7 @@
         <v>643700</v>
       </c>
       <c r="M43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P43" t="s">
         <v>39</v>
@@ -4809,6 +4965,9 @@
       <c r="AD43" t="s">
         <v>43</v>
       </c>
+      <c r="AE43" t="s">
+        <v>269</v>
+      </c>
       <c r="AF43">
         <v>65432108</v>
       </c>
@@ -4821,10 +4980,10 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44">
         <v>1002135797</v>
@@ -4836,7 +4995,7 @@
         <v>34</v>
       </c>
       <c r="I44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J44">
         <v>487226</v>
@@ -4848,7 +5007,7 @@
         <v>534985</v>
       </c>
       <c r="M44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P44" t="s">
         <v>39</v>
@@ -4892,6 +5051,9 @@
       <c r="AD44" t="s">
         <v>43</v>
       </c>
+      <c r="AE44" t="s">
+        <v>270</v>
+      </c>
       <c r="AF44">
         <v>45678903</v>
       </c>
@@ -4904,10 +5066,10 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C45">
         <v>1001796243</v>
@@ -4916,10 +5078,10 @@
         <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J45">
         <v>963845</v>
@@ -4931,7 +5093,7 @@
         <v>193486</v>
       </c>
       <c r="M45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P45" t="s">
         <v>39</v>
@@ -4975,6 +5137,9 @@
       <c r="AD45" t="s">
         <v>43</v>
       </c>
+      <c r="AE45" t="s">
+        <v>271</v>
+      </c>
       <c r="AF45">
         <v>76543212</v>
       </c>
@@ -4987,10 +5152,10 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C46">
         <v>1010982498</v>
@@ -4999,10 +5164,10 @@
         <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J46">
         <v>516953</v>
@@ -5014,7 +5179,7 @@
         <v>896584</v>
       </c>
       <c r="M46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P46" t="s">
         <v>39</v>
@@ -5058,6 +5223,9 @@
       <c r="AD46" t="s">
         <v>43</v>
       </c>
+      <c r="AE46" t="s">
+        <v>272</v>
+      </c>
       <c r="AF46">
         <v>56789034</v>
       </c>
@@ -5070,10 +5238,10 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C47">
         <v>1016057313</v>
@@ -5082,7 +5250,7 @@
         <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I47" t="s">
         <v>37</v>
@@ -5097,7 +5265,7 @@
         <v>398997</v>
       </c>
       <c r="M47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P47" t="s">
         <v>39</v>
@@ -5141,6 +5309,9 @@
       <c r="AD47" t="s">
         <v>43</v>
       </c>
+      <c r="AE47" t="s">
+        <v>273</v>
+      </c>
       <c r="AF47">
         <v>87654322</v>
       </c>
@@ -5153,10 +5324,10 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C48">
         <v>1018567675</v>
@@ -5165,10 +5336,10 @@
         <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J48">
         <v>126522</v>
@@ -5180,7 +5351,7 @@
         <v>213016</v>
       </c>
       <c r="M48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P48" t="s">
         <v>39</v>
@@ -5224,6 +5395,9 @@
       <c r="AD48" t="s">
         <v>43</v>
       </c>
+      <c r="AE48" t="s">
+        <v>274</v>
+      </c>
       <c r="AF48">
         <v>67890125</v>
       </c>
@@ -5236,10 +5410,10 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49">
         <v>1012086140</v>
@@ -5251,7 +5425,7 @@
         <v>34</v>
       </c>
       <c r="I49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J49">
         <v>287681</v>
@@ -5263,7 +5437,7 @@
         <v>366146</v>
       </c>
       <c r="M49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P49" t="s">
         <v>39</v>
@@ -5307,6 +5481,9 @@
       <c r="AD49" t="s">
         <v>43</v>
       </c>
+      <c r="AE49" t="s">
+        <v>275</v>
+      </c>
       <c r="AF49">
         <v>98765433</v>
       </c>
@@ -5319,10 +5496,10 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C50">
         <v>1009382172</v>
@@ -5331,10 +5508,10 @@
         <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J50">
         <v>257985</v>
@@ -5346,7 +5523,7 @@
         <v>968614</v>
       </c>
       <c r="M50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P50" t="s">
         <v>39</v>
@@ -5390,6 +5567,9 @@
       <c r="AD50" t="s">
         <v>43</v>
       </c>
+      <c r="AE50" t="s">
+        <v>276</v>
+      </c>
       <c r="AF50">
         <v>78901236</v>
       </c>
@@ -5402,10 +5582,10 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C51">
         <v>1000865260</v>
@@ -5414,10 +5594,10 @@
         <v>32</v>
       </c>
       <c r="F51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J51">
         <v>584029</v>
@@ -5429,7 +5609,7 @@
         <v>320338</v>
       </c>
       <c r="M51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P51" t="s">
         <v>39</v>
@@ -5473,6 +5653,9 @@
       <c r="AD51" t="s">
         <v>43</v>
       </c>
+      <c r="AE51" t="s">
+        <v>277</v>
+      </c>
       <c r="AF51">
         <v>10987652</v>
       </c>
@@ -5485,10 +5668,10 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C52">
         <v>1006472513</v>
@@ -5497,10 +5680,10 @@
         <v>32</v>
       </c>
       <c r="F52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J52">
         <v>699515</v>
@@ -5512,7 +5695,7 @@
         <v>477711</v>
       </c>
       <c r="M52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P52" t="s">
         <v>39</v>
@@ -5556,6 +5739,9 @@
       <c r="AD52" t="s">
         <v>43</v>
       </c>
+      <c r="AE52" t="s">
+        <v>278</v>
+      </c>
       <c r="AF52">
         <v>89012347</v>
       </c>
@@ -5568,10 +5754,10 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C53">
         <v>66839515</v>
@@ -5580,10 +5766,10 @@
         <v>32</v>
       </c>
       <c r="F53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J53">
         <v>798181</v>
@@ -5595,7 +5781,7 @@
         <v>730422</v>
       </c>
       <c r="M53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P53" t="s">
         <v>39</v>
@@ -5639,6 +5825,9 @@
       <c r="AD53" t="s">
         <v>43</v>
       </c>
+      <c r="AE53" t="s">
+        <v>279</v>
+      </c>
       <c r="AF53">
         <v>10293847</v>
       </c>
@@ -5651,10 +5840,10 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C54">
         <v>65709145</v>
@@ -5666,7 +5855,7 @@
         <v>34</v>
       </c>
       <c r="I54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J54">
         <v>190033</v>
@@ -5678,7 +5867,7 @@
         <v>991517</v>
       </c>
       <c r="M54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P54" t="s">
         <v>39</v>
@@ -5722,6 +5911,9 @@
       <c r="AD54" t="s">
         <v>43</v>
       </c>
+      <c r="AE54" t="s">
+        <v>267</v>
+      </c>
       <c r="AF54">
         <v>56473829</v>
       </c>
@@ -5734,10 +5926,10 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C55">
         <v>12829465</v>
@@ -5746,10 +5938,10 @@
         <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J55">
         <v>473172</v>
@@ -5761,7 +5953,7 @@
         <v>753426</v>
       </c>
       <c r="M55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P55" t="s">
         <v>39</v>
@@ -5805,6 +5997,9 @@
       <c r="AD55" t="s">
         <v>43</v>
       </c>
+      <c r="AE55" t="s">
+        <v>268</v>
+      </c>
       <c r="AF55">
         <v>20394857</v>
       </c>
@@ -5817,10 +6012,10 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C56">
         <v>62486476</v>
@@ -5829,10 +6024,10 @@
         <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J56">
         <v>975078</v>
@@ -5844,7 +6039,7 @@
         <v>995419</v>
       </c>
       <c r="M56" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P56" t="s">
         <v>39</v>
@@ -5888,6 +6083,9 @@
       <c r="AD56" t="s">
         <v>43</v>
       </c>
+      <c r="AE56" t="s">
+        <v>269</v>
+      </c>
       <c r="AF56">
         <v>47583920</v>
       </c>
@@ -5900,10 +6098,10 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C57">
         <v>27250029</v>
@@ -5912,7 +6110,7 @@
         <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I57" t="s">
         <v>37</v>
@@ -5927,7 +6125,7 @@
         <v>905546</v>
       </c>
       <c r="M57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P57" t="s">
         <v>39</v>
@@ -5971,6 +6169,9 @@
       <c r="AD57" t="s">
         <v>43</v>
       </c>
+      <c r="AE57" t="s">
+        <v>270</v>
+      </c>
       <c r="AF57">
         <v>38475629</v>
       </c>
@@ -5983,10 +6184,10 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C58">
         <v>68293254</v>
@@ -5995,10 +6196,10 @@
         <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J58">
         <v>397323</v>
@@ -6010,7 +6211,7 @@
         <v>296921</v>
       </c>
       <c r="M58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P58" t="s">
         <v>39</v>
@@ -6054,6 +6255,9 @@
       <c r="AD58" t="s">
         <v>43</v>
       </c>
+      <c r="AE58" t="s">
+        <v>271</v>
+      </c>
       <c r="AF58">
         <v>19283746</v>
       </c>
@@ -6066,10 +6270,10 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C59">
         <v>82382981</v>
@@ -6081,7 +6285,7 @@
         <v>34</v>
       </c>
       <c r="I59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J59">
         <v>461173</v>
@@ -6093,7 +6297,7 @@
         <v>455891</v>
       </c>
       <c r="M59" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P59" t="s">
         <v>39</v>
@@ -6137,6 +6341,9 @@
       <c r="AD59" t="s">
         <v>43</v>
       </c>
+      <c r="AE59" t="s">
+        <v>272</v>
+      </c>
       <c r="AF59">
         <v>50627384</v>
       </c>
@@ -6149,10 +6356,10 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60">
         <v>20915838</v>
@@ -6161,10 +6368,10 @@
         <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J60">
         <v>654878</v>
@@ -6176,7 +6383,7 @@
         <v>469335</v>
       </c>
       <c r="M60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P60" t="s">
         <v>39</v>
@@ -6220,6 +6427,9 @@
       <c r="AD60" t="s">
         <v>43</v>
       </c>
+      <c r="AE60" t="s">
+        <v>273</v>
+      </c>
       <c r="AF60">
         <v>28374659</v>
       </c>
@@ -6232,10 +6442,10 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C61">
         <v>10970735</v>
@@ -6244,10 +6454,10 @@
         <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J61">
         <v>955108</v>
@@ -6259,7 +6469,7 @@
         <v>192884</v>
       </c>
       <c r="M61" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P61" t="s">
         <v>39</v>
@@ -6303,6 +6513,9 @@
       <c r="AD61" t="s">
         <v>43</v>
       </c>
+      <c r="AE61" t="s">
+        <v>274</v>
+      </c>
       <c r="AF61">
         <v>91728364</v>
       </c>
@@ -6315,10 +6528,10 @@
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C62">
         <v>92676860</v>
@@ -6327,10 +6540,10 @@
         <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J62">
         <v>997895</v>
@@ -6342,7 +6555,7 @@
         <v>173466</v>
       </c>
       <c r="M62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P62" t="s">
         <v>39</v>
@@ -6386,6 +6599,9 @@
       <c r="AD62" t="s">
         <v>43</v>
       </c>
+      <c r="AE62" t="s">
+        <v>275</v>
+      </c>
       <c r="AF62">
         <v>62738459</v>
       </c>
@@ -6398,10 +6614,10 @@
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C63">
         <v>68091019</v>
@@ -6410,10 +6626,10 @@
         <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J63">
         <v>137381</v>
@@ -6425,7 +6641,7 @@
         <v>556943</v>
       </c>
       <c r="M63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P63" t="s">
         <v>39</v>
@@ -6469,6 +6685,9 @@
       <c r="AD63" t="s">
         <v>43</v>
       </c>
+      <c r="AE63" t="s">
+        <v>276</v>
+      </c>
       <c r="AF63">
         <v>71829364</v>
       </c>
@@ -6481,10 +6700,10 @@
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C64">
         <v>71613400</v>
@@ -6496,7 +6715,7 @@
         <v>34</v>
       </c>
       <c r="I64" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J64">
         <v>630358</v>
@@ -6508,7 +6727,7 @@
         <v>259185</v>
       </c>
       <c r="M64" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P64" t="s">
         <v>39</v>
@@ -6552,6 +6771,9 @@
       <c r="AD64" t="s">
         <v>43</v>
       </c>
+      <c r="AE64" t="s">
+        <v>277</v>
+      </c>
       <c r="AF64">
         <v>92038475</v>
       </c>
@@ -6564,10 +6786,10 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C65">
         <v>27170267</v>
@@ -6576,10 +6798,10 @@
         <v>32</v>
       </c>
       <c r="F65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J65">
         <v>288451</v>
@@ -6591,7 +6813,7 @@
         <v>605554</v>
       </c>
       <c r="M65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P65" t="s">
         <v>39</v>
@@ -6635,6 +6857,9 @@
       <c r="AD65" t="s">
         <v>43</v>
       </c>
+      <c r="AE65" t="s">
+        <v>278</v>
+      </c>
       <c r="AF65">
         <v>38475620</v>
       </c>
@@ -6647,10 +6872,10 @@
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C66">
         <v>60888119</v>
@@ -6659,10 +6884,10 @@
         <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J66">
         <v>526661</v>
@@ -6674,7 +6899,7 @@
         <v>584617</v>
       </c>
       <c r="M66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P66" t="s">
         <v>39</v>
@@ -6718,6 +6943,9 @@
       <c r="AD66" t="s">
         <v>43</v>
       </c>
+      <c r="AE66" t="s">
+        <v>279</v>
+      </c>
       <c r="AF66">
         <v>49586730</v>
       </c>
@@ -6730,10 +6958,10 @@
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67">
         <v>33551625</v>
@@ -6742,7 +6970,7 @@
         <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I67" t="s">
         <v>37</v>
@@ -6757,7 +6985,7 @@
         <v>722822</v>
       </c>
       <c r="M67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P67" t="s">
         <v>39</v>
@@ -6801,6 +7029,9 @@
       <c r="AD67" t="s">
         <v>43</v>
       </c>
+      <c r="AE67" t="s">
+        <v>267</v>
+      </c>
       <c r="AF67">
         <v>50617294</v>
       </c>
@@ -6813,10 +7044,10 @@
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C68">
         <v>94636343</v>
@@ -6825,10 +7056,10 @@
         <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J68">
         <v>958136</v>
@@ -6840,7 +7071,7 @@
         <v>234661</v>
       </c>
       <c r="M68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P68" t="s">
         <v>39</v>
@@ -6884,6 +7115,9 @@
       <c r="AD68" t="s">
         <v>43</v>
       </c>
+      <c r="AE68" t="s">
+        <v>268</v>
+      </c>
       <c r="AF68">
         <v>71629380</v>
       </c>
@@ -6896,10 +7130,10 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C69">
         <v>32041138</v>
@@ -6911,7 +7145,7 @@
         <v>34</v>
       </c>
       <c r="I69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J69">
         <v>205570</v>
@@ -6923,7 +7157,7 @@
         <v>362978</v>
       </c>
       <c r="M69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P69" t="s">
         <v>39</v>
@@ -6967,6 +7201,9 @@
       <c r="AD69" t="s">
         <v>43</v>
       </c>
+      <c r="AE69" t="s">
+        <v>269</v>
+      </c>
       <c r="AF69">
         <v>29384756</v>
       </c>
@@ -6979,10 +7216,10 @@
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C70">
         <v>11721029</v>
@@ -6991,10 +7228,10 @@
         <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J70">
         <v>473060</v>
@@ -7006,7 +7243,7 @@
         <v>205267</v>
       </c>
       <c r="M70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P70" t="s">
         <v>39</v>
@@ -7050,6 +7287,9 @@
       <c r="AD70" t="s">
         <v>43</v>
       </c>
+      <c r="AE70" t="s">
+        <v>270</v>
+      </c>
       <c r="AF70">
         <v>19384765</v>
       </c>
@@ -7062,10 +7302,10 @@
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C71">
         <v>20774421</v>
@@ -7074,10 +7314,10 @@
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J71">
         <v>247195</v>
@@ -7089,7 +7329,7 @@
         <v>929732</v>
       </c>
       <c r="M71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P71" t="s">
         <v>39</v>
@@ -7133,6 +7373,9 @@
       <c r="AD71" t="s">
         <v>43</v>
       </c>
+      <c r="AE71" t="s">
+        <v>271</v>
+      </c>
       <c r="AF71">
         <v>39284750</v>
       </c>
@@ -7145,10 +7388,10 @@
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C72">
         <v>11380169</v>
@@ -7157,10 +7400,10 @@
         <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J72">
         <v>621031</v>
@@ -7172,7 +7415,7 @@
         <v>561901</v>
       </c>
       <c r="M72" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P72" t="s">
         <v>39</v>
@@ -7216,6 +7459,9 @@
       <c r="AD72" t="s">
         <v>43</v>
       </c>
+      <c r="AE72" t="s">
+        <v>272</v>
+      </c>
       <c r="AF72">
         <v>64738290</v>
       </c>
@@ -7228,10 +7474,10 @@
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C73">
         <v>15450654</v>
@@ -7240,10 +7486,10 @@
         <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J73">
         <v>117709</v>
@@ -7255,7 +7501,7 @@
         <v>555642</v>
       </c>
       <c r="M73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P73" t="s">
         <v>39</v>
@@ -7299,6 +7545,9 @@
       <c r="AD73" t="s">
         <v>43</v>
       </c>
+      <c r="AE73" t="s">
+        <v>273</v>
+      </c>
       <c r="AF73">
         <v>83920174</v>
       </c>
@@ -7311,10 +7560,10 @@
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C74">
         <v>77336621</v>
@@ -7326,7 +7575,7 @@
         <v>34</v>
       </c>
       <c r="I74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J74">
         <v>482399</v>
@@ -7338,7 +7587,7 @@
         <v>246175</v>
       </c>
       <c r="M74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P74" t="s">
         <v>39</v>
@@ -7382,6 +7631,9 @@
       <c r="AD74" t="s">
         <v>43</v>
       </c>
+      <c r="AE74" t="s">
+        <v>274</v>
+      </c>
       <c r="AF74">
         <v>19475628</v>
       </c>
@@ -7394,10 +7646,10 @@
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C75">
         <v>89578519</v>
@@ -7406,10 +7658,10 @@
         <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I75" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J75">
         <v>705119</v>
@@ -7421,7 +7673,7 @@
         <v>935519</v>
       </c>
       <c r="M75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P75" t="s">
         <v>39</v>
@@ -7465,6 +7717,9 @@
       <c r="AD75" t="s">
         <v>43</v>
       </c>
+      <c r="AE75" t="s">
+        <v>275</v>
+      </c>
       <c r="AF75">
         <v>38492017</v>
       </c>
@@ -7477,10 +7732,10 @@
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C76">
         <v>10963238</v>
@@ -7489,10 +7744,10 @@
         <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I76" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J76">
         <v>945549</v>
@@ -7504,7 +7759,7 @@
         <v>100084</v>
       </c>
       <c r="M76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P76" t="s">
         <v>39</v>
@@ -7548,6 +7803,9 @@
       <c r="AD76" t="s">
         <v>43</v>
       </c>
+      <c r="AE76" t="s">
+        <v>276</v>
+      </c>
       <c r="AF76">
         <v>39482750</v>
       </c>
@@ -7560,10 +7818,10 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C77">
         <v>69686697</v>
@@ -7572,7 +7830,7 @@
         <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I77" t="s">
         <v>37</v>
@@ -7587,7 +7845,7 @@
         <v>795319</v>
       </c>
       <c r="M77" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P77" t="s">
         <v>39</v>
@@ -7631,6 +7889,9 @@
       <c r="AD77" t="s">
         <v>43</v>
       </c>
+      <c r="AE77" t="s">
+        <v>277</v>
+      </c>
       <c r="AF77">
         <v>58473620</v>
       </c>
@@ -7643,10 +7904,10 @@
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C78">
         <v>41070615</v>
@@ -7655,10 +7916,10 @@
         <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J78">
         <v>338846</v>
@@ -7670,7 +7931,7 @@
         <v>494047</v>
       </c>
       <c r="M78" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P78" t="s">
         <v>39</v>
@@ -7714,6 +7975,9 @@
       <c r="AD78" t="s">
         <v>43</v>
       </c>
+      <c r="AE78" t="s">
+        <v>278</v>
+      </c>
       <c r="AF78">
         <v>84756230</v>
       </c>
@@ -7726,10 +7990,10 @@
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C79">
         <v>18360615</v>
@@ -7741,7 +8005,7 @@
         <v>34</v>
       </c>
       <c r="I79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J79">
         <v>296049</v>
@@ -7753,7 +8017,7 @@
         <v>109593</v>
       </c>
       <c r="M79" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P79" t="s">
         <v>39</v>
@@ -7797,6 +8061,9 @@
       <c r="AD79" t="s">
         <v>43</v>
       </c>
+      <c r="AE79" t="s">
+        <v>279</v>
+      </c>
       <c r="AF79">
         <v>29384715</v>
       </c>
@@ -7809,10 +8076,10 @@
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C80">
         <v>92493399</v>
@@ -7821,10 +8088,10 @@
         <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J80">
         <v>888102</v>
@@ -7836,7 +8103,7 @@
         <v>453672</v>
       </c>
       <c r="M80" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P80" t="s">
         <v>39</v>
@@ -7880,6 +8147,9 @@
       <c r="AD80" t="s">
         <v>43</v>
       </c>
+      <c r="AE80" t="s">
+        <v>267</v>
+      </c>
       <c r="AF80">
         <v>18475639</v>
       </c>
@@ -7892,10 +8162,10 @@
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C81">
         <v>44663401</v>
@@ -7904,10 +8174,10 @@
         <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J81">
         <v>807855</v>
@@ -7919,7 +8189,7 @@
         <v>539632</v>
       </c>
       <c r="M81" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P81" t="s">
         <v>39</v>
@@ -7963,6 +8233,9 @@
       <c r="AD81" t="s">
         <v>43</v>
       </c>
+      <c r="AE81" t="s">
+        <v>268</v>
+      </c>
       <c r="AF81">
         <v>29384726</v>
       </c>
@@ -7975,10 +8248,10 @@
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C82">
         <v>98880367</v>
@@ -7987,10 +8260,10 @@
         <v>32</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J82">
         <v>719496</v>
@@ -8002,7 +8275,7 @@
         <v>168610</v>
       </c>
       <c r="M82" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P82" t="s">
         <v>39</v>
@@ -8046,6 +8319,9 @@
       <c r="AD82" t="s">
         <v>43</v>
       </c>
+      <c r="AE82" t="s">
+        <v>269</v>
+      </c>
       <c r="AF82">
         <v>84736291</v>
       </c>
@@ -8058,10 +8334,10 @@
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C83">
         <v>53883909</v>
@@ -8070,10 +8346,10 @@
         <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I83" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J83">
         <v>661966</v>
@@ -8085,7 +8361,7 @@
         <v>935676</v>
       </c>
       <c r="M83" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P83" t="s">
         <v>39</v>
@@ -8129,6 +8405,9 @@
       <c r="AD83" t="s">
         <v>43</v>
       </c>
+      <c r="AE83" t="s">
+        <v>270</v>
+      </c>
       <c r="AF83">
         <v>93847561</v>
       </c>
@@ -8141,10 +8420,10 @@
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C84">
         <v>55458079</v>
@@ -8156,7 +8435,7 @@
         <v>34</v>
       </c>
       <c r="I84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J84">
         <v>976319</v>
@@ -8168,7 +8447,7 @@
         <v>124998</v>
       </c>
       <c r="M84" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P84" t="s">
         <v>39</v>
@@ -8212,6 +8491,9 @@
       <c r="AD84" t="s">
         <v>43</v>
       </c>
+      <c r="AE84" t="s">
+        <v>271</v>
+      </c>
       <c r="AF84">
         <v>2938475</v>
       </c>
@@ -8224,10 +8506,10 @@
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C85">
         <v>25088206</v>
@@ -8236,10 +8518,10 @@
         <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I85" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J85">
         <v>435455</v>
@@ -8251,7 +8533,7 @@
         <v>956145</v>
       </c>
       <c r="M85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P85" t="s">
         <v>39</v>
@@ -8295,6 +8577,9 @@
       <c r="AD85" t="s">
         <v>43</v>
       </c>
+      <c r="AE85" t="s">
+        <v>272</v>
+      </c>
       <c r="AF85">
         <v>74839201</v>
       </c>
@@ -8307,10 +8592,10 @@
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C86">
         <v>70717628</v>
@@ -8319,10 +8604,10 @@
         <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I86" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J86">
         <v>624931</v>
@@ -8334,7 +8619,7 @@
         <v>339213</v>
       </c>
       <c r="M86" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P86" t="s">
         <v>39</v>
@@ -8378,6 +8663,9 @@
       <c r="AD86" t="s">
         <v>43</v>
       </c>
+      <c r="AE86" t="s">
+        <v>273</v>
+      </c>
       <c r="AF86">
         <v>83649275</v>
       </c>
@@ -8390,10 +8678,10 @@
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C87">
         <v>60398329</v>
@@ -8402,7 +8690,7 @@
         <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I87" t="s">
         <v>37</v>
@@ -8417,7 +8705,7 @@
         <v>542170</v>
       </c>
       <c r="M87" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P87" t="s">
         <v>39</v>
@@ -8461,6 +8749,9 @@
       <c r="AD87" t="s">
         <v>43</v>
       </c>
+      <c r="AE87" t="s">
+        <v>274</v>
+      </c>
       <c r="AF87">
         <v>92736485</v>
       </c>
@@ -8473,10 +8764,10 @@
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C88">
         <v>89814255</v>
@@ -8485,10 +8776,10 @@
         <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I88" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J88">
         <v>468353</v>
@@ -8500,7 +8791,7 @@
         <v>130047</v>
       </c>
       <c r="M88" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P88" t="s">
         <v>39</v>
@@ -8544,6 +8835,9 @@
       <c r="AD88" t="s">
         <v>43</v>
       </c>
+      <c r="AE88" t="s">
+        <v>275</v>
+      </c>
       <c r="AF88">
         <v>12834765</v>
       </c>
@@ -8556,10 +8850,10 @@
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C89">
         <v>96947995</v>
@@ -8571,7 +8865,7 @@
         <v>34</v>
       </c>
       <c r="I89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J89">
         <v>470210</v>
@@ -8583,7 +8877,7 @@
         <v>556062</v>
       </c>
       <c r="M89" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P89" t="s">
         <v>39</v>
@@ -8627,6 +8921,9 @@
       <c r="AD89" t="s">
         <v>43</v>
       </c>
+      <c r="AE89" t="s">
+        <v>276</v>
+      </c>
       <c r="AF89">
         <v>29384710</v>
       </c>
@@ -8639,10 +8936,10 @@
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C90">
         <v>65819883</v>
@@ -8651,10 +8948,10 @@
         <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J90">
         <v>483259</v>
@@ -8666,7 +8963,7 @@
         <v>575065</v>
       </c>
       <c r="M90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P90" t="s">
         <v>39</v>
@@ -8710,6 +9007,9 @@
       <c r="AD90" t="s">
         <v>43</v>
       </c>
+      <c r="AE90" t="s">
+        <v>277</v>
+      </c>
       <c r="AF90">
         <v>84736285</v>
       </c>
@@ -8722,10 +9022,10 @@
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C91">
         <v>53637164</v>
@@ -8734,10 +9034,10 @@
         <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J91">
         <v>328381</v>
@@ -8749,7 +9049,7 @@
         <v>418697</v>
       </c>
       <c r="M91" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P91" t="s">
         <v>39</v>
@@ -8793,6 +9093,9 @@
       <c r="AD91" t="s">
         <v>43</v>
       </c>
+      <c r="AE91" t="s">
+        <v>278</v>
+      </c>
       <c r="AF91">
         <v>12839465</v>
       </c>
@@ -8805,10 +9108,10 @@
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C92">
         <v>20362006</v>
@@ -8817,10 +9120,10 @@
         <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I92" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J92">
         <v>748894</v>
@@ -8832,7 +9135,7 @@
         <v>552312</v>
       </c>
       <c r="M92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P92" t="s">
         <v>39</v>
@@ -8876,6 +9179,9 @@
       <c r="AD92" t="s">
         <v>43</v>
       </c>
+      <c r="AE92" t="s">
+        <v>279</v>
+      </c>
       <c r="AF92">
         <v>29384756</v>
       </c>
@@ -8888,10 +9194,10 @@
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C93">
         <v>80818244</v>
@@ -8900,10 +9206,10 @@
         <v>32</v>
       </c>
       <c r="F93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J93">
         <v>870845</v>
@@ -8915,7 +9221,7 @@
         <v>196567</v>
       </c>
       <c r="M93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P93" t="s">
         <v>39</v>
@@ -8959,6 +9265,9 @@
       <c r="AD93" t="s">
         <v>43</v>
       </c>
+      <c r="AE93" t="s">
+        <v>267</v>
+      </c>
       <c r="AF93">
         <v>39475620</v>
       </c>
@@ -8971,10 +9280,10 @@
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C94">
         <v>11329553</v>
@@ -8986,7 +9295,7 @@
         <v>34</v>
       </c>
       <c r="I94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J94">
         <v>557470</v>
@@ -8998,7 +9307,7 @@
         <v>712462</v>
       </c>
       <c r="M94" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P94" t="s">
         <v>39</v>
@@ -9042,6 +9351,9 @@
       <c r="AD94" t="s">
         <v>43</v>
       </c>
+      <c r="AE94" t="s">
+        <v>268</v>
+      </c>
       <c r="AF94">
         <v>83746290</v>
       </c>
@@ -9054,10 +9366,10 @@
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C95">
         <v>50398972</v>
@@ -9066,10 +9378,10 @@
         <v>32</v>
       </c>
       <c r="F95" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J95">
         <v>744604</v>
@@ -9081,7 +9393,7 @@
         <v>688262</v>
       </c>
       <c r="M95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P95" t="s">
         <v>39</v>
@@ -9125,6 +9437,9 @@
       <c r="AD95" t="s">
         <v>43</v>
       </c>
+      <c r="AE95" t="s">
+        <v>269</v>
+      </c>
       <c r="AF95">
         <v>12039487</v>
       </c>
@@ -9137,10 +9452,10 @@
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C96">
         <v>89404472</v>
@@ -9149,10 +9464,10 @@
         <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J96">
         <v>932245</v>
@@ -9164,7 +9479,7 @@
         <v>978611</v>
       </c>
       <c r="M96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P96" t="s">
         <v>39</v>
@@ -9208,6 +9523,9 @@
       <c r="AD96" t="s">
         <v>43</v>
       </c>
+      <c r="AE96" t="s">
+        <v>270</v>
+      </c>
       <c r="AF96">
         <v>84756392</v>
       </c>
@@ -9220,10 +9538,10 @@
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C97">
         <v>58570557</v>
@@ -9232,7 +9550,7 @@
         <v>32</v>
       </c>
       <c r="F97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I97" t="s">
         <v>37</v>
@@ -9247,7 +9565,7 @@
         <v>586576</v>
       </c>
       <c r="M97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P97" t="s">
         <v>39</v>
@@ -9291,6 +9609,9 @@
       <c r="AD97" t="s">
         <v>43</v>
       </c>
+      <c r="AE97" t="s">
+        <v>271</v>
+      </c>
       <c r="AF97">
         <v>28394765</v>
       </c>
@@ -9303,10 +9624,10 @@
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C98">
         <v>20096535</v>
@@ -9315,10 +9636,10 @@
         <v>32</v>
       </c>
       <c r="F98" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J98">
         <v>253757</v>
@@ -9330,7 +9651,7 @@
         <v>907179</v>
       </c>
       <c r="M98" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P98" t="s">
         <v>39</v>
@@ -9374,6 +9695,9 @@
       <c r="AD98" t="s">
         <v>43</v>
       </c>
+      <c r="AE98" t="s">
+        <v>272</v>
+      </c>
       <c r="AF98">
         <v>93847562</v>
       </c>
@@ -9386,10 +9710,10 @@
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C99">
         <v>61854112</v>
@@ -9401,7 +9725,7 @@
         <v>34</v>
       </c>
       <c r="I99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J99">
         <v>666304</v>
@@ -9413,7 +9737,7 @@
         <v>146926</v>
       </c>
       <c r="M99" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P99" t="s">
         <v>39</v>
@@ -9457,6 +9781,9 @@
       <c r="AD99" t="s">
         <v>43</v>
       </c>
+      <c r="AE99" t="s">
+        <v>273</v>
+      </c>
       <c r="AF99">
         <v>29384716</v>
       </c>
@@ -9469,10 +9796,10 @@
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C100">
         <v>29772599</v>
@@ -9481,10 +9808,10 @@
         <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J100">
         <v>785957</v>
@@ -9496,7 +9823,7 @@
         <v>564310</v>
       </c>
       <c r="M100" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P100" t="s">
         <v>39</v>
@@ -9540,6 +9867,9 @@
       <c r="AD100" t="s">
         <v>43</v>
       </c>
+      <c r="AE100" t="s">
+        <v>274</v>
+      </c>
       <c r="AF100">
         <v>83746529</v>
       </c>
@@ -9552,10 +9882,10 @@
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B101" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C101">
         <v>95411907</v>
@@ -9564,10 +9894,10 @@
         <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J101">
         <v>899244</v>
@@ -9579,7 +9909,7 @@
         <v>827355</v>
       </c>
       <c r="M101" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P101" t="s">
         <v>39</v>
@@ -9623,6 +9953,9 @@
       <c r="AD101" t="s">
         <v>43</v>
       </c>
+      <c r="AE101" t="s">
+        <v>275</v>
+      </c>
       <c r="AF101">
         <v>19483765</v>
       </c>
@@ -9635,10 +9968,10 @@
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C102">
         <v>26730847</v>
@@ -9647,10 +9980,10 @@
         <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J102">
         <v>533598</v>
@@ -9662,7 +9995,7 @@
         <v>376548</v>
       </c>
       <c r="M102" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P102" t="s">
         <v>39</v>
@@ -9705,6 +10038,9 @@
       </c>
       <c r="AD102" t="s">
         <v>43</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>276</v>
       </c>
       <c r="AF102">
         <v>28475639</v>

--- a/Backend/data/Datos_Dummy_Vehiculos.xlsx
+++ b/Backend/data/Datos_Dummy_Vehiculos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\Desktop\ProyectoConsultasEnLinea\Backend\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\ProyectoConsultasEnLinea\Backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42A21F9-5C27-43A3-A3B9-633F39D23547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652FF323-51EB-4650-9C21-B0161B27A02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t xml:space="preserve">Puertas </t>
   </si>
   <si>
-    <t>Peso Bruto Vehocular</t>
-  </si>
-  <si>
     <t>Capacidad Pasajeros Sentados</t>
   </si>
   <si>
@@ -865,6 +862,9 @@
   </si>
   <si>
     <t>ZURICH COLOMBIA SEGUROS S.A.</t>
+  </si>
+  <si>
+    <t>Peso Bruto Vehicular</t>
   </si>
 </sst>
 </file>
@@ -1203,48 +1203,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB91" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AE104" sqref="AE104"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="37.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="28" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="56.7265625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.26953125" customWidth="1"/>
-    <col min="33" max="33" width="45.26953125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.28515625" customWidth="1"/>
+    <col min="33" max="33" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1315,66 +1315,66 @@
         <v>22</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2">
         <v>1234567890</v>
       </c>
       <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
       </c>
       <c r="J2">
         <v>123456</v>
@@ -1386,34 +1386,34 @@
         <v>123456</v>
       </c>
       <c r="M2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N2">
         <v>1500</v>
       </c>
       <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
         <v>38</v>
-      </c>
-      <c r="P2" t="s">
-        <v>39</v>
       </c>
       <c r="Q2" s="1">
         <v>45292</v>
       </c>
       <c r="R2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W2">
         <v>5</v>
@@ -1437,39 +1437,39 @@
         <v>45657</v>
       </c>
       <c r="AD2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF2">
         <v>12345678</v>
       </c>
       <c r="AG2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3">
         <v>1008539057</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J3">
         <v>284340</v>
@@ -1481,28 +1481,28 @@
         <v>137589</v>
       </c>
       <c r="M3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="1">
         <v>45447</v>
       </c>
       <c r="R3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W3">
         <v>4</v>
@@ -1523,39 +1523,39 @@
         <v>45659</v>
       </c>
       <c r="AD3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF3">
         <v>87654321</v>
       </c>
       <c r="AG3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4">
         <v>1017782308</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J4">
         <v>279760</v>
@@ -1567,28 +1567,28 @@
         <v>126531</v>
       </c>
       <c r="M4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="1">
         <v>42197</v>
       </c>
       <c r="R4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W4">
         <v>4</v>
@@ -1609,39 +1609,39 @@
         <v>45663</v>
       </c>
       <c r="AD4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF4">
         <v>23456789</v>
       </c>
       <c r="AG4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5">
         <v>1009027789</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J5">
         <v>221833</v>
@@ -1653,28 +1653,28 @@
         <v>622144</v>
       </c>
       <c r="M5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="1">
         <v>42697</v>
       </c>
       <c r="R5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W5">
         <v>4</v>
@@ -1695,39 +1695,39 @@
         <v>45668</v>
       </c>
       <c r="AD5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF5">
         <v>98765432</v>
       </c>
       <c r="AG5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6">
         <v>1003947845</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J6">
         <v>139195</v>
@@ -1739,28 +1739,28 @@
         <v>991194</v>
       </c>
       <c r="M6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="1">
         <v>42739</v>
       </c>
       <c r="R6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W6">
         <v>4</v>
@@ -1781,39 +1781,39 @@
         <v>45672</v>
       </c>
       <c r="AD6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF6">
         <v>34567890</v>
       </c>
       <c r="AG6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7">
         <v>1005338700</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7">
         <v>319219</v>
@@ -1825,28 +1825,28 @@
         <v>904392</v>
       </c>
       <c r="M7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="1">
         <v>43239</v>
       </c>
       <c r="R7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W7">
         <v>4</v>
@@ -1867,39 +1867,39 @@
         <v>45677</v>
       </c>
       <c r="AD7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF7">
         <v>65432109</v>
       </c>
       <c r="AG7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8">
         <v>1002302378</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J8">
         <v>654068</v>
@@ -1911,28 +1911,28 @@
         <v>834704</v>
       </c>
       <c r="M8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="1">
         <v>43716</v>
       </c>
       <c r="R8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W8">
         <v>4</v>
@@ -1953,39 +1953,39 @@
         <v>45684</v>
       </c>
       <c r="AD8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF8">
         <v>45678901</v>
       </c>
       <c r="AG8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9">
         <v>1005722316</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J9">
         <v>478450</v>
@@ -1997,28 +1997,28 @@
         <v>639564</v>
       </c>
       <c r="M9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="1">
         <v>43874</v>
       </c>
       <c r="R9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W9">
         <v>4</v>
@@ -2039,39 +2039,39 @@
         <v>45691</v>
       </c>
       <c r="AD9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF9">
         <v>76543210</v>
       </c>
       <c r="AG9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10">
         <v>1009003874</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J10">
         <v>178375</v>
@@ -2083,28 +2083,28 @@
         <v>759371</v>
       </c>
       <c r="M10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="1">
         <v>44372</v>
       </c>
       <c r="R10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W10">
         <v>4</v>
@@ -2125,39 +2125,39 @@
         <v>45696</v>
       </c>
       <c r="AD10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF10">
         <v>56789012</v>
       </c>
       <c r="AG10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11">
         <v>1012746554</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J11">
         <v>467315</v>
@@ -2169,28 +2169,28 @@
         <v>780470</v>
       </c>
       <c r="M11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="1">
         <v>44835</v>
       </c>
       <c r="R11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W11">
         <v>4</v>
@@ -2211,39 +2211,39 @@
         <v>45702</v>
       </c>
       <c r="AD11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF11">
         <v>87654320</v>
       </c>
       <c r="AG11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12">
         <v>1012627461</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J12">
         <v>126797</v>
@@ -2255,28 +2255,28 @@
         <v>431076</v>
       </c>
       <c r="M12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="1">
         <v>45275</v>
       </c>
       <c r="R12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W12">
         <v>4</v>
@@ -2297,39 +2297,39 @@
         <v>45709</v>
       </c>
       <c r="AD12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF12">
         <v>67890123</v>
       </c>
       <c r="AG12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13">
         <v>1015149761</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J13">
         <v>298010</v>
@@ -2341,28 +2341,28 @@
         <v>868362</v>
       </c>
       <c r="M13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="1">
         <v>41757</v>
       </c>
       <c r="R13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W13">
         <v>4</v>
@@ -2383,39 +2383,39 @@
         <v>45716</v>
       </c>
       <c r="AD13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF13">
         <v>98765430</v>
       </c>
       <c r="AG13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14">
         <v>1002271511</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J14">
         <v>562940</v>
@@ -2427,28 +2427,28 @@
         <v>460913</v>
       </c>
       <c r="M14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="1">
         <v>42223</v>
       </c>
       <c r="R14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W14">
         <v>4</v>
@@ -2469,39 +2469,39 @@
         <v>45721</v>
       </c>
       <c r="AD14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF14">
         <v>78901234</v>
       </c>
       <c r="AG14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15">
         <v>1014717513</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J15">
         <v>821744</v>
@@ -2513,28 +2513,28 @@
         <v>157671</v>
       </c>
       <c r="M15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="1">
         <v>42722</v>
       </c>
       <c r="R15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W15">
         <v>4</v>
@@ -2555,39 +2555,39 @@
         <v>45728</v>
       </c>
       <c r="AD15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF15">
         <v>10987654</v>
       </c>
       <c r="AG15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C16">
         <v>1010254677</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J16">
         <v>524391</v>
@@ -2599,28 +2599,28 @@
         <v>937925</v>
       </c>
       <c r="M16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="1">
         <v>42796</v>
       </c>
       <c r="R16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W16">
         <v>4</v>
@@ -2641,39 +2641,39 @@
         <v>45733</v>
       </c>
       <c r="AD16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF16">
         <v>89012345</v>
       </c>
       <c r="AG16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C17">
         <v>1015545705</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J17">
         <v>705298</v>
@@ -2685,28 +2685,28 @@
         <v>165921</v>
       </c>
       <c r="M17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="1">
         <v>43303</v>
       </c>
       <c r="R17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W17">
         <v>4</v>
@@ -2727,39 +2727,39 @@
         <v>45739</v>
       </c>
       <c r="AD17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF17">
         <v>21098765</v>
       </c>
       <c r="AG17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C18">
         <v>1000020345</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J18">
         <v>276483</v>
@@ -2771,28 +2771,28 @@
         <v>807143</v>
       </c>
       <c r="M18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="1">
         <v>43774</v>
       </c>
       <c r="R18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W18">
         <v>4</v>
@@ -2813,39 +2813,39 @@
         <v>45745</v>
       </c>
       <c r="AD18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF18">
         <v>90123456</v>
       </c>
       <c r="AG18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C19">
         <v>1010841130</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J19">
         <v>623266</v>
@@ -2857,28 +2857,28 @@
         <v>298867</v>
       </c>
       <c r="M19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="1">
         <v>43857</v>
       </c>
       <c r="R19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W19">
         <v>4</v>
@@ -2899,39 +2899,39 @@
         <v>45751</v>
       </c>
       <c r="AD19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF19">
         <v>32109876</v>
       </c>
       <c r="AG19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C20">
         <v>1011282220</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J20">
         <v>528138</v>
@@ -2943,28 +2943,28 @@
         <v>914284</v>
       </c>
       <c r="M20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="1">
         <v>44380</v>
       </c>
       <c r="R20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W20">
         <v>4</v>
@@ -2985,39 +2985,39 @@
         <v>45757</v>
       </c>
       <c r="AD20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF20">
         <v>12345679</v>
       </c>
       <c r="AG20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21">
         <v>1007211174</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J21">
         <v>617125</v>
@@ -3029,28 +3029,28 @@
         <v>732516</v>
       </c>
       <c r="M21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="1">
         <v>44874</v>
       </c>
       <c r="R21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W21">
         <v>4</v>
@@ -3071,39 +3071,39 @@
         <v>45763</v>
       </c>
       <c r="AD21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF21">
         <v>43210987</v>
       </c>
       <c r="AG21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22">
         <v>1008301114</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J22">
         <v>389919</v>
@@ -3115,28 +3115,28 @@
         <v>235354</v>
       </c>
       <c r="M22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="1">
         <v>44971</v>
       </c>
       <c r="R22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W22">
         <v>4</v>
@@ -3157,39 +3157,39 @@
         <v>45769</v>
       </c>
       <c r="AD22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF22">
         <v>23456780</v>
       </c>
       <c r="AG22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23">
         <v>1004556594</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J23">
         <v>764269</v>
@@ -3201,28 +3201,28 @@
         <v>983505</v>
       </c>
       <c r="M23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="1">
         <v>41719</v>
       </c>
       <c r="R23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W23">
         <v>4</v>
@@ -3243,39 +3243,39 @@
         <v>45774</v>
       </c>
       <c r="AD23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF23">
         <v>54321098</v>
       </c>
       <c r="AG23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C24">
         <v>1017497543</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J24">
         <v>950707</v>
@@ -3287,28 +3287,28 @@
         <v>540246</v>
       </c>
       <c r="M24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="1">
         <v>42201</v>
       </c>
       <c r="R24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W24">
         <v>4</v>
@@ -3329,39 +3329,39 @@
         <v>45780</v>
       </c>
       <c r="AD24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF24">
         <v>34567891</v>
       </c>
       <c r="AG24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C25">
         <v>1015381046</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J25">
         <v>208394</v>
@@ -3373,28 +3373,28 @@
         <v>669811</v>
       </c>
       <c r="M25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="1">
         <v>42653</v>
       </c>
       <c r="R25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W25">
         <v>4</v>
@@ -3415,39 +3415,39 @@
         <v>45786</v>
       </c>
       <c r="AD25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF25">
         <v>65432109</v>
       </c>
       <c r="AG25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26">
         <v>1005222893</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J26">
         <v>337319</v>
@@ -3459,28 +3459,28 @@
         <v>658136</v>
       </c>
       <c r="M26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="1">
         <v>42769</v>
       </c>
       <c r="R26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W26">
         <v>4</v>
@@ -3501,39 +3501,39 @@
         <v>45792</v>
       </c>
       <c r="AD26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF26">
         <v>45678902</v>
       </c>
       <c r="AG26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27">
         <v>1017165382</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J27">
         <v>977713</v>
@@ -3545,28 +3545,28 @@
         <v>499011</v>
       </c>
       <c r="M27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="1">
         <v>43271</v>
       </c>
       <c r="R27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W27">
         <v>4</v>
@@ -3587,39 +3587,39 @@
         <v>45798</v>
       </c>
       <c r="AD27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF27">
         <v>76543211</v>
       </c>
       <c r="AG27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28">
         <v>1001542776</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J28">
         <v>960230</v>
@@ -3631,28 +3631,28 @@
         <v>323266</v>
       </c>
       <c r="M28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="1">
         <v>43734</v>
       </c>
       <c r="R28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W28">
         <v>4</v>
@@ -3673,39 +3673,39 @@
         <v>45803</v>
       </c>
       <c r="AD28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF28">
         <v>56789023</v>
       </c>
       <c r="AG28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29">
         <v>1002712568</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J29">
         <v>244571</v>
@@ -3717,28 +3717,28 @@
         <v>289675</v>
       </c>
       <c r="M29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="1">
         <v>43841</v>
       </c>
       <c r="R29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W29">
         <v>4</v>
@@ -3759,39 +3759,39 @@
         <v>45810</v>
       </c>
       <c r="AD29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF29">
         <v>87654321</v>
       </c>
       <c r="AG29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C30">
         <v>1017442593</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J30">
         <v>868482</v>
@@ -3803,28 +3803,28 @@
         <v>211183</v>
       </c>
       <c r="M30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="1">
         <v>44345</v>
       </c>
       <c r="R30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W30">
         <v>4</v>
@@ -3845,39 +3845,39 @@
         <v>45817</v>
       </c>
       <c r="AD30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF30">
         <v>67890124</v>
       </c>
       <c r="AG30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C31">
         <v>1005055948</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J31">
         <v>152428</v>
@@ -3889,28 +3889,28 @@
         <v>143391</v>
       </c>
       <c r="M31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="1">
         <v>44899</v>
       </c>
       <c r="R31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W31">
         <v>4</v>
@@ -3931,39 +3931,39 @@
         <v>45823</v>
       </c>
       <c r="AD31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF31">
         <v>98765432</v>
       </c>
       <c r="AG31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C32">
         <v>1013489497</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J32">
         <v>370162</v>
@@ -3975,28 +3975,28 @@
         <v>544501</v>
       </c>
       <c r="M32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="1">
         <v>45023</v>
       </c>
       <c r="R32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W32">
         <v>4</v>
@@ -4017,39 +4017,39 @@
         <v>45829</v>
       </c>
       <c r="AD32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF32">
         <v>78901235</v>
       </c>
       <c r="AG32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C33">
         <v>1011062861</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J33">
         <v>545671</v>
@@ -4061,28 +4061,28 @@
         <v>928437</v>
       </c>
       <c r="M33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="1">
         <v>41789</v>
       </c>
       <c r="R33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W33">
         <v>4</v>
@@ -4103,39 +4103,39 @@
         <v>45835</v>
       </c>
       <c r="AD33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF33">
         <v>10987653</v>
       </c>
       <c r="AG33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C34">
         <v>1016083545</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J34">
         <v>338268</v>
@@ -4147,28 +4147,28 @@
         <v>814726</v>
       </c>
       <c r="M34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="1">
         <v>42286</v>
       </c>
       <c r="R34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W34">
         <v>4</v>
@@ -4189,39 +4189,39 @@
         <v>45840</v>
       </c>
       <c r="AD34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF34">
         <v>89012346</v>
       </c>
       <c r="AG34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C35">
         <v>1010909211</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J35">
         <v>642280</v>
@@ -4233,28 +4233,28 @@
         <v>620327</v>
       </c>
       <c r="M35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="1">
         <v>42604</v>
       </c>
       <c r="R35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W35">
         <v>4</v>
@@ -4275,39 +4275,39 @@
         <v>45846</v>
       </c>
       <c r="AD35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF35">
         <v>21098764</v>
       </c>
       <c r="AG35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C36">
         <v>1018941126</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J36">
         <v>139973</v>
@@ -4319,28 +4319,28 @@
         <v>531986</v>
       </c>
       <c r="M36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q36" s="1">
         <v>42831</v>
       </c>
       <c r="R36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W36">
         <v>4</v>
@@ -4361,39 +4361,39 @@
         <v>45851</v>
       </c>
       <c r="AD36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF36">
         <v>90123457</v>
       </c>
       <c r="AG36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C37">
         <v>1017793906</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J37">
         <v>442384</v>
@@ -4405,28 +4405,28 @@
         <v>549585</v>
       </c>
       <c r="M37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q37" s="1">
         <v>43354</v>
       </c>
       <c r="R37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W37">
         <v>4</v>
@@ -4447,39 +4447,39 @@
         <v>45858</v>
       </c>
       <c r="AD37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF37">
         <v>32109875</v>
       </c>
       <c r="AG37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C38">
         <v>1000557965</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J38">
         <v>731612</v>
@@ -4491,28 +4491,28 @@
         <v>240236</v>
       </c>
       <c r="M38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q38" s="1">
         <v>43820</v>
       </c>
       <c r="R38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W38">
         <v>4</v>
@@ -4533,39 +4533,39 @@
         <v>45863</v>
       </c>
       <c r="AD38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF38">
         <v>12345670</v>
       </c>
       <c r="AG38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C39">
         <v>1004046977</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J39">
         <v>975179</v>
@@ -4577,28 +4577,28 @@
         <v>807684</v>
       </c>
       <c r="M39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="1">
         <v>43909</v>
       </c>
       <c r="R39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W39">
         <v>4</v>
@@ -4619,39 +4619,39 @@
         <v>45870</v>
       </c>
       <c r="AD39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF39">
         <v>43210986</v>
       </c>
       <c r="AG39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40">
         <v>1007705974</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J40">
         <v>699912</v>
@@ -4663,28 +4663,28 @@
         <v>717709</v>
       </c>
       <c r="M40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q40" s="1">
         <v>44423</v>
       </c>
       <c r="R40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W40">
         <v>4</v>
@@ -4705,39 +4705,39 @@
         <v>45875</v>
       </c>
       <c r="AD40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF40">
         <v>23456781</v>
       </c>
       <c r="AG40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C41">
         <v>1018270390</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J41">
         <v>833028</v>
@@ -4749,28 +4749,28 @@
         <v>667004</v>
       </c>
       <c r="M41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q41" s="1">
         <v>44817</v>
       </c>
       <c r="R41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W41">
         <v>4</v>
@@ -4791,39 +4791,39 @@
         <v>45881</v>
       </c>
       <c r="AD41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF41">
         <v>54321097</v>
       </c>
       <c r="AG41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C42">
         <v>1015005637</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J42">
         <v>337802</v>
@@ -4835,28 +4835,28 @@
         <v>496275</v>
       </c>
       <c r="M42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q42" s="1">
         <v>44987</v>
       </c>
       <c r="R42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W42">
         <v>4</v>
@@ -4877,39 +4877,39 @@
         <v>45888</v>
       </c>
       <c r="AD42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF42">
         <v>34567892</v>
       </c>
       <c r="AG42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C43">
         <v>1002147957</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J43">
         <v>851125</v>
@@ -4921,28 +4921,28 @@
         <v>643700</v>
       </c>
       <c r="M43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q43" s="1">
         <v>41754</v>
       </c>
       <c r="R43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W43">
         <v>4</v>
@@ -4963,39 +4963,39 @@
         <v>45894</v>
       </c>
       <c r="AD43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF43">
         <v>65432108</v>
       </c>
       <c r="AG43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C44">
         <v>1002135797</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J44">
         <v>487226</v>
@@ -5007,28 +5007,28 @@
         <v>534985</v>
       </c>
       <c r="M44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q44" s="1">
         <v>42185</v>
       </c>
       <c r="R44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W44">
         <v>4</v>
@@ -5049,39 +5049,39 @@
         <v>45901</v>
       </c>
       <c r="AD44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF44">
         <v>45678903</v>
       </c>
       <c r="AG44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C45">
         <v>1001796243</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J45">
         <v>963845</v>
@@ -5093,28 +5093,28 @@
         <v>193486</v>
       </c>
       <c r="M45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q45" s="1">
         <v>42507</v>
       </c>
       <c r="R45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W45">
         <v>4</v>
@@ -5135,39 +5135,39 @@
         <v>45907</v>
       </c>
       <c r="AD45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF45">
         <v>76543212</v>
       </c>
       <c r="AG45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C46">
         <v>1010982498</v>
       </c>
       <c r="D46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J46">
         <v>516953</v>
@@ -5179,28 +5179,28 @@
         <v>896584</v>
       </c>
       <c r="M46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q46" s="1">
         <v>43074</v>
       </c>
       <c r="R46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W46">
         <v>4</v>
@@ -5221,39 +5221,39 @@
         <v>45914</v>
       </c>
       <c r="AD46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF46">
         <v>56789034</v>
       </c>
       <c r="AG46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C47">
         <v>1016057313</v>
       </c>
       <c r="D47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J47">
         <v>141908</v>
@@ -5265,28 +5265,28 @@
         <v>398997</v>
       </c>
       <c r="M47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q47" s="1">
         <v>43383</v>
       </c>
       <c r="R47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W47">
         <v>4</v>
@@ -5307,39 +5307,39 @@
         <v>45920</v>
       </c>
       <c r="AD47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF47">
         <v>87654322</v>
       </c>
       <c r="AG47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C48">
         <v>1018567675</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J48">
         <v>126522</v>
@@ -5351,28 +5351,28 @@
         <v>213016</v>
       </c>
       <c r="M48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q48" s="1">
         <v>43797</v>
       </c>
       <c r="R48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W48">
         <v>4</v>
@@ -5393,39 +5393,39 @@
         <v>45926</v>
       </c>
       <c r="AD48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE48" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF48">
         <v>67890125</v>
       </c>
       <c r="AG48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C49">
         <v>1012086140</v>
       </c>
       <c r="D49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J49">
         <v>287681</v>
@@ -5437,28 +5437,28 @@
         <v>366146</v>
       </c>
       <c r="M49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q49" s="1">
         <v>43935</v>
       </c>
       <c r="R49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W49">
         <v>4</v>
@@ -5479,39 +5479,39 @@
         <v>45931</v>
       </c>
       <c r="AD49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF49">
         <v>98765433</v>
       </c>
       <c r="AG49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C50">
         <v>1009382172</v>
       </c>
       <c r="D50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J50">
         <v>257985</v>
@@ -5523,28 +5523,28 @@
         <v>968614</v>
       </c>
       <c r="M50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q50" s="1">
         <v>44488</v>
       </c>
       <c r="R50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W50">
         <v>4</v>
@@ -5565,39 +5565,39 @@
         <v>45936</v>
       </c>
       <c r="AD50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF50">
         <v>78901236</v>
       </c>
       <c r="AG50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C51">
         <v>1000865260</v>
       </c>
       <c r="D51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J51">
         <v>584029</v>
@@ -5609,28 +5609,28 @@
         <v>320338</v>
       </c>
       <c r="M51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q51" s="1">
         <v>44922</v>
       </c>
       <c r="R51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W51">
         <v>4</v>
@@ -5651,39 +5651,39 @@
         <v>45942</v>
       </c>
       <c r="AD51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF51">
         <v>10987652</v>
       </c>
       <c r="AG51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C52">
         <v>1006472513</v>
       </c>
       <c r="D52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J52">
         <v>699515</v>
@@ -5695,28 +5695,28 @@
         <v>477711</v>
       </c>
       <c r="M52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q52" s="1">
         <v>45047</v>
       </c>
       <c r="R52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W52">
         <v>4</v>
@@ -5737,39 +5737,39 @@
         <v>45948</v>
       </c>
       <c r="AD52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF52">
         <v>89012347</v>
       </c>
       <c r="AG52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C53">
         <v>66839515</v>
       </c>
       <c r="D53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J53">
         <v>798181</v>
@@ -5781,28 +5781,28 @@
         <v>730422</v>
       </c>
       <c r="M53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q53" s="1">
         <v>41649</v>
       </c>
       <c r="R53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W53">
         <v>4</v>
@@ -5823,39 +5823,39 @@
         <v>45660</v>
       </c>
       <c r="AD53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF53">
         <v>10293847</v>
       </c>
       <c r="AG53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH53" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C54">
         <v>65709145</v>
       </c>
       <c r="D54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J54">
         <v>190033</v>
@@ -5867,28 +5867,28 @@
         <v>991517</v>
       </c>
       <c r="M54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q54" s="1">
         <v>42116</v>
       </c>
       <c r="R54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W54">
         <v>4</v>
@@ -5909,39 +5909,39 @@
         <v>45666</v>
       </c>
       <c r="AD54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF54">
         <v>56473829</v>
       </c>
       <c r="AG54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH54" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C55">
         <v>12829465</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J55">
         <v>473172</v>
@@ -5953,28 +5953,28 @@
         <v>753426</v>
       </c>
       <c r="M55" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q55" s="1">
         <v>42643</v>
       </c>
       <c r="R55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W55">
         <v>4</v>
@@ -5995,39 +5995,39 @@
         <v>45670</v>
       </c>
       <c r="AD55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE55" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF55">
         <v>20394857</v>
       </c>
       <c r="AG55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C56">
         <v>62486476</v>
       </c>
       <c r="D56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J56">
         <v>975078</v>
@@ -6039,28 +6039,28 @@
         <v>995419</v>
       </c>
       <c r="M56" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q56" s="1">
         <v>43053</v>
       </c>
       <c r="R56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W56">
         <v>4</v>
@@ -6081,39 +6081,39 @@
         <v>45674</v>
       </c>
       <c r="AD56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF56">
         <v>47583920</v>
       </c>
       <c r="AG56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH56" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C57">
         <v>27250029</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J57">
         <v>677507</v>
@@ -6125,28 +6125,28 @@
         <v>905546</v>
       </c>
       <c r="M57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q57" s="1">
         <v>43167</v>
       </c>
       <c r="R57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W57">
         <v>4</v>
@@ -6167,39 +6167,39 @@
         <v>45682</v>
       </c>
       <c r="AD57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF57">
         <v>38475629</v>
       </c>
       <c r="AG57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH57" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C58">
         <v>68293254</v>
       </c>
       <c r="D58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J58">
         <v>397323</v>
@@ -6211,28 +6211,28 @@
         <v>296921</v>
       </c>
       <c r="M58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q58" s="1">
         <v>43664</v>
       </c>
       <c r="R58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W58">
         <v>4</v>
@@ -6253,39 +6253,39 @@
         <v>45689</v>
       </c>
       <c r="AD58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE58" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF58">
         <v>19283746</v>
       </c>
       <c r="AG58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH58" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C59">
         <v>82382981</v>
       </c>
       <c r="D59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J59">
         <v>461173</v>
@@ -6297,28 +6297,28 @@
         <v>455891</v>
       </c>
       <c r="M59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q59" s="1">
         <v>44106</v>
       </c>
       <c r="R59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W59">
         <v>4</v>
@@ -6339,39 +6339,39 @@
         <v>45693</v>
       </c>
       <c r="AD59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE59" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF59">
         <v>50627384</v>
       </c>
       <c r="AG59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH59" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60">
         <v>20915838</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J60">
         <v>654878</v>
@@ -6383,28 +6383,28 @@
         <v>469335</v>
       </c>
       <c r="M60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q60" s="1">
         <v>44331</v>
       </c>
       <c r="R60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W60">
         <v>4</v>
@@ -6425,39 +6425,39 @@
         <v>45700</v>
       </c>
       <c r="AD60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE60" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF60">
         <v>28374659</v>
       </c>
       <c r="AG60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH60" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C61">
         <v>10970735</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J61">
         <v>955108</v>
@@ -6469,28 +6469,28 @@
         <v>192884</v>
       </c>
       <c r="M61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q61" s="1">
         <v>44780</v>
       </c>
       <c r="R61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W61">
         <v>4</v>
@@ -6511,39 +6511,39 @@
         <v>45707</v>
       </c>
       <c r="AD61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE61" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF61">
         <v>91728364</v>
       </c>
       <c r="AG61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH61" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C62">
         <v>92676860</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J62">
         <v>997895</v>
@@ -6555,28 +6555,28 @@
         <v>173466</v>
       </c>
       <c r="M62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q62" s="1">
         <v>44945</v>
       </c>
       <c r="R62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W62">
         <v>4</v>
@@ -6597,39 +6597,39 @@
         <v>45714</v>
       </c>
       <c r="AD62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF62">
         <v>62738459</v>
       </c>
       <c r="AG62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH62" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C63">
         <v>68091019</v>
       </c>
       <c r="D63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J63">
         <v>137381</v>
@@ -6641,28 +6641,28 @@
         <v>556943</v>
       </c>
       <c r="M63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q63" s="1">
         <v>41802</v>
       </c>
       <c r="R63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W63">
         <v>4</v>
@@ -6683,39 +6683,39 @@
         <v>45720</v>
       </c>
       <c r="AD63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE63" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF63">
         <v>71829364</v>
       </c>
       <c r="AG63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH63" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C64">
         <v>71613400</v>
       </c>
       <c r="D64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J64">
         <v>630358</v>
@@ -6727,28 +6727,28 @@
         <v>259185</v>
       </c>
       <c r="M64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q64" s="1">
         <v>42271</v>
       </c>
       <c r="R64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W64">
         <v>4</v>
@@ -6769,39 +6769,39 @@
         <v>45726</v>
       </c>
       <c r="AD64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF64">
         <v>92038475</v>
       </c>
       <c r="AG64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH64" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C65">
         <v>27170267</v>
       </c>
       <c r="D65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J65">
         <v>288451</v>
@@ -6813,28 +6813,28 @@
         <v>605554</v>
       </c>
       <c r="M65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q65" s="1">
         <v>42708</v>
       </c>
       <c r="R65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W65">
         <v>4</v>
@@ -6855,39 +6855,39 @@
         <v>45731</v>
       </c>
       <c r="AD65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE65" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF65">
         <v>38475620</v>
       </c>
       <c r="AG65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH65" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C66">
         <v>60888119</v>
       </c>
       <c r="D66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J66">
         <v>526661</v>
@@ -6899,28 +6899,28 @@
         <v>584617</v>
       </c>
       <c r="M66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q66" s="1">
         <v>42803</v>
       </c>
       <c r="R66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W66">
         <v>4</v>
@@ -6941,39 +6941,39 @@
         <v>45737</v>
       </c>
       <c r="AD66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE66" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF66">
         <v>49586730</v>
       </c>
       <c r="AG66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH66" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67">
         <v>33551625</v>
       </c>
       <c r="D67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J67">
         <v>686483</v>
@@ -6985,28 +6985,28 @@
         <v>722822</v>
       </c>
       <c r="M67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q67" s="1">
         <v>43279</v>
       </c>
       <c r="R67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W67">
         <v>4</v>
@@ -7027,39 +7027,39 @@
         <v>45743</v>
       </c>
       <c r="AD67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF67">
         <v>50617294</v>
       </c>
       <c r="AG67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH67" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C68">
         <v>94636343</v>
       </c>
       <c r="D68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J68">
         <v>958136</v>
@@ -7071,28 +7071,28 @@
         <v>234661</v>
       </c>
       <c r="M68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q68" s="1">
         <v>43725</v>
       </c>
       <c r="R68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W68">
         <v>4</v>
@@ -7113,39 +7113,39 @@
         <v>45748</v>
       </c>
       <c r="AD68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE68" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF68">
         <v>71629380</v>
       </c>
       <c r="AG68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH68" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C69">
         <v>32041138</v>
       </c>
       <c r="D69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J69">
         <v>205570</v>
@@ -7157,28 +7157,28 @@
         <v>362978</v>
       </c>
       <c r="M69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q69" s="1">
         <v>43859</v>
       </c>
       <c r="R69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W69">
         <v>4</v>
@@ -7199,39 +7199,39 @@
         <v>45753</v>
       </c>
       <c r="AD69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE69" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF69">
         <v>29384756</v>
       </c>
       <c r="AG69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH69" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C70">
         <v>11721029</v>
       </c>
       <c r="D70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J70">
         <v>473060</v>
@@ -7243,28 +7243,28 @@
         <v>205267</v>
       </c>
       <c r="M70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q70" s="1">
         <v>44398</v>
       </c>
       <c r="R70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W70">
         <v>4</v>
@@ -7285,39 +7285,39 @@
         <v>45759</v>
       </c>
       <c r="AD70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE70" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF70">
         <v>19384765</v>
       </c>
       <c r="AG70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH70" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C71">
         <v>20774421</v>
       </c>
       <c r="D71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J71">
         <v>247195</v>
@@ -7329,28 +7329,28 @@
         <v>929732</v>
       </c>
       <c r="M71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q71" s="1">
         <v>44864</v>
       </c>
       <c r="R71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W71">
         <v>4</v>
@@ -7371,39 +7371,39 @@
         <v>45765</v>
       </c>
       <c r="AD71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE71" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF71">
         <v>39284750</v>
       </c>
       <c r="AG71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C72">
         <v>11380169</v>
       </c>
       <c r="D72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J72">
         <v>621031</v>
@@ -7415,28 +7415,28 @@
         <v>561901</v>
       </c>
       <c r="M72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q72" s="1">
         <v>45080</v>
       </c>
       <c r="R72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W72">
         <v>4</v>
@@ -7457,39 +7457,39 @@
         <v>45772</v>
       </c>
       <c r="AD72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE72" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF72">
         <v>64738290</v>
       </c>
       <c r="AG72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH72" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C73">
         <v>15450654</v>
       </c>
       <c r="D73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J73">
         <v>117709</v>
@@ -7501,28 +7501,28 @@
         <v>555642</v>
       </c>
       <c r="M73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q73" s="1">
         <v>41690</v>
       </c>
       <c r="R73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W73">
         <v>4</v>
@@ -7543,39 +7543,39 @@
         <v>45778</v>
       </c>
       <c r="AD73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF73">
         <v>83920174</v>
       </c>
       <c r="AG73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH73" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C74">
         <v>77336621</v>
       </c>
       <c r="D74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J74">
         <v>482399</v>
@@ -7587,28 +7587,28 @@
         <v>246175</v>
       </c>
       <c r="M74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q74" s="1">
         <v>42217</v>
       </c>
       <c r="R74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W74">
         <v>4</v>
@@ -7629,39 +7629,39 @@
         <v>45785</v>
       </c>
       <c r="AD74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE74" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF74">
         <v>19475628</v>
       </c>
       <c r="AG74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH74" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C75">
         <v>89578519</v>
       </c>
       <c r="D75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J75">
         <v>705119</v>
@@ -7673,28 +7673,28 @@
         <v>935519</v>
       </c>
       <c r="M75" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q75" s="1">
         <v>42509</v>
       </c>
       <c r="R75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W75">
         <v>4</v>
@@ -7715,39 +7715,39 @@
         <v>45790</v>
       </c>
       <c r="AD75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF75">
         <v>38492017</v>
       </c>
       <c r="AG75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH75" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C76">
         <v>10963238</v>
       </c>
       <c r="D76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J76">
         <v>945549</v>
@@ -7759,28 +7759,28 @@
         <v>100084</v>
       </c>
       <c r="M76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q76" s="1">
         <v>42985</v>
       </c>
       <c r="R76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W76">
         <v>4</v>
@@ -7801,39 +7801,39 @@
         <v>45796</v>
       </c>
       <c r="AD76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF76">
         <v>39482750</v>
       </c>
       <c r="AG76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH76" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C77">
         <v>69686697</v>
       </c>
       <c r="D77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J77">
         <v>656044</v>
@@ -7845,28 +7845,28 @@
         <v>795319</v>
       </c>
       <c r="M77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q77" s="1">
         <v>43446</v>
       </c>
       <c r="R77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W77">
         <v>4</v>
@@ -7887,39 +7887,39 @@
         <v>45802</v>
       </c>
       <c r="AD77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE77" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF77">
         <v>58473620</v>
       </c>
       <c r="AG77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH77" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C78">
         <v>41070615</v>
       </c>
       <c r="D78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J78">
         <v>338846</v>
@@ -7931,28 +7931,28 @@
         <v>494047</v>
       </c>
       <c r="M78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q78" s="1">
         <v>43792</v>
       </c>
       <c r="R78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W78">
         <v>4</v>
@@ -7973,39 +7973,39 @@
         <v>45809</v>
       </c>
       <c r="AD78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE78" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF78">
         <v>84756230</v>
       </c>
       <c r="AG78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH78" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C79">
         <v>18360615</v>
       </c>
       <c r="D79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J79">
         <v>296049</v>
@@ -8017,28 +8017,28 @@
         <v>109593</v>
       </c>
       <c r="M79" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q79" s="1">
         <v>43925</v>
       </c>
       <c r="R79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W79">
         <v>4</v>
@@ -8059,39 +8059,39 @@
         <v>45815</v>
       </c>
       <c r="AD79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE79" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF79">
         <v>29384715</v>
       </c>
       <c r="AG79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH79" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C80">
         <v>92493399</v>
       </c>
       <c r="D80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F80" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I80" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J80">
         <v>888102</v>
@@ -8103,28 +8103,28 @@
         <v>453672</v>
       </c>
       <c r="M80" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q80" s="1">
         <v>44451</v>
       </c>
       <c r="R80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W80">
         <v>4</v>
@@ -8145,39 +8145,39 @@
         <v>45822</v>
       </c>
       <c r="AD80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE80" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF80">
         <v>18475639</v>
       </c>
       <c r="AG80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH80" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C81">
         <v>44663401</v>
       </c>
       <c r="D81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J81">
         <v>807855</v>
@@ -8189,28 +8189,28 @@
         <v>539632</v>
       </c>
       <c r="M81" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q81" s="1">
         <v>44608</v>
       </c>
       <c r="R81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W81">
         <v>4</v>
@@ -8231,39 +8231,39 @@
         <v>45829</v>
       </c>
       <c r="AD81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE81" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF81">
         <v>29384726</v>
       </c>
       <c r="AG81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH81" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C82">
         <v>98880367</v>
       </c>
       <c r="D82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J82">
         <v>719496</v>
@@ -8275,28 +8275,28 @@
         <v>168610</v>
       </c>
       <c r="M82" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q82" s="1">
         <v>45041</v>
       </c>
       <c r="R82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W82">
         <v>4</v>
@@ -8317,39 +8317,39 @@
         <v>45836</v>
       </c>
       <c r="AD82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE82" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF82">
         <v>84736291</v>
       </c>
       <c r="AG82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH82" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C83">
         <v>53883909</v>
       </c>
       <c r="D83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I83" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J83">
         <v>661966</v>
@@ -8361,28 +8361,28 @@
         <v>935676</v>
       </c>
       <c r="M83" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q83" s="1">
         <v>41847</v>
       </c>
       <c r="R83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W83">
         <v>4</v>
@@ -8403,39 +8403,39 @@
         <v>45839</v>
       </c>
       <c r="AD83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF83">
         <v>93847561</v>
       </c>
       <c r="AG83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH83" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C84">
         <v>55458079</v>
       </c>
       <c r="D84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I84" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J84">
         <v>976319</v>
@@ -8447,28 +8447,28 @@
         <v>124998</v>
       </c>
       <c r="M84" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q84" s="1">
         <v>42352</v>
       </c>
       <c r="R84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W84">
         <v>4</v>
@@ -8489,39 +8489,39 @@
         <v>45845</v>
       </c>
       <c r="AD84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE84" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF84">
         <v>2938475</v>
       </c>
       <c r="AG84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH84" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C85">
         <v>25088206</v>
       </c>
       <c r="D85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I85" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J85">
         <v>435455</v>
@@ -8533,28 +8533,28 @@
         <v>956145</v>
       </c>
       <c r="M85" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q85" s="1">
         <v>42664</v>
       </c>
       <c r="R85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W85">
         <v>4</v>
@@ -8575,39 +8575,39 @@
         <v>45850</v>
       </c>
       <c r="AD85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE85" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF85">
         <v>74839201</v>
       </c>
       <c r="AG85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH85" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B86" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C86">
         <v>70717628</v>
       </c>
       <c r="D86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I86" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J86">
         <v>624931</v>
@@ -8619,28 +8619,28 @@
         <v>339213</v>
       </c>
       <c r="M86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q86" s="1">
         <v>42768</v>
       </c>
       <c r="R86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W86">
         <v>4</v>
@@ -8661,39 +8661,39 @@
         <v>45857</v>
       </c>
       <c r="AD86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE86" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF86">
         <v>83649275</v>
       </c>
       <c r="AG86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH86" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C87">
         <v>60398329</v>
       </c>
       <c r="D87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J87">
         <v>350393</v>
@@ -8705,28 +8705,28 @@
         <v>542170</v>
       </c>
       <c r="M87" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q87" s="1">
         <v>43325</v>
       </c>
       <c r="R87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W87">
         <v>4</v>
@@ -8747,39 +8747,39 @@
         <v>45863</v>
       </c>
       <c r="AD87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE87" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF87">
         <v>92736485</v>
       </c>
       <c r="AG87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH87" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B88" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C88">
         <v>89814255</v>
       </c>
       <c r="D88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F88" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I88" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J88">
         <v>468353</v>
@@ -8791,28 +8791,28 @@
         <v>130047</v>
       </c>
       <c r="M88" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q88" s="1">
         <v>43765</v>
       </c>
       <c r="R88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W88">
         <v>4</v>
@@ -8833,39 +8833,39 @@
         <v>45871</v>
       </c>
       <c r="AD88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF88">
         <v>12834765</v>
       </c>
       <c r="AG88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH88" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C89">
         <v>96947995</v>
       </c>
       <c r="D89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I89" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J89">
         <v>470210</v>
@@ -8877,28 +8877,28 @@
         <v>556062</v>
       </c>
       <c r="M89" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q89" s="1">
         <v>43997</v>
       </c>
       <c r="R89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W89">
         <v>4</v>
@@ -8919,39 +8919,39 @@
         <v>45877</v>
       </c>
       <c r="AD89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE89" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF89">
         <v>29384710</v>
       </c>
       <c r="AG89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH89" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B90" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C90">
         <v>65819883</v>
       </c>
       <c r="D90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F90" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J90">
         <v>483259</v>
@@ -8963,28 +8963,28 @@
         <v>575065</v>
       </c>
       <c r="M90" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q90" s="1">
         <v>44528</v>
       </c>
       <c r="R90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W90">
         <v>4</v>
@@ -9005,39 +9005,39 @@
         <v>45883</v>
       </c>
       <c r="AD90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE90" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF90">
         <v>84736285</v>
       </c>
       <c r="AG90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C91">
         <v>53637164</v>
       </c>
       <c r="D91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F91" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I91" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J91">
         <v>328381</v>
@@ -9049,28 +9049,28 @@
         <v>418697</v>
       </c>
       <c r="M91" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q91" s="1">
         <v>44644</v>
       </c>
       <c r="R91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W91">
         <v>4</v>
@@ -9091,39 +9091,39 @@
         <v>45890</v>
       </c>
       <c r="AD91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE91" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF91">
         <v>12839465</v>
       </c>
       <c r="AG91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH91" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C92">
         <v>20362006</v>
       </c>
       <c r="D92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J92">
         <v>748894</v>
@@ -9135,28 +9135,28 @@
         <v>552312</v>
       </c>
       <c r="M92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q92" s="1">
         <v>45115</v>
       </c>
       <c r="R92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W92">
         <v>4</v>
@@ -9177,39 +9177,39 @@
         <v>45896</v>
       </c>
       <c r="AD92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE92" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF92">
         <v>29384756</v>
       </c>
       <c r="AG92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH92" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C93">
         <v>80818244</v>
       </c>
       <c r="D93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J93">
         <v>870845</v>
@@ -9221,28 +9221,28 @@
         <v>196567</v>
       </c>
       <c r="M93" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q93" s="1">
         <v>41764</v>
       </c>
       <c r="R93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W93">
         <v>4</v>
@@ -9263,39 +9263,39 @@
         <v>45903</v>
       </c>
       <c r="AD93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF93">
         <v>39475620</v>
       </c>
       <c r="AG93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH93" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C94">
         <v>11329553</v>
       </c>
       <c r="D94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J94">
         <v>557470</v>
@@ -9307,28 +9307,28 @@
         <v>712462</v>
       </c>
       <c r="M94" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q94" s="1">
         <v>42258</v>
       </c>
       <c r="R94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W94">
         <v>4</v>
@@ -9349,39 +9349,39 @@
         <v>45910</v>
       </c>
       <c r="AD94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF94">
         <v>83746290</v>
       </c>
       <c r="AG94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH94" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C95">
         <v>50398972</v>
       </c>
       <c r="D95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F95" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J95">
         <v>744604</v>
@@ -9393,28 +9393,28 @@
         <v>688262</v>
       </c>
       <c r="M95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q95" s="1">
         <v>42581</v>
       </c>
       <c r="R95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W95">
         <v>4</v>
@@ -9435,39 +9435,39 @@
         <v>45915</v>
       </c>
       <c r="AD95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE95" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF95">
         <v>12039487</v>
       </c>
       <c r="AG95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH95" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C96">
         <v>89404472</v>
       </c>
       <c r="D96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F96" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J96">
         <v>932245</v>
@@ -9479,28 +9479,28 @@
         <v>978611</v>
       </c>
       <c r="M96" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q96" s="1">
         <v>43061</v>
       </c>
       <c r="R96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W96">
         <v>4</v>
@@ -9521,39 +9521,39 @@
         <v>45922</v>
       </c>
       <c r="AD96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE96" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF96">
         <v>84756392</v>
       </c>
       <c r="AG96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH96" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C97">
         <v>58570557</v>
       </c>
       <c r="D97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F97" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J97">
         <v>242599</v>
@@ -9565,28 +9565,28 @@
         <v>586576</v>
       </c>
       <c r="M97" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q97" s="1">
         <v>43193</v>
       </c>
       <c r="R97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W97">
         <v>4</v>
@@ -9607,39 +9607,39 @@
         <v>45929</v>
       </c>
       <c r="AD97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE97" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF97">
         <v>28394765</v>
       </c>
       <c r="AG97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH97" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C98">
         <v>20096535</v>
       </c>
       <c r="D98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J98">
         <v>253757</v>
@@ -9651,28 +9651,28 @@
         <v>907179</v>
       </c>
       <c r="M98" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q98" s="1">
         <v>43686</v>
       </c>
       <c r="R98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W98">
         <v>4</v>
@@ -9693,39 +9693,39 @@
         <v>45932</v>
       </c>
       <c r="AD98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE98" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF98">
         <v>93847562</v>
       </c>
       <c r="AG98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH98" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C99">
         <v>61854112</v>
       </c>
       <c r="D99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J99">
         <v>666304</v>
@@ -9737,28 +9737,28 @@
         <v>146926</v>
       </c>
       <c r="M99" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q99" s="1">
         <v>44175</v>
       </c>
       <c r="R99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W99">
         <v>4</v>
@@ -9779,39 +9779,39 @@
         <v>45936</v>
       </c>
       <c r="AD99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE99" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF99">
         <v>29384716</v>
       </c>
       <c r="AG99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH99" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C100">
         <v>29772599</v>
       </c>
       <c r="D100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J100">
         <v>785957</v>
@@ -9823,28 +9823,28 @@
         <v>564310</v>
       </c>
       <c r="M100" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q100" s="1">
         <v>44272</v>
       </c>
       <c r="R100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W100">
         <v>4</v>
@@ -9865,39 +9865,39 @@
         <v>45941</v>
       </c>
       <c r="AD100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE100" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF100">
         <v>83746529</v>
       </c>
       <c r="AG100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH100" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C101">
         <v>95411907</v>
       </c>
       <c r="D101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J101">
         <v>899244</v>
@@ -9909,28 +9909,28 @@
         <v>827355</v>
       </c>
       <c r="M101" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q101" s="1">
         <v>44707</v>
       </c>
       <c r="R101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W101">
         <v>4</v>
@@ -9951,39 +9951,39 @@
         <v>45947</v>
       </c>
       <c r="AD101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE101" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF101">
         <v>19483765</v>
       </c>
       <c r="AG101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH101" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C102">
         <v>26730847</v>
       </c>
       <c r="D102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J102">
         <v>533598</v>
@@ -9995,28 +9995,28 @@
         <v>376548</v>
       </c>
       <c r="M102" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q102" s="1">
         <v>45212</v>
       </c>
       <c r="R102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W102">
         <v>4</v>
@@ -10037,22 +10037,22 @@
         <v>45953</v>
       </c>
       <c r="AD102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE102" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF102">
         <v>28475639</v>
       </c>
       <c r="AG102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH102" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AA103" s="4"/>
     </row>
   </sheetData>

--- a/Backend/data/Datos_Dummy_Vehiculos.xlsx
+++ b/Backend/data/Datos_Dummy_Vehiculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\ProyectoConsultasEnLinea\Backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652FF323-51EB-4650-9C21-B0161B27A02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C7E2FD-BB00-460D-A53B-2C15A972E4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5355" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,9 +516,6 @@
     <t>Kia</t>
   </si>
   <si>
-    <t>ABC123</t>
-  </si>
-  <si>
     <t>1HGCM82633A123456</t>
   </si>
   <si>
@@ -865,13 +862,16 @@
   </si>
   <si>
     <t>Peso Bruto Vehicular</t>
+  </si>
+  <si>
+    <t>AWX123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -882,6 +882,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -914,12 +921,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1203,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AB33" sqref="AB33"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1323,7 @@
         <v>22</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>23</v>
@@ -1339,7 +1347,7 @@
         <v>28</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG1" s="2" t="s">
         <v>29</v>
@@ -1350,9 +1358,9 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C2">
@@ -1386,7 +1394,7 @@
         <v>123456</v>
       </c>
       <c r="M2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N2">
         <v>1500</v>
@@ -1440,7 +1448,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF2">
         <v>12345678</v>
@@ -1456,11 +1464,11 @@
       <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C3">
-        <v>1008539057</v>
+        <v>1019286440</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
@@ -1481,7 +1489,7 @@
         <v>137589</v>
       </c>
       <c r="M3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P3" t="s">
         <v>38</v>
@@ -1526,7 +1534,7 @@
         <v>42</v>
       </c>
       <c r="AE3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF3">
         <v>87654321</v>
@@ -1542,11 +1550,11 @@
       <c r="A4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C4">
-        <v>1017782308</v>
+        <v>1015908159</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
@@ -1567,7 +1575,7 @@
         <v>126531</v>
       </c>
       <c r="M4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P4" t="s">
         <v>38</v>
@@ -1612,7 +1620,7 @@
         <v>42</v>
       </c>
       <c r="AE4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF4">
         <v>23456789</v>
@@ -1628,11 +1636,11 @@
       <c r="A5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C5">
-        <v>1009027789</v>
+        <v>1014807579</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -1653,7 +1661,7 @@
         <v>622144</v>
       </c>
       <c r="M5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P5" t="s">
         <v>38</v>
@@ -1698,7 +1706,7 @@
         <v>42</v>
       </c>
       <c r="AE5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF5">
         <v>98765432</v>
@@ -1714,11 +1722,11 @@
       <c r="A6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C6">
-        <v>1003947845</v>
+        <v>1006198955</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
@@ -1739,7 +1747,7 @@
         <v>991194</v>
       </c>
       <c r="M6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -1784,7 +1792,7 @@
         <v>42</v>
       </c>
       <c r="AE6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF6">
         <v>34567890</v>
@@ -1800,11 +1808,11 @@
       <c r="A7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>148</v>
       </c>
       <c r="C7">
-        <v>1005338700</v>
+        <v>1010130699</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
@@ -1825,7 +1833,7 @@
         <v>904392</v>
       </c>
       <c r="M7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P7" t="s">
         <v>38</v>
@@ -1870,7 +1878,7 @@
         <v>42</v>
       </c>
       <c r="AE7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF7">
         <v>65432109</v>
@@ -1886,11 +1894,11 @@
       <c r="A8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C8">
-        <v>1002302378</v>
+        <v>1001054556</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
@@ -1911,7 +1919,7 @@
         <v>834704</v>
       </c>
       <c r="M8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P8" t="s">
         <v>38</v>
@@ -1956,7 +1964,7 @@
         <v>42</v>
       </c>
       <c r="AE8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF8">
         <v>45678901</v>
@@ -1972,11 +1980,11 @@
       <c r="A9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C9">
-        <v>1005722316</v>
+        <v>1002336359</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
@@ -1997,7 +2005,7 @@
         <v>639564</v>
       </c>
       <c r="M9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P9" t="s">
         <v>38</v>
@@ -2042,7 +2050,7 @@
         <v>42</v>
       </c>
       <c r="AE9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF9">
         <v>76543210</v>
@@ -2058,11 +2066,11 @@
       <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C10">
-        <v>1009003874</v>
+        <v>1018931115</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
@@ -2083,7 +2091,7 @@
         <v>759371</v>
       </c>
       <c r="M10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P10" t="s">
         <v>38</v>
@@ -2128,7 +2136,7 @@
         <v>42</v>
       </c>
       <c r="AE10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF10">
         <v>56789012</v>
@@ -2144,11 +2152,11 @@
       <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C11">
-        <v>1012746554</v>
+        <v>1001871628</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
@@ -2169,7 +2177,7 @@
         <v>780470</v>
       </c>
       <c r="M11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P11" t="s">
         <v>38</v>
@@ -2214,7 +2222,7 @@
         <v>42</v>
       </c>
       <c r="AE11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF11">
         <v>87654320</v>
@@ -2230,11 +2238,11 @@
       <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C12">
-        <v>1012627461</v>
+        <v>1005152714</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
@@ -2255,7 +2263,7 @@
         <v>431076</v>
       </c>
       <c r="M12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P12" t="s">
         <v>38</v>
@@ -2300,7 +2308,7 @@
         <v>42</v>
       </c>
       <c r="AE12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF12">
         <v>67890123</v>
@@ -2316,11 +2324,11 @@
       <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C13">
-        <v>1015149761</v>
+        <v>1009646610</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
@@ -2341,7 +2349,7 @@
         <v>868362</v>
       </c>
       <c r="M13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P13" t="s">
         <v>38</v>
@@ -2386,7 +2394,7 @@
         <v>42</v>
       </c>
       <c r="AE13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF13">
         <v>98765430</v>
@@ -2402,11 +2410,11 @@
       <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>148</v>
       </c>
       <c r="C14">
-        <v>1002271511</v>
+        <v>1011344146</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
@@ -2427,7 +2435,7 @@
         <v>460913</v>
       </c>
       <c r="M14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P14" t="s">
         <v>38</v>
@@ -2472,7 +2480,7 @@
         <v>42</v>
       </c>
       <c r="AE14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF14">
         <v>78901234</v>
@@ -2488,11 +2496,11 @@
       <c r="A15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C15">
-        <v>1014717513</v>
+        <v>1015082112</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
@@ -2513,7 +2521,7 @@
         <v>157671</v>
       </c>
       <c r="M15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P15" t="s">
         <v>38</v>
@@ -2558,7 +2566,7 @@
         <v>42</v>
       </c>
       <c r="AE15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF15">
         <v>10987654</v>
@@ -2574,11 +2582,11 @@
       <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C16">
-        <v>1010254677</v>
+        <v>1011598470</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
@@ -2599,7 +2607,7 @@
         <v>937925</v>
       </c>
       <c r="M16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P16" t="s">
         <v>38</v>
@@ -2644,7 +2652,7 @@
         <v>42</v>
       </c>
       <c r="AE16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF16">
         <v>89012345</v>
@@ -2660,11 +2668,11 @@
       <c r="A17" t="s">
         <v>57</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C17">
-        <v>1015545705</v>
+        <v>1001989475</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
@@ -2685,7 +2693,7 @@
         <v>165921</v>
       </c>
       <c r="M17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P17" t="s">
         <v>38</v>
@@ -2730,7 +2738,7 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF17">
         <v>21098765</v>
@@ -2746,11 +2754,11 @@
       <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C18">
-        <v>1000020345</v>
+        <v>1011337255</v>
       </c>
       <c r="D18" t="s">
         <v>31</v>
@@ -2771,7 +2779,7 @@
         <v>807143</v>
       </c>
       <c r="M18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P18" t="s">
         <v>38</v>
@@ -2816,7 +2824,7 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF18">
         <v>90123456</v>
@@ -2832,11 +2840,11 @@
       <c r="A19" t="s">
         <v>59</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C19">
-        <v>1010841130</v>
+        <v>1003668582</v>
       </c>
       <c r="D19" t="s">
         <v>31</v>
@@ -2857,7 +2865,7 @@
         <v>298867</v>
       </c>
       <c r="M19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P19" t="s">
         <v>38</v>
@@ -2902,7 +2910,7 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF19">
         <v>32109876</v>
@@ -2918,11 +2926,11 @@
       <c r="A20" t="s">
         <v>60</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C20">
-        <v>1011282220</v>
+        <v>1002491724</v>
       </c>
       <c r="D20" t="s">
         <v>31</v>
@@ -2943,7 +2951,7 @@
         <v>914284</v>
       </c>
       <c r="M20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P20" t="s">
         <v>38</v>
@@ -2988,7 +2996,7 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF20">
         <v>12345679</v>
@@ -3004,11 +3012,11 @@
       <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>148</v>
       </c>
       <c r="C21">
-        <v>1007211174</v>
+        <v>1006564368</v>
       </c>
       <c r="D21" t="s">
         <v>31</v>
@@ -3029,7 +3037,7 @@
         <v>732516</v>
       </c>
       <c r="M21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P21" t="s">
         <v>38</v>
@@ -3074,7 +3082,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF21">
         <v>43210987</v>
@@ -3090,11 +3098,11 @@
       <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C22">
-        <v>1008301114</v>
+        <v>1017820500</v>
       </c>
       <c r="D22" t="s">
         <v>31</v>
@@ -3115,7 +3123,7 @@
         <v>235354</v>
       </c>
       <c r="M22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P22" t="s">
         <v>38</v>
@@ -3160,7 +3168,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF22">
         <v>23456780</v>
@@ -3176,11 +3184,11 @@
       <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C23">
-        <v>1004556594</v>
+        <v>1014791576</v>
       </c>
       <c r="D23" t="s">
         <v>31</v>
@@ -3201,7 +3209,7 @@
         <v>983505</v>
       </c>
       <c r="M23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P23" t="s">
         <v>38</v>
@@ -3246,7 +3254,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF23">
         <v>54321098</v>
@@ -3262,11 +3270,11 @@
       <c r="A24" t="s">
         <v>64</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C24">
-        <v>1017497543</v>
+        <v>1015800718</v>
       </c>
       <c r="D24" t="s">
         <v>31</v>
@@ -3287,7 +3295,7 @@
         <v>540246</v>
       </c>
       <c r="M24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P24" t="s">
         <v>38</v>
@@ -3332,7 +3340,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF24">
         <v>34567891</v>
@@ -3348,11 +3356,11 @@
       <c r="A25" t="s">
         <v>65</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C25">
-        <v>1015381046</v>
+        <v>1007862540</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -3373,7 +3381,7 @@
         <v>669811</v>
       </c>
       <c r="M25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P25" t="s">
         <v>38</v>
@@ -3418,7 +3426,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF25">
         <v>65432109</v>
@@ -3434,11 +3442,11 @@
       <c r="A26" t="s">
         <v>66</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C26">
-        <v>1005222893</v>
+        <v>1010657753</v>
       </c>
       <c r="D26" t="s">
         <v>31</v>
@@ -3459,7 +3467,7 @@
         <v>658136</v>
       </c>
       <c r="M26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P26" t="s">
         <v>38</v>
@@ -3504,7 +3512,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF26">
         <v>45678902</v>
@@ -3520,11 +3528,11 @@
       <c r="A27" t="s">
         <v>67</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C27">
-        <v>1017165382</v>
+        <v>1001806711</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
@@ -3545,7 +3553,7 @@
         <v>499011</v>
       </c>
       <c r="M27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P27" t="s">
         <v>38</v>
@@ -3590,7 +3598,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF27">
         <v>76543211</v>
@@ -3606,11 +3614,11 @@
       <c r="A28" t="s">
         <v>68</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>148</v>
       </c>
       <c r="C28">
-        <v>1001542776</v>
+        <v>1003047161</v>
       </c>
       <c r="D28" t="s">
         <v>31</v>
@@ -3631,7 +3639,7 @@
         <v>323266</v>
       </c>
       <c r="M28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P28" t="s">
         <v>38</v>
@@ -3676,7 +3684,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF28">
         <v>56789023</v>
@@ -3692,11 +3700,11 @@
       <c r="A29" t="s">
         <v>69</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C29">
-        <v>1002712568</v>
+        <v>1009335769</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
@@ -3717,7 +3725,7 @@
         <v>289675</v>
       </c>
       <c r="M29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P29" t="s">
         <v>38</v>
@@ -3762,7 +3770,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF29">
         <v>87654321</v>
@@ -3778,11 +3786,11 @@
       <c r="A30" t="s">
         <v>70</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C30">
-        <v>1017442593</v>
+        <v>1015339817</v>
       </c>
       <c r="D30" t="s">
         <v>31</v>
@@ -3803,7 +3811,7 @@
         <v>211183</v>
       </c>
       <c r="M30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P30" t="s">
         <v>38</v>
@@ -3848,7 +3856,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF30">
         <v>67890124</v>
@@ -3864,11 +3872,11 @@
       <c r="A31" t="s">
         <v>71</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C31">
-        <v>1005055948</v>
+        <v>1004254762</v>
       </c>
       <c r="D31" t="s">
         <v>31</v>
@@ -3889,7 +3897,7 @@
         <v>143391</v>
       </c>
       <c r="M31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P31" t="s">
         <v>38</v>
@@ -3934,7 +3942,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF31">
         <v>98765432</v>
@@ -3950,11 +3958,11 @@
       <c r="A32" t="s">
         <v>72</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C32">
-        <v>1013489497</v>
+        <v>1018498209</v>
       </c>
       <c r="D32" t="s">
         <v>31</v>
@@ -3975,7 +3983,7 @@
         <v>544501</v>
       </c>
       <c r="M32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P32" t="s">
         <v>38</v>
@@ -4020,7 +4028,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF32">
         <v>78901235</v>
@@ -4036,11 +4044,11 @@
       <c r="A33" t="s">
         <v>73</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C33">
-        <v>1011062861</v>
+        <v>1000399805</v>
       </c>
       <c r="D33" t="s">
         <v>31</v>
@@ -4061,7 +4069,7 @@
         <v>928437</v>
       </c>
       <c r="M33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P33" t="s">
         <v>38</v>
@@ -4106,7 +4114,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF33">
         <v>10987653</v>
@@ -4122,11 +4130,11 @@
       <c r="A34" t="s">
         <v>74</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C34">
-        <v>1016083545</v>
+        <v>1001967813</v>
       </c>
       <c r="D34" t="s">
         <v>31</v>
@@ -4147,7 +4155,7 @@
         <v>814726</v>
       </c>
       <c r="M34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P34" t="s">
         <v>38</v>
@@ -4192,7 +4200,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF34">
         <v>89012346</v>
@@ -4208,11 +4216,11 @@
       <c r="A35" t="s">
         <v>75</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>148</v>
       </c>
       <c r="C35">
-        <v>1010909211</v>
+        <v>1013476339</v>
       </c>
       <c r="D35" t="s">
         <v>31</v>
@@ -4233,7 +4241,7 @@
         <v>620327</v>
       </c>
       <c r="M35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P35" t="s">
         <v>38</v>
@@ -4278,7 +4286,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF35">
         <v>21098764</v>
@@ -4294,11 +4302,11 @@
       <c r="A36" t="s">
         <v>76</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C36">
-        <v>1018941126</v>
+        <v>1012620550</v>
       </c>
       <c r="D36" t="s">
         <v>31</v>
@@ -4319,7 +4327,7 @@
         <v>531986</v>
       </c>
       <c r="M36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P36" t="s">
         <v>38</v>
@@ -4364,7 +4372,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF36">
         <v>90123457</v>
@@ -4380,11 +4388,11 @@
       <c r="A37" t="s">
         <v>77</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C37">
-        <v>1017793906</v>
+        <v>1004550636</v>
       </c>
       <c r="D37" t="s">
         <v>31</v>
@@ -4405,7 +4413,7 @@
         <v>549585</v>
       </c>
       <c r="M37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P37" t="s">
         <v>38</v>
@@ -4450,7 +4458,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF37">
         <v>32109875</v>
@@ -4466,11 +4474,11 @@
       <c r="A38" t="s">
         <v>78</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C38">
-        <v>1000557965</v>
+        <v>1012501769</v>
       </c>
       <c r="D38" t="s">
         <v>31</v>
@@ -4491,7 +4499,7 @@
         <v>240236</v>
       </c>
       <c r="M38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P38" t="s">
         <v>38</v>
@@ -4536,7 +4544,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF38">
         <v>12345670</v>
@@ -4552,11 +4560,11 @@
       <c r="A39" t="s">
         <v>79</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C39">
-        <v>1004046977</v>
+        <v>1013618192</v>
       </c>
       <c r="D39" t="s">
         <v>31</v>
@@ -4577,7 +4585,7 @@
         <v>807684</v>
       </c>
       <c r="M39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P39" t="s">
         <v>38</v>
@@ -4622,7 +4630,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF39">
         <v>43210986</v>
@@ -4638,11 +4646,11 @@
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C40">
-        <v>1007705974</v>
+        <v>1015520365</v>
       </c>
       <c r="D40" t="s">
         <v>31</v>
@@ -4663,7 +4671,7 @@
         <v>717709</v>
       </c>
       <c r="M40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P40" t="s">
         <v>38</v>
@@ -4708,7 +4716,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF40">
         <v>23456781</v>
@@ -4724,11 +4732,11 @@
       <c r="A41" t="s">
         <v>81</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C41">
-        <v>1018270390</v>
+        <v>1015995165</v>
       </c>
       <c r="D41" t="s">
         <v>31</v>
@@ -4749,7 +4757,7 @@
         <v>667004</v>
       </c>
       <c r="M41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P41" t="s">
         <v>38</v>
@@ -4794,7 +4802,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF41">
         <v>54321097</v>
@@ -4810,11 +4818,11 @@
       <c r="A42" t="s">
         <v>82</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
         <v>148</v>
       </c>
       <c r="C42">
-        <v>1015005637</v>
+        <v>1006351265</v>
       </c>
       <c r="D42" t="s">
         <v>31</v>
@@ -4835,7 +4843,7 @@
         <v>496275</v>
       </c>
       <c r="M42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P42" t="s">
         <v>38</v>
@@ -4880,7 +4888,7 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF42">
         <v>34567892</v>
@@ -4896,11 +4904,11 @@
       <c r="A43" t="s">
         <v>83</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C43">
-        <v>1002147957</v>
+        <v>1009572899</v>
       </c>
       <c r="D43" t="s">
         <v>31</v>
@@ -4921,7 +4929,7 @@
         <v>643700</v>
       </c>
       <c r="M43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P43" t="s">
         <v>38</v>
@@ -4966,7 +4974,7 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF43">
         <v>65432108</v>
@@ -4982,11 +4990,11 @@
       <c r="A44" t="s">
         <v>84</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C44">
-        <v>1002135797</v>
+        <v>1001677267</v>
       </c>
       <c r="D44" t="s">
         <v>31</v>
@@ -5007,7 +5015,7 @@
         <v>534985</v>
       </c>
       <c r="M44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P44" t="s">
         <v>38</v>
@@ -5052,7 +5060,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF44">
         <v>45678903</v>
@@ -5068,11 +5076,11 @@
       <c r="A45" t="s">
         <v>85</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C45">
-        <v>1001796243</v>
+        <v>1004902741</v>
       </c>
       <c r="D45" t="s">
         <v>31</v>
@@ -5093,7 +5101,7 @@
         <v>193486</v>
       </c>
       <c r="M45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P45" t="s">
         <v>38</v>
@@ -5138,7 +5146,7 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF45">
         <v>76543212</v>
@@ -5154,11 +5162,11 @@
       <c r="A46" t="s">
         <v>86</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C46">
-        <v>1010982498</v>
+        <v>1009811229</v>
       </c>
       <c r="D46" t="s">
         <v>31</v>
@@ -5179,7 +5187,7 @@
         <v>896584</v>
       </c>
       <c r="M46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P46" t="s">
         <v>38</v>
@@ -5224,7 +5232,7 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF46">
         <v>56789034</v>
@@ -5240,11 +5248,11 @@
       <c r="A47" t="s">
         <v>87</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C47">
-        <v>1016057313</v>
+        <v>1002198483</v>
       </c>
       <c r="D47" t="s">
         <v>31</v>
@@ -5265,7 +5273,7 @@
         <v>398997</v>
       </c>
       <c r="M47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P47" t="s">
         <v>38</v>
@@ -5310,7 +5318,7 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF47">
         <v>87654322</v>
@@ -5326,11 +5334,11 @@
       <c r="A48" t="s">
         <v>88</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C48">
-        <v>1018567675</v>
+        <v>1015723694</v>
       </c>
       <c r="D48" t="s">
         <v>31</v>
@@ -5351,7 +5359,7 @@
         <v>213016</v>
       </c>
       <c r="M48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P48" t="s">
         <v>38</v>
@@ -5396,7 +5404,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF48">
         <v>67890125</v>
@@ -5412,11 +5420,11 @@
       <c r="A49" t="s">
         <v>89</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
         <v>148</v>
       </c>
       <c r="C49">
-        <v>1012086140</v>
+        <v>1011130105</v>
       </c>
       <c r="D49" t="s">
         <v>31</v>
@@ -5437,7 +5445,7 @@
         <v>366146</v>
       </c>
       <c r="M49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P49" t="s">
         <v>38</v>
@@ -5482,7 +5490,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF49">
         <v>98765433</v>
@@ -5498,11 +5506,11 @@
       <c r="A50" t="s">
         <v>90</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C50">
-        <v>1009382172</v>
+        <v>1018394885</v>
       </c>
       <c r="D50" t="s">
         <v>31</v>
@@ -5523,7 +5531,7 @@
         <v>968614</v>
       </c>
       <c r="M50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P50" t="s">
         <v>38</v>
@@ -5568,7 +5576,7 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF50">
         <v>78901236</v>
@@ -5584,11 +5592,11 @@
       <c r="A51" t="s">
         <v>91</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C51">
-        <v>1000865260</v>
+        <v>1013210379</v>
       </c>
       <c r="D51" t="s">
         <v>31</v>
@@ -5609,7 +5617,7 @@
         <v>320338</v>
       </c>
       <c r="M51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P51" t="s">
         <v>38</v>
@@ -5654,7 +5662,7 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF51">
         <v>10987652</v>
@@ -5670,11 +5678,11 @@
       <c r="A52" t="s">
         <v>92</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C52">
-        <v>1006472513</v>
+        <v>1004434378</v>
       </c>
       <c r="D52" t="s">
         <v>31</v>
@@ -5695,7 +5703,7 @@
         <v>477711</v>
       </c>
       <c r="M52" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P52" t="s">
         <v>38</v>
@@ -5740,7 +5748,7 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF52">
         <v>89012347</v>
@@ -5756,11 +5764,11 @@
       <c r="A53" t="s">
         <v>93</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C53">
-        <v>66839515</v>
+        <v>10858671</v>
       </c>
       <c r="D53" t="s">
         <v>31</v>
@@ -5781,7 +5789,7 @@
         <v>730422</v>
       </c>
       <c r="M53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P53" t="s">
         <v>38</v>
@@ -5826,7 +5834,7 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF53">
         <v>10293847</v>
@@ -5842,11 +5850,11 @@
       <c r="A54" t="s">
         <v>94</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C54">
-        <v>65709145</v>
+        <v>81929352</v>
       </c>
       <c r="D54" t="s">
         <v>31</v>
@@ -5867,7 +5875,7 @@
         <v>991517</v>
       </c>
       <c r="M54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P54" t="s">
         <v>38</v>
@@ -5912,7 +5920,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF54">
         <v>56473829</v>
@@ -5928,11 +5936,11 @@
       <c r="A55" t="s">
         <v>95</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C55">
-        <v>12829465</v>
+        <v>13511636</v>
       </c>
       <c r="D55" t="s">
         <v>31</v>
@@ -5953,7 +5961,7 @@
         <v>753426</v>
       </c>
       <c r="M55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P55" t="s">
         <v>38</v>
@@ -5998,7 +6006,7 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF55">
         <v>20394857</v>
@@ -6014,11 +6022,11 @@
       <c r="A56" t="s">
         <v>96</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="5" t="s">
         <v>148</v>
       </c>
       <c r="C56">
-        <v>62486476</v>
+        <v>71962254</v>
       </c>
       <c r="D56" t="s">
         <v>31</v>
@@ -6039,7 +6047,7 @@
         <v>995419</v>
       </c>
       <c r="M56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P56" t="s">
         <v>38</v>
@@ -6084,7 +6092,7 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF56">
         <v>47583920</v>
@@ -6100,11 +6108,11 @@
       <c r="A57" t="s">
         <v>97</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C57">
-        <v>27250029</v>
+        <v>62584108</v>
       </c>
       <c r="D57" t="s">
         <v>31</v>
@@ -6125,7 +6133,7 @@
         <v>905546</v>
       </c>
       <c r="M57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P57" t="s">
         <v>38</v>
@@ -6170,7 +6178,7 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF57">
         <v>38475629</v>
@@ -6186,11 +6194,11 @@
       <c r="A58" t="s">
         <v>98</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C58">
-        <v>68293254</v>
+        <v>16287412</v>
       </c>
       <c r="D58" t="s">
         <v>31</v>
@@ -6211,7 +6219,7 @@
         <v>296921</v>
       </c>
       <c r="M58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P58" t="s">
         <v>38</v>
@@ -6256,7 +6264,7 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF58">
         <v>19283746</v>
@@ -6272,11 +6280,11 @@
       <c r="A59" t="s">
         <v>99</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C59">
-        <v>82382981</v>
+        <v>52525711</v>
       </c>
       <c r="D59" t="s">
         <v>31</v>
@@ -6297,7 +6305,7 @@
         <v>455891</v>
       </c>
       <c r="M59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P59" t="s">
         <v>38</v>
@@ -6342,7 +6350,7 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF59">
         <v>50627384</v>
@@ -6358,11 +6366,11 @@
       <c r="A60" t="s">
         <v>100</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C60">
-        <v>20915838</v>
+        <v>43364990</v>
       </c>
       <c r="D60" t="s">
         <v>31</v>
@@ -6383,7 +6391,7 @@
         <v>469335</v>
       </c>
       <c r="M60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P60" t="s">
         <v>38</v>
@@ -6428,7 +6436,7 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF60">
         <v>28374659</v>
@@ -6444,11 +6452,11 @@
       <c r="A61" t="s">
         <v>101</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C61">
-        <v>10970735</v>
+        <v>94098256</v>
       </c>
       <c r="D61" t="s">
         <v>31</v>
@@ -6469,7 +6477,7 @@
         <v>192884</v>
       </c>
       <c r="M61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P61" t="s">
         <v>38</v>
@@ -6514,7 +6522,7 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF61">
         <v>91728364</v>
@@ -6530,11 +6538,11 @@
       <c r="A62" t="s">
         <v>102</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C62">
-        <v>92676860</v>
+        <v>85845022</v>
       </c>
       <c r="D62" t="s">
         <v>31</v>
@@ -6555,7 +6563,7 @@
         <v>173466</v>
       </c>
       <c r="M62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P62" t="s">
         <v>38</v>
@@ -6600,7 +6608,7 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF62">
         <v>62738459</v>
@@ -6616,11 +6624,11 @@
       <c r="A63" t="s">
         <v>103</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="5" t="s">
         <v>148</v>
       </c>
       <c r="C63">
-        <v>68091019</v>
+        <v>63936040</v>
       </c>
       <c r="D63" t="s">
         <v>31</v>
@@ -6641,7 +6649,7 @@
         <v>556943</v>
       </c>
       <c r="M63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P63" t="s">
         <v>38</v>
@@ -6686,7 +6694,7 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF63">
         <v>71829364</v>
@@ -6702,11 +6710,11 @@
       <c r="A64" t="s">
         <v>104</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C64">
-        <v>71613400</v>
+        <v>38146558</v>
       </c>
       <c r="D64" t="s">
         <v>31</v>
@@ -6727,7 +6735,7 @@
         <v>259185</v>
       </c>
       <c r="M64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P64" t="s">
         <v>38</v>
@@ -6772,7 +6780,7 @@
         <v>42</v>
       </c>
       <c r="AE64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF64">
         <v>92038475</v>
@@ -6788,11 +6796,11 @@
       <c r="A65" t="s">
         <v>105</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C65">
-        <v>27170267</v>
+        <v>53132338</v>
       </c>
       <c r="D65" t="s">
         <v>31</v>
@@ -6813,7 +6821,7 @@
         <v>605554</v>
       </c>
       <c r="M65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P65" t="s">
         <v>38</v>
@@ -6858,7 +6866,7 @@
         <v>42</v>
       </c>
       <c r="AE65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF65">
         <v>38475620</v>
@@ -6874,11 +6882,11 @@
       <c r="A66" t="s">
         <v>106</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C66">
-        <v>60888119</v>
+        <v>85372839</v>
       </c>
       <c r="D66" t="s">
         <v>31</v>
@@ -6899,7 +6907,7 @@
         <v>584617</v>
       </c>
       <c r="M66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P66" t="s">
         <v>38</v>
@@ -6944,7 +6952,7 @@
         <v>42</v>
       </c>
       <c r="AE66" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF66">
         <v>49586730</v>
@@ -6960,11 +6968,11 @@
       <c r="A67" t="s">
         <v>107</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C67">
-        <v>33551625</v>
+        <v>26359162</v>
       </c>
       <c r="D67" t="s">
         <v>31</v>
@@ -6985,7 +6993,7 @@
         <v>722822</v>
       </c>
       <c r="M67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P67" t="s">
         <v>38</v>
@@ -7030,7 +7038,7 @@
         <v>42</v>
       </c>
       <c r="AE67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF67">
         <v>50617294</v>
@@ -7046,11 +7054,11 @@
       <c r="A68" t="s">
         <v>108</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C68">
-        <v>94636343</v>
+        <v>58799823</v>
       </c>
       <c r="D68" t="s">
         <v>31</v>
@@ -7071,7 +7079,7 @@
         <v>234661</v>
       </c>
       <c r="M68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P68" t="s">
         <v>38</v>
@@ -7116,7 +7124,7 @@
         <v>42</v>
       </c>
       <c r="AE68" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF68">
         <v>71629380</v>
@@ -7132,11 +7140,11 @@
       <c r="A69" t="s">
         <v>109</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C69">
-        <v>32041138</v>
+        <v>64887067</v>
       </c>
       <c r="D69" t="s">
         <v>31</v>
@@ -7157,7 +7165,7 @@
         <v>362978</v>
       </c>
       <c r="M69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P69" t="s">
         <v>38</v>
@@ -7202,7 +7210,7 @@
         <v>42</v>
       </c>
       <c r="AE69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF69">
         <v>29384756</v>
@@ -7218,11 +7226,11 @@
       <c r="A70" t="s">
         <v>110</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="5" t="s">
         <v>148</v>
       </c>
       <c r="C70">
-        <v>11721029</v>
+        <v>78973072</v>
       </c>
       <c r="D70" t="s">
         <v>31</v>
@@ -7243,7 +7251,7 @@
         <v>205267</v>
       </c>
       <c r="M70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P70" t="s">
         <v>38</v>
@@ -7288,7 +7296,7 @@
         <v>42</v>
       </c>
       <c r="AE70" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF70">
         <v>19384765</v>
@@ -7304,11 +7312,11 @@
       <c r="A71" t="s">
         <v>111</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C71">
-        <v>20774421</v>
+        <v>45656811</v>
       </c>
       <c r="D71" t="s">
         <v>31</v>
@@ -7329,7 +7337,7 @@
         <v>929732</v>
       </c>
       <c r="M71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P71" t="s">
         <v>38</v>
@@ -7374,7 +7382,7 @@
         <v>42</v>
       </c>
       <c r="AE71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF71">
         <v>39284750</v>
@@ -7390,11 +7398,11 @@
       <c r="A72" t="s">
         <v>112</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C72">
-        <v>11380169</v>
+        <v>33425363</v>
       </c>
       <c r="D72" t="s">
         <v>31</v>
@@ -7415,7 +7423,7 @@
         <v>561901</v>
       </c>
       <c r="M72" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P72" t="s">
         <v>38</v>
@@ -7460,7 +7468,7 @@
         <v>42</v>
       </c>
       <c r="AE72" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF72">
         <v>64738290</v>
@@ -7476,11 +7484,11 @@
       <c r="A73" t="s">
         <v>113</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C73">
-        <v>15450654</v>
+        <v>24874384</v>
       </c>
       <c r="D73" t="s">
         <v>31</v>
@@ -7501,7 +7509,7 @@
         <v>555642</v>
       </c>
       <c r="M73" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P73" t="s">
         <v>38</v>
@@ -7546,7 +7554,7 @@
         <v>42</v>
       </c>
       <c r="AE73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF73">
         <v>83920174</v>
@@ -7562,11 +7570,11 @@
       <c r="A74" t="s">
         <v>114</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C74">
-        <v>77336621</v>
+        <v>60546408</v>
       </c>
       <c r="D74" t="s">
         <v>31</v>
@@ -7587,7 +7595,7 @@
         <v>246175</v>
       </c>
       <c r="M74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P74" t="s">
         <v>38</v>
@@ -7632,7 +7640,7 @@
         <v>42</v>
       </c>
       <c r="AE74" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF74">
         <v>19475628</v>
@@ -7648,11 +7656,11 @@
       <c r="A75" t="s">
         <v>115</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C75">
-        <v>89578519</v>
+        <v>90849963</v>
       </c>
       <c r="D75" t="s">
         <v>31</v>
@@ -7673,7 +7681,7 @@
         <v>935519</v>
       </c>
       <c r="M75" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P75" t="s">
         <v>38</v>
@@ -7718,7 +7726,7 @@
         <v>42</v>
       </c>
       <c r="AE75" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF75">
         <v>38492017</v>
@@ -7734,11 +7742,11 @@
       <c r="A76" t="s">
         <v>116</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C76">
-        <v>10963238</v>
+        <v>74906285</v>
       </c>
       <c r="D76" t="s">
         <v>31</v>
@@ -7759,7 +7767,7 @@
         <v>100084</v>
       </c>
       <c r="M76" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P76" t="s">
         <v>38</v>
@@ -7804,7 +7812,7 @@
         <v>42</v>
       </c>
       <c r="AE76" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF76">
         <v>39482750</v>
@@ -7820,11 +7828,11 @@
       <c r="A77" t="s">
         <v>117</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="5" t="s">
         <v>148</v>
       </c>
       <c r="C77">
-        <v>69686697</v>
+        <v>41803761</v>
       </c>
       <c r="D77" t="s">
         <v>31</v>
@@ -7845,7 +7853,7 @@
         <v>795319</v>
       </c>
       <c r="M77" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P77" t="s">
         <v>38</v>
@@ -7890,7 +7898,7 @@
         <v>42</v>
       </c>
       <c r="AE77" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF77">
         <v>58473620</v>
@@ -7906,11 +7914,11 @@
       <c r="A78" t="s">
         <v>118</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C78">
-        <v>41070615</v>
+        <v>85687659</v>
       </c>
       <c r="D78" t="s">
         <v>31</v>
@@ -7931,7 +7939,7 @@
         <v>494047</v>
       </c>
       <c r="M78" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P78" t="s">
         <v>38</v>
@@ -7976,7 +7984,7 @@
         <v>42</v>
       </c>
       <c r="AE78" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF78">
         <v>84756230</v>
@@ -7992,11 +8000,11 @@
       <c r="A79" t="s">
         <v>119</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C79">
-        <v>18360615</v>
+        <v>23725536</v>
       </c>
       <c r="D79" t="s">
         <v>31</v>
@@ -8017,7 +8025,7 @@
         <v>109593</v>
       </c>
       <c r="M79" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P79" t="s">
         <v>38</v>
@@ -8062,7 +8070,7 @@
         <v>42</v>
       </c>
       <c r="AE79" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF79">
         <v>29384715</v>
@@ -8078,11 +8086,11 @@
       <c r="A80" t="s">
         <v>120</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C80">
-        <v>92493399</v>
+        <v>47359138</v>
       </c>
       <c r="D80" t="s">
         <v>31</v>
@@ -8103,7 +8111,7 @@
         <v>453672</v>
       </c>
       <c r="M80" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P80" t="s">
         <v>38</v>
@@ -8148,7 +8156,7 @@
         <v>42</v>
       </c>
       <c r="AE80" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF80">
         <v>18475639</v>
@@ -8164,11 +8172,11 @@
       <c r="A81" t="s">
         <v>121</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C81">
-        <v>44663401</v>
+        <v>19256266</v>
       </c>
       <c r="D81" t="s">
         <v>31</v>
@@ -8189,7 +8197,7 @@
         <v>539632</v>
       </c>
       <c r="M81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P81" t="s">
         <v>38</v>
@@ -8234,7 +8242,7 @@
         <v>42</v>
       </c>
       <c r="AE81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF81">
         <v>29384726</v>
@@ -8250,11 +8258,11 @@
       <c r="A82" t="s">
         <v>122</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C82">
-        <v>98880367</v>
+        <v>37036474</v>
       </c>
       <c r="D82" t="s">
         <v>31</v>
@@ -8275,7 +8283,7 @@
         <v>168610</v>
       </c>
       <c r="M82" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P82" t="s">
         <v>38</v>
@@ -8320,7 +8328,7 @@
         <v>42</v>
       </c>
       <c r="AE82" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF82">
         <v>84736291</v>
@@ -8336,11 +8344,11 @@
       <c r="A83" t="s">
         <v>123</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C83">
-        <v>53883909</v>
+        <v>43717013</v>
       </c>
       <c r="D83" t="s">
         <v>31</v>
@@ -8361,7 +8369,7 @@
         <v>935676</v>
       </c>
       <c r="M83" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P83" t="s">
         <v>38</v>
@@ -8406,7 +8414,7 @@
         <v>42</v>
       </c>
       <c r="AE83" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF83">
         <v>93847561</v>
@@ -8422,11 +8430,11 @@
       <c r="A84" t="s">
         <v>124</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="5" t="s">
         <v>148</v>
       </c>
       <c r="C84">
-        <v>55458079</v>
+        <v>66618017</v>
       </c>
       <c r="D84" t="s">
         <v>31</v>
@@ -8447,7 +8455,7 @@
         <v>124998</v>
       </c>
       <c r="M84" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P84" t="s">
         <v>38</v>
@@ -8492,7 +8500,7 @@
         <v>42</v>
       </c>
       <c r="AE84" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF84">
         <v>2938475</v>
@@ -8508,11 +8516,11 @@
       <c r="A85" t="s">
         <v>125</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C85">
-        <v>25088206</v>
+        <v>11457658</v>
       </c>
       <c r="D85" t="s">
         <v>31</v>
@@ -8533,7 +8541,7 @@
         <v>956145</v>
       </c>
       <c r="M85" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P85" t="s">
         <v>38</v>
@@ -8578,7 +8586,7 @@
         <v>42</v>
       </c>
       <c r="AE85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF85">
         <v>74839201</v>
@@ -8594,11 +8602,11 @@
       <c r="A86" t="s">
         <v>126</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C86">
-        <v>70717628</v>
+        <v>58979416</v>
       </c>
       <c r="D86" t="s">
         <v>31</v>
@@ -8619,7 +8627,7 @@
         <v>339213</v>
       </c>
       <c r="M86" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P86" t="s">
         <v>38</v>
@@ -8664,7 +8672,7 @@
         <v>42</v>
       </c>
       <c r="AE86" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF86">
         <v>83649275</v>
@@ -8680,11 +8688,11 @@
       <c r="A87" t="s">
         <v>127</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C87">
-        <v>60398329</v>
+        <v>18145221</v>
       </c>
       <c r="D87" t="s">
         <v>31</v>
@@ -8705,7 +8713,7 @@
         <v>542170</v>
       </c>
       <c r="M87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P87" t="s">
         <v>38</v>
@@ -8750,7 +8758,7 @@
         <v>42</v>
       </c>
       <c r="AE87" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF87">
         <v>92736485</v>
@@ -8766,11 +8774,11 @@
       <c r="A88" t="s">
         <v>128</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C88">
-        <v>89814255</v>
+        <v>46613732</v>
       </c>
       <c r="D88" t="s">
         <v>31</v>
@@ -8791,7 +8799,7 @@
         <v>130047</v>
       </c>
       <c r="M88" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P88" t="s">
         <v>38</v>
@@ -8836,7 +8844,7 @@
         <v>42</v>
       </c>
       <c r="AE88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF88">
         <v>12834765</v>
@@ -8852,11 +8860,11 @@
       <c r="A89" t="s">
         <v>129</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C89">
-        <v>96947995</v>
+        <v>34753290</v>
       </c>
       <c r="D89" t="s">
         <v>31</v>
@@ -8877,7 +8885,7 @@
         <v>556062</v>
       </c>
       <c r="M89" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P89" t="s">
         <v>38</v>
@@ -8922,7 +8930,7 @@
         <v>42</v>
       </c>
       <c r="AE89" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF89">
         <v>29384710</v>
@@ -8938,11 +8946,11 @@
       <c r="A90" t="s">
         <v>130</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C90">
-        <v>65819883</v>
+        <v>39632398</v>
       </c>
       <c r="D90" t="s">
         <v>31</v>
@@ -8963,7 +8971,7 @@
         <v>575065</v>
       </c>
       <c r="M90" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P90" t="s">
         <v>38</v>
@@ -9008,7 +9016,7 @@
         <v>42</v>
       </c>
       <c r="AE90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF90">
         <v>84736285</v>
@@ -9024,11 +9032,11 @@
       <c r="A91" t="s">
         <v>131</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="5" t="s">
         <v>148</v>
       </c>
       <c r="C91">
-        <v>53637164</v>
+        <v>23991314</v>
       </c>
       <c r="D91" t="s">
         <v>31</v>
@@ -9049,7 +9057,7 @@
         <v>418697</v>
       </c>
       <c r="M91" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P91" t="s">
         <v>38</v>
@@ -9094,7 +9102,7 @@
         <v>42</v>
       </c>
       <c r="AE91" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF91">
         <v>12839465</v>
@@ -9110,11 +9118,11 @@
       <c r="A92" t="s">
         <v>132</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C92">
-        <v>20362006</v>
+        <v>93096245</v>
       </c>
       <c r="D92" t="s">
         <v>31</v>
@@ -9135,7 +9143,7 @@
         <v>552312</v>
       </c>
       <c r="M92" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P92" t="s">
         <v>38</v>
@@ -9180,7 +9188,7 @@
         <v>42</v>
       </c>
       <c r="AE92" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF92">
         <v>29384756</v>
@@ -9196,11 +9204,11 @@
       <c r="A93" t="s">
         <v>133</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C93">
-        <v>80818244</v>
+        <v>79863461</v>
       </c>
       <c r="D93" t="s">
         <v>31</v>
@@ -9221,7 +9229,7 @@
         <v>196567</v>
       </c>
       <c r="M93" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P93" t="s">
         <v>38</v>
@@ -9266,7 +9274,7 @@
         <v>42</v>
       </c>
       <c r="AE93" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF93">
         <v>39475620</v>
@@ -9282,11 +9290,11 @@
       <c r="A94" t="s">
         <v>134</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C94">
-        <v>11329553</v>
+        <v>31951434</v>
       </c>
       <c r="D94" t="s">
         <v>31</v>
@@ -9307,7 +9315,7 @@
         <v>712462</v>
       </c>
       <c r="M94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P94" t="s">
         <v>38</v>
@@ -9352,7 +9360,7 @@
         <v>42</v>
       </c>
       <c r="AE94" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF94">
         <v>83746290</v>
@@ -9368,11 +9376,11 @@
       <c r="A95" t="s">
         <v>135</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C95">
-        <v>50398972</v>
+        <v>43164828</v>
       </c>
       <c r="D95" t="s">
         <v>31</v>
@@ -9393,7 +9401,7 @@
         <v>688262</v>
       </c>
       <c r="M95" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P95" t="s">
         <v>38</v>
@@ -9438,7 +9446,7 @@
         <v>42</v>
       </c>
       <c r="AE95" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF95">
         <v>12039487</v>
@@ -9454,11 +9462,11 @@
       <c r="A96" t="s">
         <v>136</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C96">
-        <v>89404472</v>
+        <v>83758565</v>
       </c>
       <c r="D96" t="s">
         <v>31</v>
@@ -9479,7 +9487,7 @@
         <v>978611</v>
       </c>
       <c r="M96" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P96" t="s">
         <v>38</v>
@@ -9524,7 +9532,7 @@
         <v>42</v>
       </c>
       <c r="AE96" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF96">
         <v>84756392</v>
@@ -9540,11 +9548,11 @@
       <c r="A97" t="s">
         <v>137</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C97">
-        <v>58570557</v>
+        <v>63911115</v>
       </c>
       <c r="D97" t="s">
         <v>31</v>
@@ -9565,7 +9573,7 @@
         <v>586576</v>
       </c>
       <c r="M97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P97" t="s">
         <v>38</v>
@@ -9610,7 +9618,7 @@
         <v>42</v>
       </c>
       <c r="AE97" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF97">
         <v>28394765</v>
@@ -9626,11 +9634,11 @@
       <c r="A98" t="s">
         <v>138</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="5" t="s">
         <v>148</v>
       </c>
       <c r="C98">
-        <v>20096535</v>
+        <v>73223226</v>
       </c>
       <c r="D98" t="s">
         <v>31</v>
@@ -9651,7 +9659,7 @@
         <v>907179</v>
       </c>
       <c r="M98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P98" t="s">
         <v>38</v>
@@ -9696,7 +9704,7 @@
         <v>42</v>
       </c>
       <c r="AE98" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF98">
         <v>93847562</v>
@@ -9712,11 +9720,11 @@
       <c r="A99" t="s">
         <v>139</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C99">
-        <v>61854112</v>
+        <v>70103795</v>
       </c>
       <c r="D99" t="s">
         <v>31</v>
@@ -9737,7 +9745,7 @@
         <v>146926</v>
       </c>
       <c r="M99" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P99" t="s">
         <v>38</v>
@@ -9782,7 +9790,7 @@
         <v>42</v>
       </c>
       <c r="AE99" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF99">
         <v>29384716</v>
@@ -9798,11 +9806,11 @@
       <c r="A100" t="s">
         <v>140</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C100">
-        <v>29772599</v>
+        <v>72901337</v>
       </c>
       <c r="D100" t="s">
         <v>31</v>
@@ -9823,7 +9831,7 @@
         <v>564310</v>
       </c>
       <c r="M100" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P100" t="s">
         <v>38</v>
@@ -9868,7 +9876,7 @@
         <v>42</v>
       </c>
       <c r="AE100" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF100">
         <v>83746529</v>
@@ -9884,11 +9892,11 @@
       <c r="A101" t="s">
         <v>141</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C101">
-        <v>95411907</v>
+        <v>14953208</v>
       </c>
       <c r="D101" t="s">
         <v>31</v>
@@ -9909,7 +9917,7 @@
         <v>827355</v>
       </c>
       <c r="M101" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P101" t="s">
         <v>38</v>
@@ -9954,7 +9962,7 @@
         <v>42</v>
       </c>
       <c r="AE101" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF101">
         <v>19483765</v>
@@ -9970,11 +9978,11 @@
       <c r="A102" t="s">
         <v>142</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C102">
-        <v>26730847</v>
+        <v>37769834</v>
       </c>
       <c r="D102" t="s">
         <v>31</v>
@@ -9995,7 +10003,7 @@
         <v>376548</v>
       </c>
       <c r="M102" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P102" t="s">
         <v>38</v>
@@ -10040,7 +10048,7 @@
         <v>42</v>
       </c>
       <c r="AE102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF102">
         <v>28475639</v>
